--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1685,6 +1685,673 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>htmx</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bigskysoftware/htmx</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>&lt;/&gt; htmx - high power tools for HTML</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>TEN Agent is a realtime conversational AI agent powered by TEN. It seamlessly integrates the OpenAI Realtime API, RTC capabilities, and advanced features like weather updates, web search, computer vision, and Retrieval-Augmented Generation (RAG).</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>yt-dlp</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.github.com/yt-dlp/yt-dlp</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A feature-rich command-line audio/video downloader</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>blink.cmp</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Saghen/blink.cmp</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Performant, batteries-included completion plugin for Neovim</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>system-design-101</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ByteByteGoHq/system-design-101</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Explain complex systems using visuals and simple terms. Help you prepare for system design interviews.</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>waveterm</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.github.com/wavetermdev/waveterm</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>An open-source, cross-platform terminal for seamless workflows</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>godot</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.github.com/godotengine/godot</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Godot Engine – Multi-platform 2D and 3D game engine</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>midday</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.github.com/midday-ai/midday</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Run your business smarter 🪄</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>checkmate</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluewave-labs/checkmate</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Checkmate is an open-source, self-hosted tool designed to track and monitor server hardware, uptime, response times, and incidents in real-time with beautiful visualizations.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>spotube</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KRTirtho/spotube</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>🎧 Open source Spotify client that doesn't require Premium nor uses Electron! Available for both desktop &amp; mobile!</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Dart</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Paper</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PaperMC/Paper</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>The most widely used, high performance Minecraft server that aims to fix gameplay and mechanics inconsistencies</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>RIOT</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RIOT-OS/RIOT</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>RIOT - The friendly OS for IoT</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>wasp</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.github.com/wasp-lang/wasp</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>The fastest way to develop full-stack web apps with React &amp; Node.js.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>windows-rs</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.github.com/microsoft/windows-rs</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Rust for Windows</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>flame</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.github.com/flame-engine/flame</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A Flutter based game engine.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Dart</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-27</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1696,7 +2363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2662,6 +3329,545 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1145</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>graphcast</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-deepmind/graphcast</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>shardeum</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.github.com/shardeum/shardeum</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Shardeum is an EVM based autoscaling blockchain</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1342</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>3453</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>invoify</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.github.com/al1abb/invoify</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>An invoice generator app built using Next.js, Typescript, and Shadcn</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Telegram</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DrKLO/Telegram</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Telegram for Android source</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1081</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>pydantic-ai</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.github.com/pydantic/pydantic-ai</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Agent Framework / shim to use Pydantic with LLMs</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>911</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>agent-zero</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.github.com/frdel/agent-zero</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Agent Zero AI framework</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>phidata</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.github.com/phidatahq/phidata</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Build multi-modal Agents with memory, knowledge, tools and reasoning. Chat with them using a beautiful Agent UI.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>rig</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.github.com/0xPlaygrounds/rig</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>⚙️🦀 Build portable, modular &amp; lightweight Fullstack Agents</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>619</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>runner-images</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.github.com/actions/runner-images</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>GitHub Actions runner images</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>PowerShell</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-28</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2673,7 +3879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -3439,8 +4645,6 @@
           <t>Jupyter Notebook</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
           <t>10522</t>
@@ -3473,8 +4677,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
           <t>3526</t>
@@ -3507,8 +4709,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
           <t>5519</t>
@@ -3541,8 +4741,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
           <t>6044</t>
@@ -3575,8 +4773,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
           <t>3517</t>
@@ -3609,8 +4805,6 @@
           <t>Java</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
           <t>5314</t>
@@ -3643,8 +4837,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
           <t>3846</t>
@@ -3677,8 +4869,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
           <t>1158</t>
@@ -3711,8 +4901,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
           <t>4341</t>
@@ -3745,8 +4933,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
           <t>7123</t>
@@ -3779,8 +4965,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
           <t>2142</t>
@@ -3813,8 +4997,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
           <t>2522</t>
@@ -3847,8 +5029,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
           <t>3518</t>
@@ -3881,8 +5061,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
           <t>2641</t>
@@ -3915,8 +5093,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
           <t>2772</t>
@@ -3949,8 +5125,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
           <t>3577</t>
@@ -3983,8 +5157,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
           <t>2499</t>
@@ -4017,8 +5189,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
           <t>5221</t>
@@ -4051,8 +5221,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
           <t>3990</t>
@@ -4085,8 +5253,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
           <t>776</t>
@@ -4119,8 +5285,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
           <t>4554</t>
@@ -4129,6 +5293,652 @@
       <c r="H41" t="inlineStr">
         <is>
           <t>2024-12-14 14-47-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>3510</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>10485</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>5542</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>5988</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>3529</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>5323</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2152</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>TinyTroupe</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.github.com/microsoft/TinyTroupe</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>LLM-powered multiagent persona simulation for imagination enhancement and business insights.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>3157</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2679</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>3222</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>MinerU</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.github.com/opendatalab/MinerU</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A high-quality tool for convert PDF to Markdown and JSON.一站式开源高质量数据提取工具，将PDF转换成Markdown和JSON格式。</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>6723</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>5308</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>3432</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>3982</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>khoj</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.github.com/khoj-ai/khoj</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Your AI second brain. Self-hostable. Get answers from the web or your docs. Build custom agents, schedule automations, do deep research. Turn any online or local LLM into your personal, autonomous AI (gpt, claude, gemini, llama, qwen, mistral). Get started - free.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2497</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>4742</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-02-30</t>
         </is>
       </c>
     </row>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2352,6 +2352,673 @@
         </is>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>htmx</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bigskysoftware/htmx</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>&lt;/&gt; htmx - high power tools for HTML</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>TEN Agent is a realtime conversational AI agent powered by TEN. It seamlessly integrates the OpenAI Realtime API, RTC capabilities, and advanced features like weather updates, web search, computer vision, and Retrieval-Augmented Generation (RAG).</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>yt-dlp</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.github.com/yt-dlp/yt-dlp</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A feature-rich command-line audio/video downloader</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>blink.cmp</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Saghen/blink.cmp</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Performant, batteries-included completion plugin for Neovim</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>system-design-101</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ByteByteGoHq/system-design-101</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Explain complex systems using visuals and simple terms. Help you prepare for system design interviews.</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>waveterm</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://www.github.com/wavetermdev/waveterm</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>An open-source, cross-platform terminal for seamless workflows</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>godot</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://www.github.com/godotengine/godot</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Godot Engine – Multi-platform 2D and 3D game engine</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>midday</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://www.github.com/midday-ai/midday</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Run your business smarter 🪄</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>checkmate</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluewave-labs/checkmate</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Checkmate is an open-source, self-hosted tool designed to track and monitor server hardware, uptime, response times, and incidents in real-time with beautiful visualizations.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>spotube</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KRTirtho/spotube</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>🎧 Open source Spotify client that doesn't require Premium nor uses Electron! Available for both desktop &amp; mobile!</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Dart</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Paper</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PaperMC/Paper</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>The most widely used, high performance Minecraft server that aims to fix gameplay and mechanics inconsistencies</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>RIOT</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RIOT-OS/RIOT</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>RIOT - The friendly OS for IoT</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>wasp</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://www.github.com/wasp-lang/wasp</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>The fastest way to develop full-stack web apps with React &amp; Node.js.</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>windows-rs</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://www.github.com/microsoft/windows-rs</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Rust for Windows</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>flame</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://www.github.com/flame-engine/flame</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>A Flutter based game engine.</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Dart</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-16</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2363,7 +3030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3868,6 +4535,545 @@
         </is>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>1145</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>graphcast</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-deepmind/graphcast</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>shardeum</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.github.com/shardeum/shardeum</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Shardeum is an EVM based autoscaling blockchain</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>1342</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>3453</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>invoify</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.github.com/al1abb/invoify</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>An invoice generator app built using Next.js, Typescript, and Shadcn</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Telegram</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DrKLO/Telegram</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Telegram for Android source</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>1081</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>pydantic-ai</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.github.com/pydantic/pydantic-ai</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Agent Framework / shim to use Pydantic with LLMs</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>911</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>agent-zero</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.github.com/frdel/agent-zero</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Agent Zero AI framework</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>phidata</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.github.com/phidatahq/phidata</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Build multi-modal Agents with memory, knowledge, tools and reasoning. Chat with them using a beautiful Agent UI.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>rig</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.github.com/0xPlaygrounds/rig</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>⚙️🦀 Build portable, modular &amp; lightweight Fullstack Agents</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>619</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>runner-images</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.github.com/actions/runner-images</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>GitHub Actions runner images</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>PowerShell</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3879,7 +5085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -5317,8 +6523,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
           <t>3510</t>
@@ -5351,8 +6555,6 @@
           <t>Jupyter Notebook</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
           <t>10485</t>
@@ -5385,8 +6587,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
           <t>5542</t>
@@ -5419,8 +6619,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
           <t>5988</t>
@@ -5453,8 +6651,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
           <t>3529</t>
@@ -5487,8 +6683,6 @@
           <t>Java</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
           <t>5323</t>
@@ -5521,8 +6715,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
           <t>4378</t>
@@ -5555,8 +6747,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
           <t>1142</t>
@@ -5589,8 +6779,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
           <t>2152</t>
@@ -5623,8 +6811,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
           <t>3157</t>
@@ -5657,8 +6843,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
           <t>2679</t>
@@ -5691,8 +6875,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
           <t>3222</t>
@@ -5725,8 +6907,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
           <t>6723</t>
@@ -5759,8 +6939,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
           <t>5308</t>
@@ -5793,8 +6971,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
           <t>3432</t>
@@ -5827,8 +7003,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
           <t>3982</t>
@@ -5861,8 +7035,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
           <t>2497</t>
@@ -5895,8 +7067,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
           <t>4742</t>
@@ -5929,8 +7099,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
           <t>772</t>
@@ -5939,6 +7107,652 @@
       <c r="H60" t="inlineStr">
         <is>
           <t>2024-12-15 12-02-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>3510</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>10485</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>5542</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>5988</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>3529</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>5323</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2152</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>TinyTroupe</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://www.github.com/microsoft/TinyTroupe</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>LLM-powered multiagent persona simulation for imagination enhancement and business insights.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>3157</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2679</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>3222</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MinerU</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://www.github.com/opendatalab/MinerU</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>A high-quality tool for convert PDF to Markdown and JSON.一站式开源高质量数据提取工具，将PDF转换成Markdown和JSON格式。</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>6723</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>5308</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>3432</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>3982</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>khoj</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://www.github.com/khoj-ai/khoj</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Your AI second brain. Self-hostable. Get answers from the web or your docs. Build custom agents, schedule automations, do deep research. Turn any online or local LLM into your personal, autonomous AI (gpt, claude, gemini, llama, qwen, mistral). Get started - free.</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2497</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>4742</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-09-18</t>
         </is>
       </c>
     </row>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3019,6 +3019,673 @@
         </is>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>htmx</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bigskysoftware/htmx</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>&lt;/&gt; htmx - high power tools for HTML</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>TEN Agent is a realtime conversational AI agent powered by TEN. It seamlessly integrates the OpenAI Realtime API, RTC capabilities, and advanced features like weather updates, web search, computer vision, and Retrieval-Augmented Generation (RAG).</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>yt-dlp</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://www.github.com/yt-dlp/yt-dlp</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>A feature-rich command-line audio/video downloader</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>blink.cmp</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Saghen/blink.cmp</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Performant, batteries-included completion plugin for Neovim</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>system-design-101</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ByteByteGoHq/system-design-101</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Explain complex systems using visuals and simple terms. Help you prepare for system design interviews.</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>waveterm</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://www.github.com/wavetermdev/waveterm</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>An open-source, cross-platform terminal for seamless workflows</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>godot</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://www.github.com/godotengine/godot</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Godot Engine – Multi-platform 2D and 3D game engine</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>midday</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://www.github.com/midday-ai/midday</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Run your business smarter 🪄</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>checkmate</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluewave-labs/checkmate</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Checkmate is an open-source, self-hosted tool designed to track and monitor server hardware, uptime, response times, and incidents in real-time with beautiful visualizations.</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>spotube</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KRTirtho/spotube</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>🎧 Open source Spotify client that doesn't require Premium nor uses Electron! Available for both desktop &amp; mobile!</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Dart</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Paper</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PaperMC/Paper</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>The most widely used, high performance Minecraft server that aims to fix gameplay and mechanics inconsistencies</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>RIOT</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RIOT-OS/RIOT</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>RIOT - The friendly OS for IoT</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>wasp</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://www.github.com/wasp-lang/wasp</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>The fastest way to develop full-stack web apps with React &amp; Node.js.</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>windows-rs</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://www.github.com/microsoft/windows-rs</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Rust for Windows</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>flame</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://www.github.com/flame-engine/flame</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>A Flutter based game engine.</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Dart</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-33</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3030,7 +3697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5074,6 +5741,545 @@
         </is>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>1145</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>graphcast</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-deepmind/graphcast</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>shardeum</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://www.github.com/shardeum/shardeum</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Shardeum is an EVM based autoscaling blockchain</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>1342</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>3453</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>invoify</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://www.github.com/al1abb/invoify</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>An invoice generator app built using Next.js, Typescript, and Shadcn</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Telegram</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DrKLO/Telegram</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Telegram for Android source</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>1081</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>pydantic-ai</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://www.github.com/pydantic/pydantic-ai</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Agent Framework / shim to use Pydantic with LLMs</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>911</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>agent-zero</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://www.github.com/frdel/agent-zero</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Agent Zero AI framework</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>phidata</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://www.github.com/phidatahq/phidata</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Build multi-modal Agents with memory, knowledge, tools and reasoning. Chat with them using a beautiful Agent UI.</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>rig</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://www.github.com/0xPlaygrounds/rig</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>⚙️🦀 Build portable, modular &amp; lightweight Fullstack Agents</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>619</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>runner-images</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://www.github.com/actions/runner-images</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>GitHub Actions runner images</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>PowerShell</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5085,7 +6291,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -7131,8 +8337,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
           <t>3510</t>
@@ -7165,8 +8369,6 @@
           <t>Jupyter Notebook</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
           <t>10485</t>
@@ -7199,8 +8401,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
           <t>5542</t>
@@ -7233,8 +8433,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
           <t>5988</t>
@@ -7267,8 +8465,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
           <t>3529</t>
@@ -7301,8 +8497,6 @@
           <t>Java</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
           <t>5323</t>
@@ -7335,8 +8529,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
           <t>4378</t>
@@ -7369,8 +8561,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
           <t>1142</t>
@@ -7403,8 +8593,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
           <t>2152</t>
@@ -7437,8 +8625,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
           <t>3157</t>
@@ -7471,8 +8657,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
           <t>2679</t>
@@ -7505,8 +8689,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
           <t>3222</t>
@@ -7539,8 +8721,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
           <t>6723</t>
@@ -7573,8 +8753,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
           <t>5308</t>
@@ -7607,8 +8785,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
           <t>3432</t>
@@ -7641,8 +8817,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
           <t>3982</t>
@@ -7675,8 +8849,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
           <t>2497</t>
@@ -7709,8 +8881,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
           <t>4742</t>
@@ -7743,8 +8913,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
           <t>772</t>
@@ -7753,6 +8921,652 @@
       <c r="H79" t="inlineStr">
         <is>
           <t>2024-12-15 12-09-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>3510</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>10485</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>5542</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>5988</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>3529</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>5323</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2152</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>TinyTroupe</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://www.github.com/microsoft/TinyTroupe</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>LLM-powered multiagent persona simulation for imagination enhancement and business insights.</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>3157</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2679</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>3222</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>MinerU</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://www.github.com/opendatalab/MinerU</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>A high-quality tool for convert PDF to Markdown and JSON.一站式开源高质量数据提取工具，将PDF转换成Markdown和JSON格式。</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>6723</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>5308</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>3432</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>3982</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>khoj</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://www.github.com/khoj-ai/khoj</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Your AI second brain. Self-hostable. Get answers from the web or your docs. Build custom agents, schedule automations, do deep research. Turn any online or local LLM into your personal, autonomous AI (gpt, claude, gemini, llama, qwen, mistral). Get started - free.</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2497</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>4742</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>2024-12-15 12-22-35</t>
         </is>
       </c>
     </row>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3686,6 +3686,673 @@
         </is>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>htmx</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bigskysoftware/htmx</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>&lt;/&gt; htmx - high power tools for HTML</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>TEN Agent is a realtime conversational AI agent powered by TEN. It seamlessly integrates the OpenAI Realtime API, RTC capabilities, and advanced features like weather updates, web search, computer vision, and Retrieval-Augmented Generation (RAG).</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>yt-dlp</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://www.github.com/yt-dlp/yt-dlp</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>A feature-rich command-line audio/video downloader</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>blink.cmp</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Saghen/blink.cmp</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Performant, batteries-included completion plugin for Neovim</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>system-design-101</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ByteByteGoHq/system-design-101</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Explain complex systems using visuals and simple terms. Help you prepare for system design interviews.</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>waveterm</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://www.github.com/wavetermdev/waveterm</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>An open-source, cross-platform terminal for seamless workflows</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>godot</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://www.github.com/godotengine/godot</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Godot Engine – Multi-platform 2D and 3D game engine</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>midday</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://www.github.com/midday-ai/midday</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Run your business smarter 🪄</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>checkmate</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluewave-labs/checkmate</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Checkmate is an open-source, self-hosted tool designed to track and monitor server hardware, uptime, response times, and incidents in real-time with beautiful visualizations.</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>spotube</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KRTirtho/spotube</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>🎧 Open source Spotify client that doesn't require Premium nor uses Electron! Available for both desktop &amp; mobile!</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Dart</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Paper</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PaperMC/Paper</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>The most widely used, high performance Minecraft server that aims to fix gameplay and mechanics inconsistencies</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>RIOT</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RIOT-OS/RIOT</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>RIOT - The friendly OS for IoT</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>wasp</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://www.github.com/wasp-lang/wasp</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>The fastest way to develop full-stack web apps with React &amp; Node.js.</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>windows-rs</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://www.github.com/microsoft/windows-rs</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Rust for Windows</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>flame</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://www.github.com/flame-engine/flame</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>A Flutter based game engine.</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Dart</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3697,7 +4364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6280,6 +6947,545 @@
         </is>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>1145</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>graphcast</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-deepmind/graphcast</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>shardeum</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://www.github.com/shardeum/shardeum</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Shardeum is an EVM based autoscaling blockchain</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>1342</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>3453</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>invoify</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://www.github.com/al1abb/invoify</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>An invoice generator app built using Next.js, Typescript, and Shadcn</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>943</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Telegram</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DrKLO/Telegram</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Telegram for Android source</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>1081</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>pydantic-ai</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://www.github.com/pydantic/pydantic-ai</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Agent Framework / shim to use Pydantic with LLMs</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>911</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>agent-zero</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://www.github.com/frdel/agent-zero</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Agent Zero AI framework</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>phidata</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://www.github.com/phidatahq/phidata</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Build multi-modal Agents with memory, knowledge, tools and reasoning. Chat with them using a beautiful Agent UI.</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>rig</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://www.github.com/0xPlaygrounds/rig</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>⚙️🦀 Build portable, modular &amp; lightweight Fullstack Agents</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>619</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>runner-images</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://www.github.com/actions/runner-images</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>GitHub Actions runner images</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>PowerShell</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-14</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6291,7 +7497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -8945,8 +10151,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
           <t>3510</t>
@@ -8979,8 +10183,6 @@
           <t>Jupyter Notebook</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
           <t>10485</t>
@@ -9013,8 +10215,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
           <t>5542</t>
@@ -9047,8 +10247,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
           <t>5988</t>
@@ -9081,8 +10279,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
           <t>3529</t>
@@ -9115,8 +10311,6 @@
           <t>Java</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
           <t>5323</t>
@@ -9149,8 +10343,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
           <t>4378</t>
@@ -9183,8 +10375,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
           <t>1142</t>
@@ -9217,8 +10407,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
           <t>2152</t>
@@ -9251,8 +10439,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
           <t>3157</t>
@@ -9285,8 +10471,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
           <t>2679</t>
@@ -9319,8 +10503,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
           <t>3222</t>
@@ -9353,8 +10535,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
           <t>6723</t>
@@ -9387,8 +10567,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
           <t>5308</t>
@@ -9421,8 +10599,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
           <t>3432</t>
@@ -9455,8 +10631,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
           <t>3982</t>
@@ -9489,8 +10663,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
           <t>2497</t>
@@ -9523,8 +10695,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
           <t>4742</t>
@@ -9557,8 +10727,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
           <t>772</t>
@@ -9567,6 +10735,652 @@
       <c r="H98" t="inlineStr">
         <is>
           <t>2024-12-15 12-22-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>3510</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>10485</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>5542</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>5988</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>3529</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>5323</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>2152</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>TinyTroupe</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://www.github.com/microsoft/TinyTroupe</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>LLM-powered multiagent persona simulation for imagination enhancement and business insights.</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>3157</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>2679</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>3222</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>MinerU</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://www.github.com/opendatalab/MinerU</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>A high-quality tool for convert PDF to Markdown and JSON.一站式开源高质量数据提取工具，将PDF转换成Markdown和JSON格式。</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>6723</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>5308</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>3432</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>3982</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>khoj</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://www.github.com/khoj-ai/khoj</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Your AI second brain. Self-hostable. Get answers from the web or your docs. Build custom agents, schedule automations, do deep research. Turn any online or local LLM into your personal, autonomous AI (gpt, claude, gemini, llama, qwen, mistral). Get started - free.</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>2497</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>4742</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>2024-12-15 13-12-16</t>
         </is>
       </c>
     </row>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4353,6 +4353,673 @@
         </is>
       </c>
     </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>htmx</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bigskysoftware/htmx</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>&lt;/&gt; htmx - high power tools for HTML</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>yt-dlp</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://www.github.com/yt-dlp/yt-dlp</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>A feature-rich command-line audio/video downloader</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>blink.cmp</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Saghen/blink.cmp</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Performant, batteries-included completion plugin for Neovim</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>system-design-101</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ByteByteGoHq/system-design-101</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Explain complex systems using visuals and simple terms. Help you prepare for system design interviews.</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>waveterm</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://www.github.com/wavetermdev/waveterm</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>An open-source, cross-platform terminal for seamless workflows</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>godot</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://www.github.com/godotengine/godot</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Godot Engine – Multi-platform 2D and 3D game engine</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>midday</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://www.github.com/midday-ai/midday</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Invoicing, Time tracking, File reconciliation, Storage, Financial Overview &amp; your own Assistant made for Freelancers</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>checkmate</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluewave-labs/checkmate</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Checkmate is an open-source, self-hosted tool designed to track and monitor server hardware, uptime, response times, and incidents in real-time with beautiful visualizations.</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>spotube</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KRTirtho/spotube</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>🎧 Open source Spotify client that doesn't require Premium nor uses Electron! Available for both desktop &amp; mobile!</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Dart</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Paper</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PaperMC/Paper</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>The most widely used, high performance Minecraft server that aims to fix gameplay and mechanics inconsistencies</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>RIOT</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RIOT-OS/RIOT</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>RIOT - The friendly OS for IoT</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>wasp</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://www.github.com/wasp-lang/wasp</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>The fastest way to develop full-stack web apps with React &amp; Node.js.</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>windows-rs</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://www.github.com/microsoft/windows-rs</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Rust for Windows</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>flame</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://www.github.com/flame-engine/flame</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>A Flutter based game engine.</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Dart</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-52</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4364,7 +5031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7486,6 +8153,545 @@
         </is>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>1203</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>graphcast</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-deepmind/graphcast</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>shardeum</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://www.github.com/shardeum/shardeum</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Shardeum is an EVM based autoscaling blockchain</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>1145</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>3309</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>invoify</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://www.github.com/al1abb/invoify</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>An invoice generator app built using Next.js, Typescript, and Shadcn</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Telegram</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DrKLO/Telegram</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Telegram for Android source</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>1251</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>pydantic-ai</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://www.github.com/pydantic/pydantic-ai</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Agent Framework / shim to use Pydantic with LLMs</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>agent-zero</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://www.github.com/frdel/agent-zero</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Agent Zero AI framework</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>phidata</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://www.github.com/phidatahq/phidata</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Build multi-modal Agents with memory, knowledge, tools and reasoning. Chat with them using a beautiful Agent UI.</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>rig</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://www.github.com/0xPlaygrounds/rig</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>⚙️🦀 Build portable, modular &amp; lightweight Fullstack Agents</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>runner-images</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://www.github.com/actions/runner-images</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>GitHub Actions runner images</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>PowerShell</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-53</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7497,7 +8703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -10759,8 +11965,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
           <t>3510</t>
@@ -10793,8 +11997,6 @@
           <t>Jupyter Notebook</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
           <t>10485</t>
@@ -10827,8 +12029,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
           <t>5542</t>
@@ -10861,8 +12061,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
           <t>5988</t>
@@ -10895,8 +12093,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
           <t>3529</t>
@@ -10929,8 +12125,6 @@
           <t>Java</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
           <t>5323</t>
@@ -10963,8 +12157,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
           <t>4378</t>
@@ -10997,8 +12189,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
           <t>1142</t>
@@ -11031,8 +12221,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
           <t>2152</t>
@@ -11065,8 +12253,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
           <t>3157</t>
@@ -11099,8 +12285,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
           <t>2679</t>
@@ -11133,8 +12317,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
           <t>3222</t>
@@ -11167,8 +12349,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
           <t>6723</t>
@@ -11201,8 +12381,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
           <t>5308</t>
@@ -11235,8 +12413,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
           <t>3432</t>
@@ -11269,8 +12445,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
           <t>3982</t>
@@ -11303,8 +12477,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
           <t>2497</t>
@@ -11337,8 +12509,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
           <t>4742</t>
@@ -11371,8 +12541,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
           <t>772</t>
@@ -11381,6 +12549,618 @@
       <c r="H117" t="inlineStr">
         <is>
           <t>2024-12-15 13-12-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>3661</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>10441</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>5544</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>5951</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>3564</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>5314</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>4418</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>1116</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>2137</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>TinyTroupe</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://www.github.com/microsoft/TinyTroupe</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>LLM-powered multiagent persona simulation for imagination enhancement and business insights.</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>2424</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>2714</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>3055</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>MinerU</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://www.github.com/opendatalab/MinerU</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>A high-quality tool for convert PDF to Markdown and JSON.一站式开源高质量数据提取工具，将PDF转换成Markdown和JSON格式。</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>5732</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>5429</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>3274</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>3981</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>khoj</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://www.github.com/khoj-ai/khoj</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Your AI second brain. Self-hostable. Get answers from the web or your docs. Build custom agents, schedule automations, do deep research. Turn any online or local LLM into your personal, autonomous AI (gpt, claude, gemini, llama, qwen, mistral). Get started - free.</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>2399</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>4864</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>2024-12-16 10-31-54</t>
         </is>
       </c>
     </row>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:H156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5020,6 +5020,673 @@
         </is>
       </c>
     </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>7657</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>983</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>3122</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>8502</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>603</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>1559</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>waveterm</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://www.github.com/wavetermdev/waveterm</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>An open-source, cross-platform terminal for seamless workflows</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>6743</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>6588</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>yt-dlp</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://www.github.com/yt-dlp/yt-dlp</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>A feature-rich command-line audio/video downloader</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>93350</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>7268</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>50896</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>9203</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Radarr</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Radarr/Radarr</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Movie organizer/manager for usenet and torrent users.</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>10552</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1009</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>blink.cmp</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Saghen/blink.cmp</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Performant, batteries-included completion plugin for Neovim</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>1941</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>pcsx2</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PCSX2/pcsx2</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>PCSX2 - The Playstation 2 Emulator</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>12070</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1638</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>dice</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DiceDB/dice</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>DiceDB is an open source, redis-compliant, reactive, scalable, highly-available, unified cache optimized for modern hardware.</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>7203</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1120</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Tasmota</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://www.github.com/arendst/Tasmota</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Alternative firmware for ESP8266 and ESP32 based devices with easy configuration using webUI, OTA updates, automation using timers or rules, expandability and entirely local control over MQTT, HTTP, Serial or KNX. Full documentation at</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>22394</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>4826</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>windows-rs</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://www.github.com/microsoft/windows-rs</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Rust for Windows</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>10747</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>system-design-101</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ByteByteGoHq/system-design-101</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Explain complex systems using visuals and simple terms. Help you prepare for system design interviews.</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>66051</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>6963</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>32546</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>6532</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>18128</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1273</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-36</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5031,7 +5698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8692,6 +9359,673 @@
         </is>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>maigret</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://www.github.com/soxoj/maigret</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>🕵️‍♂️ Collect a dossier on a person by username from thousands of sites</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>13369</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>918</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-37</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>7036</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>756</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-37</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>7657</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>983</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>1669</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-37</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>23208</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>1433</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-37</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>graphcast</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-deepmind/graphcast</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>5440</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>668</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-37</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>pydantic-ai</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://www.github.com/pydantic/pydantic-ai</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Agent Framework / shim to use Pydantic with LLMs</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>3995</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-37</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://www.github.com/FoundationVision/VAR</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>[NeurIPS 2024 Oral][GPT beats diffusion🔥] [scaling laws in visual generation📈] Official impl. of "Visual Autoregressive Modeling: Scalable Image Generation via Next-Scale Prediction". An *ultra-simple, user-friendly yet state-of-the-art* codebase for autoregressive image generation!</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>6247</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-37</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>13032</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5351</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-37</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>4816</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1379</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>1260</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-37</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>invoify</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://www.github.com/al1abb/invoify</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>An invoice generator app built using Next.js, Typescript, and Shadcn</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>1617</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-37</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>18128</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1273</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-37</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>32550</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>2813</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-37</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>13984</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2132</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-37</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>iptv</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://www.github.com/iptv-org/iptv</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Collection of publicly available IPTV channels from all over the world</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>87869</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2846</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-37</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>8502</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>603</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-37</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://www.github.com/lmarzen/esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>A low-power E-Paper weather display powered by an ESP32 microcontroller. Utilizes the OpenWeatherMap API.</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>4643</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>1693</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-37</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8703,7 +10037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -12573,8 +13907,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
           <t>3661</t>
@@ -12607,8 +13939,6 @@
           <t>Jupyter Notebook</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr">
         <is>
           <t>10441</t>
@@ -12641,8 +13971,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
         <is>
           <t>5544</t>
@@ -12675,8 +14003,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr">
         <is>
           <t>5951</t>
@@ -12709,8 +14035,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
         <is>
           <t>3564</t>
@@ -12743,8 +14067,6 @@
           <t>Java</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr">
         <is>
           <t>5314</t>
@@ -12777,8 +14099,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr">
         <is>
           <t>4418</t>
@@ -12811,8 +14131,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr">
         <is>
           <t>1116</t>
@@ -12845,8 +14163,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr">
         <is>
           <t>2137</t>
@@ -12879,8 +14195,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr">
         <is>
           <t>2424</t>
@@ -12913,8 +14227,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
           <t>2714</t>
@@ -12947,8 +14259,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
         <is>
           <t>3055</t>
@@ -12981,8 +14291,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr">
         <is>
           <t>5732</t>
@@ -13015,8 +14323,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr">
         <is>
           <t>5429</t>
@@ -13049,8 +14355,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr">
         <is>
           <t>3274</t>
@@ -13083,8 +14387,6 @@
           <t>TypeScript</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr">
         <is>
           <t>3981</t>
@@ -13117,8 +14419,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr">
         <is>
           <t>2399</t>
@@ -13151,8 +14451,6 @@
           <t>Python</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr">
         <is>
           <t>4864</t>
@@ -13161,6 +14459,930 @@
       <c r="H135" t="inlineStr">
         <is>
           <t>2024-12-16 10-31-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>4816</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1379</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>8502</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>603</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>6906</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>65637</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>7983</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>5987</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>23307</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3978</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>9878</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>32546</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>6532</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>3662</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>103515</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>12993</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>5342</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>6588</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>2306</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>30041</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1862</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>7741</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>563</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>17216</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1283</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>14025</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1811</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>2972</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>3122</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>23818</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2355</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>2051</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>8995</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1927</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>3458</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>15067</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>5720</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>24198</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2494</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>MinerU</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://www.github.com/opendatalab/MinerU</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>A high-quality tool for convert PDF to Markdown and JSON.一站式开源高质量数据提取工具，将PDF转换成Markdown和JSON格式。</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>21390</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1526</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>4811</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bitcoin/bitcoin</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Bitcoin Core integration/staging tree</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>80775</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>36589</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>1382</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>1802</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>39123</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4451</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>4971</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>v2rayN</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://www.github.com/2dust/v2rayN</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>A GUI client for Windows and Linux, support Xray core and sing-box-core and others</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>71698</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>11751</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>dspy</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://www.github.com/stanfordnlp/dspy</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>DSPy: The framework for programming—not prompting—language models</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>20234</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1532</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-13-40</t>
         </is>
       </c>
     </row>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:H172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5687,6 +5687,673 @@
         </is>
       </c>
     </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>7685</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>986</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>3137</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>8550</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>603</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>1559</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>waveterm</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://www.github.com/wavetermdev/waveterm</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>An open-source, cross-platform terminal for seamless workflows</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>6758</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>6604</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>717</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>yt-dlp</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://www.github.com/yt-dlp/yt-dlp</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>A feature-rich command-line audio/video downloader</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>93354</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>7268</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>50900</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>9203</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Radarr</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Radarr/Radarr</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Movie organizer/manager for usenet and torrent users.</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>10554</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1009</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>blink.cmp</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Saghen/blink.cmp</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Performant, batteries-included completion plugin for Neovim</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>1943</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>pcsx2</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PCSX2/pcsx2</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>PCSX2 - The Playstation 2 Emulator</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>12074</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1638</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>dice</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DiceDB/dice</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>DiceDB is an open source, redis-compliant, reactive, scalable, highly-available, unified cache optimized for modern hardware.</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>7208</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1120</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Tasmota</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>https://www.github.com/arendst/Tasmota</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Alternative firmware for ESP8266 and ESP32 based devices with easy configuration using webUI, OTA updates, automation using timers or rules, expandability and entirely local control over MQTT, HTTP, Serial or KNX. Full documentation at</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>22397</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>4826</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>windows-rs</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>https://www.github.com/microsoft/windows-rs</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Rust for Windows</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>10751</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>system-design-101</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ByteByteGoHq/system-design-101</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Explain complex systems using visuals and simple terms. Help you prepare for system design interviews.</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>66063</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>6963</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>32552</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>6532</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>18129</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1273</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-23</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5698,7 +6365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10026,6 +10693,673 @@
         </is>
       </c>
     </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>maigret</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://www.github.com/soxoj/maigret</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>🕵️‍♂️ Collect a dossier on a person by username from thousands of sites</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>13375</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>918</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>7036</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>756</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>7685</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>986</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>1669</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>23210</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>1433</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>graphcast</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-deepmind/graphcast</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>5440</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>668</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>pydantic-ai</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://www.github.com/pydantic/pydantic-ai</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Agent Framework / shim to use Pydantic with LLMs</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>3995</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://www.github.com/FoundationVision/VAR</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>[NeurIPS 2024 Oral][GPT beats diffusion🔥] [scaling laws in visual generation📈] Official impl. of "Visual Autoregressive Modeling: Scalable Image Generation via Next-Scale Prediction". An *ultra-simple, user-friendly yet state-of-the-art* codebase for autoregressive image generation!</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>6248</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>13032</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>5351</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>4824</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1379</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>1260</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>invoify</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://www.github.com/al1abb/invoify</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>An invoice generator app built using Next.js, Typescript, and Shadcn</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>1618</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>18129</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1273</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>32551</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>2813</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>13986</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2132</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>iptv</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://www.github.com/iptv-org/iptv</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Collection of publicly available IPTV channels from all over the world</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>87875</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2846</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>8550</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>603</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://www.github.com/lmarzen/esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>A low-power E-Paper weather display powered by an ESP32 microcontroller. Utilizes the OpenWeatherMap API.</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>4643</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>1693</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-24</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10037,7 +11371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H157"/>
+  <dimension ref="A1:H179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -15386,6 +16720,930 @@
         </is>
       </c>
     </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>4824</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1379</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>8550</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>603</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>6906</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>65640</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>7984</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>5987</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>23312</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3981</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>9878</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>32552</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>6532</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>3662</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>103523</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>12993</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>5342</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>6604</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>717</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>2306</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>30044</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1862</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>7741</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>563</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>17219</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1283</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>14024</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1811</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>2972</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>3137</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>23818</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2355</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>2051</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>8998</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>3458</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>15076</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>5720</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>24198</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2494</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>MinerU</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>https://www.github.com/opendatalab/MinerU</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>A high-quality tool for convert PDF to Markdown and JSON.一站式开源高质量数据提取工具，将PDF转换成Markdown和JSON格式。</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>21394</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1526</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>4811</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bitcoin/bitcoin</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Bitcoin Core integration/staging tree</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>80776</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>36589</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>1382</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>1804</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>39125</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>4451</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>4971</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>v2rayN</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://www.github.com/2dust/v2rayN</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>A GUI client for Windows and Linux, support Xray core and sing-box-core and others</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>71701</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>11751</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>dspy</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://www.github.com/stanfordnlp/dspy</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>DSPy: The framework for programming—not prompting—language models</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>20238</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1532</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>2024-12-17 03-54-25</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H172"/>
+  <dimension ref="A1:H188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6354,6 +6354,673 @@
         </is>
       </c>
     </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>7723</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>987</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-49-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>3146</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-49-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>8574</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>1559</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-49-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>waveterm</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://www.github.com/wavetermdev/waveterm</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>An open-source, cross-platform terminal for seamless workflows</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>6767</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-49-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>6620</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>717</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-49-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>yt-dlp</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://www.github.com/yt-dlp/yt-dlp</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>A feature-rich command-line audio/video downloader</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>93361</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>7269</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-49-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>50908</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>9203</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-49-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Radarr</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Radarr/Radarr</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Movie organizer/manager for usenet and torrent users.</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>10554</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1009</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-49-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>blink.cmp</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Saghen/blink.cmp</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Performant, batteries-included completion plugin for Neovim</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>1943</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-49-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>pcsx2</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PCSX2/pcsx2</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>PCSX2 - The Playstation 2 Emulator</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>12082</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1638</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-49-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>dice</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DiceDB/dice</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>DiceDB is an open source, redis-compliant, reactive, scalable, highly-available, unified cache optimized for modern hardware.</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>7214</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1120</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-49-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Tasmota</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://www.github.com/arendst/Tasmota</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Alternative firmware for ESP8266 and ESP32 based devices with easy configuration using webUI, OTA updates, automation using timers or rules, expandability and entirely local control over MQTT, HTTP, Serial or KNX. Full documentation at</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>22399</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>4826</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-49-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>windows-rs</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://www.github.com/microsoft/windows-rs</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Rust for Windows</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>10759</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-49-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>system-design-101</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ByteByteGoHq/system-design-101</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Explain complex systems using visuals and simple terms. Help you prepare for system design interviews.</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>66077</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>6963</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-49-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>32560</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>6533</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-49-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>18137</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1275</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-49-59</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6365,7 +7032,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11360,6 +12027,673 @@
         </is>
       </c>
     </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>maigret</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://www.github.com/soxoj/maigret</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>🕵️‍♂️ Collect a dossier on a person by username from thousands of sites</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>13381</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>918</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>7037</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>756</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>7723</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>987</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>1669</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>23212</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>1433</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>graphcast</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-deepmind/graphcast</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>5440</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>668</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>pydantic-ai</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://www.github.com/pydantic/pydantic-ai</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Agent Framework / shim to use Pydantic with LLMs</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>3995</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://www.github.com/FoundationVision/VAR</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>[NeurIPS 2024 Oral][GPT beats diffusion🔥] [scaling laws in visual generation📈] Official impl. of "Visual Autoregressive Modeling: Scalable Image Generation via Next-Scale Prediction". An *ultra-simple, user-friendly yet state-of-the-art* codebase for autoregressive image generation!</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>6249</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>13033</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>5350</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>4839</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1381</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>1260</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>invoify</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://www.github.com/al1abb/invoify</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>An invoice generator app built using Next.js, Typescript, and Shadcn</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>1618</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>18137</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1275</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>32557</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>2813</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>13989</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2132</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>iptv</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://www.github.com/iptv-org/iptv</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Collection of publicly available IPTV channels from all over the world</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>87878</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2846</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>8574</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://www.github.com/lmarzen/esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>A low-power E-Paper weather display powered by an ESP32 microcontroller. Utilizes the OpenWeatherMap API.</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>4643</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>1693</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -11371,7 +12705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H179"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -17644,6 +18978,930 @@
         </is>
       </c>
     </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>4839</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1381</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>8574</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>6906</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>65646</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>7984</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>5987</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>23314</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>3982</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>9878</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>32560</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>6533</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>3662</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>103525</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>12993</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>5342</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>6620</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>717</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>2306</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>30049</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1863</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>7742</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>563</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>17223</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1283</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>14027</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>1811</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>2972</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>3146</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>23821</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2355</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>2051</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>3458</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>15082</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>5720</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>24200</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2494</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>MinerU</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>https://www.github.com/opendatalab/MinerU</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>A high-quality tool for convert PDF to Markdown and JSON.一站式开源高质量数据提取工具，将PDF转换成Markdown和JSON格式。</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>21401</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1527</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>4811</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bitcoin/bitcoin</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Bitcoin Core integration/staging tree</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>80776</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>36589</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>1382</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>1805</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>39130</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>4451</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>4971</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>v2rayN</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>https://www.github.com/2dust/v2rayN</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>A GUI client for Windows and Linux, support Xray core and sing-box-core and others</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>71703</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>11753</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>dspy</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>https://www.github.com/stanfordnlp/dspy</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>DSPy: The framework for programming—not prompting—language models</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>20240</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>1532</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>2024-12-17 04-50-01</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H188"/>
+  <dimension ref="A1:H204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7021,6 +7021,673 @@
         </is>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>7779</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>3157</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>8611</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>1559</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>waveterm</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>https://www.github.com/wavetermdev/waveterm</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>An open-source, cross-platform terminal for seamless workflows</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>6786</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>6639</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>717</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>yt-dlp</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>https://www.github.com/yt-dlp/yt-dlp</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>A feature-rich command-line audio/video downloader</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>93371</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>7270</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>50911</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>9203</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Radarr</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Radarr/Radarr</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Movie organizer/manager for usenet and torrent users.</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>10560</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>blink.cmp</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Saghen/blink.cmp</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Performant, batteries-included completion plugin for Neovim</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>1949</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>pcsx2</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PCSX2/pcsx2</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>PCSX2 - The Playstation 2 Emulator</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>12091</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>1638</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>dice</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DiceDB/dice</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>DiceDB is an open source, redis-compliant, reactive, scalable, highly-available, unified cache optimized for modern hardware.</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>7220</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>1120</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Tasmota</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>https://www.github.com/arendst/Tasmota</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Alternative firmware for ESP8266 and ESP32 based devices with easy configuration using webUI, OTA updates, automation using timers or rules, expandability and entirely local control over MQTT, HTTP, Serial or KNX. Full documentation at</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>22404</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>4826</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>windows-rs</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>https://www.github.com/microsoft/windows-rs</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Rust for Windows</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>10765</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>system-design-101</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ByteByteGoHq/system-design-101</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Explain complex systems using visuals and simple terms. Help you prepare for system design interviews.</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>66094</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>6966</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>32569</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>6533</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>18139</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>1275</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-13</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7032,7 +7699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12694,6 +13361,673 @@
         </is>
       </c>
     </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>maigret</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://www.github.com/soxoj/maigret</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>🕵️‍♂️ Collect a dossier on a person by username from thousands of sites</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>13384</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>918</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>7038</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>756</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>7779</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>988</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>1669</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>23216</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>1433</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>graphcast</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-deepmind/graphcast</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>5441</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>668</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>pydantic-ai</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://www.github.com/pydantic/pydantic-ai</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Agent Framework / shim to use Pydantic with LLMs</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>3997</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>https://www.github.com/FoundationVision/VAR</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>[NeurIPS 2024 Oral][GPT beats diffusion🔥] [scaling laws in visual generation📈] Official impl. of "Visual Autoregressive Modeling: Scalable Image Generation via Next-Scale Prediction". An *ultra-simple, user-friendly yet state-of-the-art* codebase for autoregressive image generation!</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>6251</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>13033</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>5350</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>4843</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1383</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>1260</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>invoify</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://www.github.com/al1abb/invoify</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>An invoice generator app built using Next.js, Typescript, and Shadcn</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>1619</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>18139</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1275</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>32567</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>2813</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>13991</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2132</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>iptv</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://www.github.com/iptv-org/iptv</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Collection of publicly available IPTV channels from all over the world</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>87879</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2846</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>8611</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://www.github.com/lmarzen/esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>A low-power E-Paper weather display powered by an ESP32 microcontroller. Utilizes the OpenWeatherMap API.</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>4645</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>1693</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-14</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -12705,7 +14039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:H223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -19902,6 +21236,930 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>4843</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>1383</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>8612</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>6906</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>65650</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>7984</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>5987</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>23319</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>3982</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>9878</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>32569</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>6533</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>3662</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>103527</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>12997</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>5342</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>6639</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>717</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>2306</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>30053</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>1863</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>7743</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>563</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>17223</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>1283</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>14028</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>1811</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>2972</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>3157</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>23821</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2355</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>2051</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>9007</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>3458</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>15093</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>5720</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>24201</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2495</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>MinerU</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>https://www.github.com/opendatalab/MinerU</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>A high-quality tool for convert PDF to Markdown and JSON.一站式开源高质量数据提取工具，将PDF转换成Markdown和JSON格式。</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>21403</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>1527</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>4811</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bitcoin/bitcoin</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Bitcoin Core integration/staging tree</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>80778</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>36589</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>1382</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>1808</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>39146</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>4451</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>4971</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>v2rayN</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>https://www.github.com/2dust/v2rayN</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>A GUI client for Windows and Linux, support Xray core and sing-box-core and others</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>71704</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>11753</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>dspy</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>https://www.github.com/stanfordnlp/dspy</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>DSPy: The framework for programming—not prompting—language models</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>20241</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>1533</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>2024-12-17 05-47-15</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H204"/>
+  <dimension ref="A1:H220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7688,6 +7688,673 @@
         </is>
       </c>
     </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>7852</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>991</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>3181</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>8664</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>1559</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>waveterm</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>https://www.github.com/wavetermdev/waveterm</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>An open-source, cross-platform terminal for seamless workflows</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>6804</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>6665</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>719</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>yt-dlp</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>https://www.github.com/yt-dlp/yt-dlp</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>A feature-rich command-line audio/video downloader</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>93386</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>7273</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>50917</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>9203</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Radarr</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Radarr/Radarr</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Movie organizer/manager for usenet and torrent users.</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>10568</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>blink.cmp</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Saghen/blink.cmp</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Performant, batteries-included completion plugin for Neovim</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>1952</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>pcsx2</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PCSX2/pcsx2</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>PCSX2 - The Playstation 2 Emulator</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>12102</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>1638</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>dice</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DiceDB/dice</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>DiceDB is an open source, redis-compliant, reactive, scalable, highly-available, unified cache optimized for modern hardware.</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>7229</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>1120</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Tasmota</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>https://www.github.com/arendst/Tasmota</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Alternative firmware for ESP8266 and ESP32 based devices with easy configuration using webUI, OTA updates, automation using timers or rules, expandability and entirely local control over MQTT, HTTP, Serial or KNX. Full documentation at</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>22410</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>4826</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>windows-rs</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>https://www.github.com/microsoft/windows-rs</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Rust for Windows</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>10774</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>system-design-101</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ByteByteGoHq/system-design-101</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Explain complex systems using visuals and simple terms. Help you prepare for system design interviews.</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>66119</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>6968</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>32580</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>6534</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>18144</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>1275</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-21</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7699,7 +8366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H177"/>
+  <dimension ref="A1:H193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14028,6 +14695,673 @@
         </is>
       </c>
     </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>maigret</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://www.github.com/soxoj/maigret</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>🕵️‍♂️ Collect a dossier on a person by username from thousands of sites</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>13394</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>918</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>7044</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>756</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>7852</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>991</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>1669</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>23224</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>1433</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>graphcast</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-deepmind/graphcast</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>5444</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>668</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>pydantic-ai</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://www.github.com/pydantic/pydantic-ai</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Agent Framework / shim to use Pydantic with LLMs</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://www.github.com/FoundationVision/VAR</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>[NeurIPS 2024 Oral][GPT beats diffusion🔥] [scaling laws in visual generation📈] Official impl. of "Visual Autoregressive Modeling: Scalable Image Generation via Next-Scale Prediction". An *ultra-simple, user-friendly yet state-of-the-art* codebase for autoregressive image generation!</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>6253</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>13033</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>5350</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>4854</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1388</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>1260</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>invoify</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>https://www.github.com/al1abb/invoify</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>An invoice generator app built using Next.js, Typescript, and Shadcn</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>1621</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>18144</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1275</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>32571</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>2813</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>13995</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2132</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>iptv</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://www.github.com/iptv-org/iptv</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Collection of publicly available IPTV channels from all over the world</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>87882</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2845</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>8664</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>https://www.github.com/lmarzen/esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>A low-power E-Paper weather display powered by an ESP32 microcontroller. Utilizes the OpenWeatherMap API.</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>1693</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-23</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -14039,7 +15373,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H223"/>
+  <dimension ref="A1:H245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -22160,6 +23494,930 @@
         </is>
       </c>
     </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>4854</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>1388</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>8664</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>6906</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>65657</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>7985</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>5987</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>23325</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>3985</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>9878</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>32580</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>6534</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>3662</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>103534</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>12998</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>5342</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>6665</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>719</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>2306</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>30056</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>1863</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>7743</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>17226</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>1284</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>14028</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>1810</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>2972</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>3181</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>23824</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>2355</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>2051</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>9014</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>3458</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>15110</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>5720</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>24205</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>2495</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>MinerU</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>https://www.github.com/opendatalab/MinerU</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>A high-quality tool for convert PDF to Markdown and JSON.一站式开源高质量数据提取工具，将PDF转换成Markdown和JSON格式。</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>21414</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>1529</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>4811</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bitcoin/bitcoin</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Bitcoin Core integration/staging tree</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>80779</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>36588</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>1382</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>1808</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>39161</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>4453</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>4971</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>v2rayN</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>https://www.github.com/2dust/v2rayN</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>A GUI client for Windows and Linux, support Xray core and sing-box-core and others</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>71711</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>11754</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>dspy</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>https://www.github.com/stanfordnlp/dspy</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>DSPy: The framework for programming—not prompting—language models</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>20242</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>1533</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>2024-12-17 06-52-24</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8355,6 +8355,673 @@
         </is>
       </c>
     </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>7903</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>3192</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>8709</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>1559</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>waveterm</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>https://www.github.com/wavetermdev/waveterm</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>An open-source, cross-platform terminal for seamless workflows</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>6824</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>6695</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>719</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>yt-dlp</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>https://www.github.com/yt-dlp/yt-dlp</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>A feature-rich command-line audio/video downloader</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>93400</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>7275</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>50920</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>9203</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Radarr</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Radarr/Radarr</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Movie organizer/manager for usenet and torrent users.</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>10577</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>blink.cmp</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Saghen/blink.cmp</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Performant, batteries-included completion plugin for Neovim</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>1956</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>pcsx2</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PCSX2/pcsx2</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>PCSX2 - The Playstation 2 Emulator</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>12110</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>1638</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>dice</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DiceDB/dice</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>DiceDB is an open source, redis-compliant, reactive, scalable, highly-available, unified cache optimized for modern hardware.</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>7235</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>1120</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Tasmota</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>https://www.github.com/arendst/Tasmota</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Alternative firmware for ESP8266 and ESP32 based devices with easy configuration using webUI, OTA updates, automation using timers or rules, expandability and entirely local control over MQTT, HTTP, Serial or KNX. Full documentation at</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>22415</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>4826</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>windows-rs</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>https://www.github.com/microsoft/windows-rs</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Rust for Windows</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>10779</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>system-design-101</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ByteByteGoHq/system-design-101</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Explain complex systems using visuals and simple terms. Help you prepare for system design interviews.</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>66143</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>6972</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>32589</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>6535</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>18152</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>1275</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-20</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8366,7 +9033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H193"/>
+  <dimension ref="A1:H209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15362,6 +16029,673 @@
         </is>
       </c>
     </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>maigret</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>https://www.github.com/soxoj/maigret</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>🕵️‍♂️ Collect a dossier on a person by username from thousands of sites</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>13401</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>918</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>7046</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>757</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>7903</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>1669</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>23229</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>1433</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>graphcast</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-deepmind/graphcast</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>5444</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>668</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>pydantic-ai</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://www.github.com/pydantic/pydantic-ai</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Agent Framework / shim to use Pydantic with LLMs</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>4006</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>https://www.github.com/FoundationVision/VAR</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>[NeurIPS 2024 Oral][GPT beats diffusion🔥] [scaling laws in visual generation📈] Official impl. of "Visual Autoregressive Modeling: Scalable Image Generation via Next-Scale Prediction". An *ultra-simple, user-friendly yet state-of-the-art* codebase for autoregressive image generation!</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>6257</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>13034</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>5350</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>4858</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>1389</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>1260</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>invoify</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>https://www.github.com/al1abb/invoify</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>An invoice generator app built using Next.js, Typescript, and Shadcn</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>1623</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>18152</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>1275</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>32579</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>2813</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>13996</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2132</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>iptv</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>https://www.github.com/iptv-org/iptv</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Collection of publicly available IPTV channels from all over the world</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>87887</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2845</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>8709</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>https://www.github.com/lmarzen/esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>A low-power E-Paper weather display powered by an ESP32 microcontroller. Utilizes the OpenWeatherMap API.</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>4651</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>1693</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-21</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15373,7 +16707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H245"/>
+  <dimension ref="A1:H267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -24418,6 +25752,930 @@
         </is>
       </c>
     </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>4858</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>1389</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>8709</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>6906</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>65661</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>7985</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>5987</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>23329</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>3985</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>9878</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>32589</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>6535</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>3662</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>103543</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>12998</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>5342</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>6695</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>719</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>2306</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>30065</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>1863</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>7743</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>17227</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>1284</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>14031</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>1810</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>2972</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>3192</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>23825</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>2355</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>2051</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>9014</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>3458</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>15120</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>5720</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>24206</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>2495</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>MinerU</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>https://www.github.com/opendatalab/MinerU</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>A high-quality tool for convert PDF to Markdown and JSON.一站式开源高质量数据提取工具，将PDF转换成Markdown和JSON格式。</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>21421</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>1529</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>4811</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bitcoin/bitcoin</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Bitcoin Core integration/staging tree</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>80779</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>36588</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>1382</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>1808</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>39168</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>4455</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>4971</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>v2rayN</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>https://www.github.com/2dust/v2rayN</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>A GUI client for Windows and Linux, support Xray core and sing-box-core and others</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>71717</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>11755</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>dspy</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>https://www.github.com/stanfordnlp/dspy</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>DSPy: The framework for programming—not prompting—language models</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>20244</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>1533</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>2024-12-17 07-47-22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H236"/>
+  <dimension ref="A1:H252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9022,6 +9022,673 @@
         </is>
       </c>
     </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>7964</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>3203</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>8760</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>621</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>1559</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>waveterm</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>https://www.github.com/wavetermdev/waveterm</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>An open-source, cross-platform terminal for seamless workflows</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>6832</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>6719</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>722</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>yt-dlp</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>https://www.github.com/yt-dlp/yt-dlp</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>A feature-rich command-line audio/video downloader</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>93412</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>7277</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>50924</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>9203</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Radarr</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Radarr/Radarr</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Movie organizer/manager for usenet and torrent users.</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>10585</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>blink.cmp</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Saghen/blink.cmp</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Performant, batteries-included completion plugin for Neovim</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>pcsx2</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PCSX2/pcsx2</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>PCSX2 - The Playstation 2 Emulator</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>12116</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>1638</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>dice</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DiceDB/dice</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>DiceDB is an open source, redis-compliant, reactive, scalable, highly-available, unified cache optimized for modern hardware.</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>7242</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>1120</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Tasmota</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>https://www.github.com/arendst/Tasmota</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Alternative firmware for ESP8266 and ESP32 based devices with easy configuration using webUI, OTA updates, automation using timers or rules, expandability and entirely local control over MQTT, HTTP, Serial or KNX. Full documentation at</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>22419</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>4826</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>windows-rs</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>https://www.github.com/microsoft/windows-rs</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Rust for Windows</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>10781</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>system-design-101</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ByteByteGoHq/system-design-101</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Explain complex systems using visuals and simple terms. Help you prepare for system design interviews.</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>66158</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>6974</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>32601</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>6536</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>18162</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>1275</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9033,7 +9700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H209"/>
+  <dimension ref="A1:H225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16696,6 +17363,673 @@
         </is>
       </c>
     </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>maigret</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>https://www.github.com/soxoj/maigret</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>🕵️‍♂️ Collect a dossier on a person by username from thousands of sites</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>13411</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>918</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>7048</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>757</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>7964</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>1669</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>23237</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>1433</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>graphcast</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-deepmind/graphcast</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>5445</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>668</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>pydantic-ai</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>https://www.github.com/pydantic/pydantic-ai</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Agent Framework / shim to use Pydantic with LLMs</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>4009</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>https://www.github.com/FoundationVision/VAR</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>[NeurIPS 2024 Oral][GPT beats diffusion🔥] [scaling laws in visual generation📈] Official impl. of "Visual Autoregressive Modeling: Scalable Image Generation via Next-Scale Prediction". An *ultra-simple, user-friendly yet state-of-the-art* codebase for autoregressive image generation!</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>6261</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>13033</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>5350</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>4867</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>1389</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>1260</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>invoify</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>https://www.github.com/al1abb/invoify</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>An invoice generator app built using Next.js, Typescript, and Shadcn</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>1626</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>18162</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>1275</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>32587</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>2813</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>14000</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2132</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>iptv</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>https://www.github.com/iptv-org/iptv</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Collection of publicly available IPTV channels from all over the world</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>87888</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2846</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>8760</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>621</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>https://www.github.com/lmarzen/esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>A low-power E-Paper weather display powered by an ESP32 microcontroller. Utilizes the OpenWeatherMap API.</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>4651</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>1693</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-01</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16707,7 +18041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H267"/>
+  <dimension ref="A1:H289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -26676,6 +28010,930 @@
         </is>
       </c>
     </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>4867</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>1389</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>8760</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>621</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>6906</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>65662</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>7987</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>5987</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>23333</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>3986</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>9878</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>32601</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>6536</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>3662</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>103552</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>5342</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>6719</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>722</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>2306</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>30075</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>1863</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>7744</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>17231</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>1285</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>14033</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>1810</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>2972</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>3203</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>23825</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>2355</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>2051</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>9022</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>3458</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>15130</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>5720</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>24207</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>2495</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>MinerU</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>https://www.github.com/opendatalab/MinerU</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>A high-quality tool for convert PDF to Markdown and JSON.一站式开源高质量数据提取工具，将PDF转换成Markdown和JSON格式。</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>21428</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>1530</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>4811</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bitcoin/bitcoin</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Bitcoin Core integration/staging tree</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>80781</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>36589</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>1382</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>1808</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>39178</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>4455</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>4971</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>v2rayN</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>https://www.github.com/2dust/v2rayN</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>A GUI client for Windows and Linux, support Xray core and sing-box-core and others</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>71718</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>11755</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>dspy</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>https://www.github.com/stanfordnlp/dspy</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>DSPy: The framework for programming—not prompting—language models</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>20245</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>1533</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>2024-12-17 08-53-02</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H252"/>
+  <dimension ref="A1:H268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9689,6 +9689,673 @@
         </is>
       </c>
     </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>8017</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>3217</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>8813</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>1559</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>waveterm</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>https://www.github.com/wavetermdev/waveterm</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>An open-source, cross-platform terminal for seamless workflows</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>6849</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>6741</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>yt-dlp</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>https://www.github.com/yt-dlp/yt-dlp</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>A feature-rich command-line audio/video downloader</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>93425</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>7278</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>50932</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>9204</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Radarr</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Radarr/Radarr</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Movie organizer/manager for usenet and torrent users.</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>10594</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>blink.cmp</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Saghen/blink.cmp</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Performant, batteries-included completion plugin for Neovim</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>pcsx2</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PCSX2/pcsx2</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>PCSX2 - The Playstation 2 Emulator</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>12120</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>1639</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>dice</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DiceDB/dice</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>DiceDB is an open source, redis-compliant, reactive, scalable, highly-available, unified cache optimized for modern hardware.</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>1122</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Tasmota</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>https://www.github.com/arendst/Tasmota</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Alternative firmware for ESP8266 and ESP32 based devices with easy configuration using webUI, OTA updates, automation using timers or rules, expandability and entirely local control over MQTT, HTTP, Serial or KNX. Full documentation at</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>22421</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>4827</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>windows-rs</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>https://www.github.com/microsoft/windows-rs</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Rust for Windows</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>10787</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>system-design-101</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ByteByteGoHq/system-design-101</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Explain complex systems using visuals and simple terms. Help you prepare for system design interviews.</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>66174</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>6976</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>32607</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>6537</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>18169</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>1276</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-19</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9700,7 +10367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H225"/>
+  <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18030,6 +18697,673 @@
         </is>
       </c>
     </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>maigret</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>https://www.github.com/soxoj/maigret</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>🕵️‍♂️ Collect a dossier on a person by username from thousands of sites</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>13418</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>919</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>757</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>8017</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>1669</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>23239</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>1433</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>graphcast</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-deepmind/graphcast</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>5448</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>668</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>pydantic-ai</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>https://www.github.com/pydantic/pydantic-ai</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Agent Framework / shim to use Pydantic with LLMs</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>4011</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>https://www.github.com/FoundationVision/VAR</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>[NeurIPS 2024 Oral][GPT beats diffusion🔥] [scaling laws in visual generation📈] Official impl. of "Visual Autoregressive Modeling: Scalable Image Generation via Next-Scale Prediction". An *ultra-simple, user-friendly yet state-of-the-art* codebase for autoregressive image generation!</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>13034</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>5350</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>4872</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>1389</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>1260</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>invoify</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>https://www.github.com/al1abb/invoify</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>An invoice generator app built using Next.js, Typescript, and Shadcn</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>1628</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>18169</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>1276</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>32597</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>2813</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>14003</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>2133</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>iptv</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>https://www.github.com/iptv-org/iptv</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Collection of publicly available IPTV channels from all over the world</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>87897</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>2847</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>8813</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>https://www.github.com/lmarzen/esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>A low-power E-Paper weather display powered by an ESP32 microcontroller. Utilizes the OpenWeatherMap API.</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>4653</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>1693</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-20</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18041,7 +19375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H289"/>
+  <dimension ref="A1:H311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -28934,6 +30268,930 @@
         </is>
       </c>
     </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>4872</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>1389</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>8813</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>6906</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>65668</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>7987</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>5987</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>23340</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>3988</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>9878</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>32607</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>6537</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>3662</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>103555</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>13002</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>5342</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>6741</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>725</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>2306</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>30082</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>1863</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>7745</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>17235</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>1287</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>14036</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>1811</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>2972</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>3217</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>23826</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>2356</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>2051</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>9028</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>3458</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>15144</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>5720</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>24207</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>2495</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>MinerU</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>https://www.github.com/opendatalab/MinerU</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>A high-quality tool for convert PDF to Markdown and JSON.一站式开源高质量数据提取工具，将PDF转换成Markdown和JSON格式。</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>21432</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>1530</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>4811</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bitcoin/bitcoin</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Bitcoin Core integration/staging tree</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>80787</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>36589</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>1382</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>1808</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>39188</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>4458</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>4971</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>v2rayN</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>https://www.github.com/2dust/v2rayN</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>A GUI client for Windows and Linux, support Xray core and sing-box-core and others</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>71723</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>11755</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>dspy</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>https://www.github.com/stanfordnlp/dspy</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>DSPy: The framework for programming—not prompting—language models</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>20246</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>1533</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>2024-12-17 09-47-21</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H268"/>
+  <dimension ref="A1:H284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10356,6 +10356,673 @@
         </is>
       </c>
     </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>8049</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>3226</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>8836</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>1559</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>waveterm</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>https://www.github.com/wavetermdev/waveterm</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>An open-source, cross-platform terminal for seamless workflows</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>6865</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>6758</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>726</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>yt-dlp</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>https://www.github.com/yt-dlp/yt-dlp</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>A feature-rich command-line audio/video downloader</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>93439</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>7279</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>50937</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>9204</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Radarr</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Radarr/Radarr</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Movie organizer/manager for usenet and torrent users.</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>10602</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>blink.cmp</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Saghen/blink.cmp</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Performant, batteries-included completion plugin for Neovim</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>pcsx2</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PCSX2/pcsx2</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>PCSX2 - The Playstation 2 Emulator</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>12125</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>1639</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>dice</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DiceDB/dice</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>DiceDB is an open source, redis-compliant, reactive, scalable, highly-available, unified cache optimized for modern hardware.</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>7253</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>1122</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Tasmota</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>https://www.github.com/arendst/Tasmota</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Alternative firmware for ESP8266 and ESP32 based devices with easy configuration using webUI, OTA updates, automation using timers or rules, expandability and entirely local control over MQTT, HTTP, Serial or KNX. Full documentation at</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>22423</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>4827</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>windows-rs</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>https://www.github.com/microsoft/windows-rs</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Rust for Windows</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>10791</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>system-design-101</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ByteByteGoHq/system-design-101</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Explain complex systems using visuals and simple terms. Help you prepare for system design interviews.</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>66183</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>6977</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>32616</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>6539</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>18181</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>1277</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-06</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10367,7 +11034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H241"/>
+  <dimension ref="A1:H257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19364,6 +20031,673 @@
         </is>
       </c>
     </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>maigret</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>https://www.github.com/soxoj/maigret</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>🕵️‍♂️ Collect a dossier on a person by username from thousands of sites</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>13423</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>919</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>7051</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>757</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>8049</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>1669</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>23241</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>1433</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>graphcast</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-deepmind/graphcast</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>5448</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>668</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>pydantic-ai</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>https://www.github.com/pydantic/pydantic-ai</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Agent Framework / shim to use Pydantic with LLMs</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>4015</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>https://www.github.com/FoundationVision/VAR</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>[NeurIPS 2024 Oral][GPT beats diffusion🔥] [scaling laws in visual generation📈] Official impl. of "Visual Autoregressive Modeling: Scalable Image Generation via Next-Scale Prediction". An *ultra-simple, user-friendly yet state-of-the-art* codebase for autoregressive image generation!</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>6265</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>13035</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>5350</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>4877</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>1393</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>1260</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>invoify</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>https://www.github.com/al1abb/invoify</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>An invoice generator app built using Next.js, Typescript, and Shadcn</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>1630</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>18181</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>1277</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>32599</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>2813</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>14006</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>2133</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>iptv</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>https://www.github.com/iptv-org/iptv</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Collection of publicly available IPTV channels from all over the world</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>87901</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>2848</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>8836</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>https://www.github.com/lmarzen/esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>A low-power E-Paper weather display powered by an ESP32 microcontroller. Utilizes the OpenWeatherMap API.</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>4654</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>1693</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-07</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19375,7 +20709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H311"/>
+  <dimension ref="A1:H333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -31192,6 +32526,930 @@
         </is>
       </c>
     </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>4877</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>1393</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>8836</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>6906</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>65671</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>7987</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>5987</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>23341</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>3989</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>9878</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>32616</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>6539</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>3662</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>103560</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>13003</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>5342</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>6758</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>726</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>2306</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>30082</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>1864</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>7746</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>17240</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>1287</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>14037</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>1812</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>2972</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>3226</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>23826</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2356</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>2051</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>9031</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>1935</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>3458</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>15160</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>5720</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>24209</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>2495</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>MinerU</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>https://www.github.com/opendatalab/MinerU</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>A high-quality tool for convert PDF to Markdown and JSON.一站式开源高质量数据提取工具，将PDF转换成Markdown和JSON格式。</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>21434</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>1530</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>4811</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bitcoin/bitcoin</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Bitcoin Core integration/staging tree</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>80789</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>36589</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>1382</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>1810</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>39194</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>4458</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>4971</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>v2rayN</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>https://www.github.com/2dust/v2rayN</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>A GUI client for Windows and Linux, support Xray core and sing-box-core and others</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>71725</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>11755</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>dspy</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>https://www.github.com/stanfordnlp/dspy</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>DSPy: The framework for programming—not prompting—language models</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>20248</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>1533</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-31-11</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H284"/>
+  <dimension ref="A1:H300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11023,6 +11023,673 @@
         </is>
       </c>
     </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>8065</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>3229</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>8846</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>1559</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>waveterm</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>https://www.github.com/wavetermdev/waveterm</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>An open-source, cross-platform terminal for seamless workflows</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>6868</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>6762</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>yt-dlp</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>https://www.github.com/yt-dlp/yt-dlp</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>A feature-rich command-line audio/video downloader</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>93442</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>7281</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>50937</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>9205</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Radarr</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Radarr/Radarr</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Movie organizer/manager for usenet and torrent users.</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>10604</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>blink.cmp</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Saghen/blink.cmp</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Performant, batteries-included completion plugin for Neovim</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>pcsx2</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PCSX2/pcsx2</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>PCSX2 - The Playstation 2 Emulator</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>12127</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>1639</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>dice</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DiceDB/dice</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>DiceDB is an open source, redis-compliant, reactive, scalable, highly-available, unified cache optimized for modern hardware.</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>7256</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>1122</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Tasmota</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>https://www.github.com/arendst/Tasmota</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Alternative firmware for ESP8266 and ESP32 based devices with easy configuration using webUI, OTA updates, automation using timers or rules, expandability and entirely local control over MQTT, HTTP, Serial or KNX. Full documentation at</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>22423</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>4827</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>windows-rs</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>https://www.github.com/microsoft/windows-rs</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Rust for Windows</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>10793</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>system-design-101</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ByteByteGoHq/system-design-101</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Explain complex systems using visuals and simple terms. Help you prepare for system design interviews.</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>66185</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>6977</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>32620</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>6539</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>18182</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>1277</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-07</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -11034,7 +11701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H257"/>
+  <dimension ref="A1:H273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20698,6 +21365,673 @@
         </is>
       </c>
     </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>maigret</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>https://www.github.com/soxoj/maigret</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>🕵️‍♂️ Collect a dossier on a person by username from thousands of sites</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>13424</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>919</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>7052</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>757</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>8065</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>1669</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>23243</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>1433</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>graphcast</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-deepmind/graphcast</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>5449</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>668</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>pydantic-ai</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>https://www.github.com/pydantic/pydantic-ai</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Agent Framework / shim to use Pydantic with LLMs</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>4016</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>https://www.github.com/FoundationVision/VAR</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>[NeurIPS 2024 Oral][GPT beats diffusion🔥] [scaling laws in visual generation📈] Official impl. of "Visual Autoregressive Modeling: Scalable Image Generation via Next-Scale Prediction". An *ultra-simple, user-friendly yet state-of-the-art* codebase for autoregressive image generation!</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>6267</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>13035</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>5350</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>4880</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>1393</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>1260</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>invoify</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>https://www.github.com/al1abb/invoify</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>An invoice generator app built using Next.js, Typescript, and Shadcn</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>1630</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>18182</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>1277</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>32601</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>2813</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>14007</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>2133</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>iptv</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>https://www.github.com/iptv-org/iptv</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Collection of publicly available IPTV channels from all over the world</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>87904</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>2848</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>8846</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>https://www.github.com/lmarzen/esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>A low-power E-Paper weather display powered by an ESP32 microcontroller. Utilizes the OpenWeatherMap API.</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>4654</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>1693</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-08</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20709,7 +22043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H333"/>
+  <dimension ref="A1:H355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -33450,6 +34784,930 @@
         </is>
       </c>
     </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>4880</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>1393</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>8846</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>6906</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>65671</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>7987</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>5987</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>23341</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>3989</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>9878</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>32620</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>6539</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>3662</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>103560</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>13003</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>5342</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>6762</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>2306</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>30082</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>1864</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>7747</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>17242</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>1287</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>14038</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>1812</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>2972</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>3229</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>23827</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>2356</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>2051</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>9033</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>1935</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>3458</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>15163</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>5720</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>24209</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>2495</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>MinerU</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>https://www.github.com/opendatalab/MinerU</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>A high-quality tool for convert PDF to Markdown and JSON.一站式开源高质量数据提取工具，将PDF转换成Markdown和JSON格式。</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>21434</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>1530</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>4811</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bitcoin/bitcoin</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Bitcoin Core integration/staging tree</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>80789</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>36589</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>1382</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>1812</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>39196</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>4458</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>4971</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>v2rayN</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>https://www.github.com/2dust/v2rayN</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>A GUI client for Windows and Linux, support Xray core and sing-box-core and others</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>71726</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>11755</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>dspy</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>https://www.github.com/stanfordnlp/dspy</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>DSPy: The framework for programming—not prompting—language models</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>20248</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>1533</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>2024-12-17 10-50-10</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H300"/>
+  <dimension ref="A1:H317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11690,6 +11690,715 @@
         </is>
       </c>
     </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>8878</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>1559</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>htmx</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bigskysoftware/htmx</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>&lt;/&gt; htmx - high power tools for HTML</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>39132</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>50938</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>9205</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>8093</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>1009</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>stripe-ios</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>https://www.github.com/stripe/stripe-ios</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Stripe iOS SDK</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Swift</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>2176</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>994</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>RIOT</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RIOT-OS/RIOT</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>RIOT - The friendly OS for IoT</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>EasyVolcap</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>https://www.github.com/zju3dv/EasyVolcap</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>[SIGGRAPH Asia 2023 (Technical Communications)] EasyVolcap: Accelerating Neural Volumetric Video Research</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>3240</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>15183</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>9038</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>frp</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fatedier/frp</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>A fast reverse proxy to help you expose a local server behind a NAT or firewall to the internet.</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>87822</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>13502</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>https://www.github.com/facebookresearch/AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Code to accompany "A Method for Animating Children's Drawings of the Human Figure"</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>10758</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>955</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>websocket</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>https://www.github.com/gorilla/websocket</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Package gorilla/websocket is a fast, well-tested and widely used WebSocket implementation for Go.</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>22630</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>3495</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>chainlist</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DefiLlama/chainlist</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2368</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>2476</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>https://www.github.com/open-telemetry/opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>OpenTelemetry Collector</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>4562</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>1497</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RocketChat/Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>The communications platform that puts data protection first.</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>41162</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>10877</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>dify</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langgenius/dify</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Dify is an open-source LLM app development platform. Dify's intuitive interface combines AI workflow, RAG pipeline, agent capabilities, model management, observability features and more, letting you quickly go from prototype to production.</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>54964</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>8083</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-19</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -11701,7 +12410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H273"/>
+  <dimension ref="A1:H291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22032,6 +22741,762 @@
         </is>
       </c>
     </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>8093</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>1009</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>1669</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>https://www.github.com/nexus-xyz/nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>The Nexus zkVM: The zero-knowledge virtual machine</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>2027</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>maigret</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>https://www.github.com/soxoj/maigret</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>🕵️‍♂️ Collect a dossier on a person by username from thousands of sites</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>13432</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>919</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>7055</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>757</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>8878</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>23248</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>1433</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>3240</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>4890</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>1395</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>1260</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>13035</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>5350</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>18187</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>1277</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>14010</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>2132</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>gitea</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>https://www.github.com/go-gitea/gitea</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Git with a cup of tea! Painless self-hosted all-in-one software development service, including Git hosting, code review, team collaboration, package registry and CI/CD</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>45886</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>5549</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>https://www.github.com/FoundationVision/VAR</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>[NeurIPS 2024 Oral][GPT beats diffusion🔥] [scaling laws in visual generation📈] Official impl. of "Visual Autoregressive Modeling: Scalable Image Generation via Next-Scale Prediction". An *ultra-simple, user-friendly yet state-of-the-art* codebase for autoregressive image generation!</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>6269</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>32609</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>2813</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>pcsx2</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PCSX2/pcsx2</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>PCSX2 - The Playstation 2 Emulator</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>12132</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>1640</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>6777</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>2282</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>rig</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>https://www.github.com/0xPlaygrounds/rig</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>⚙️🦀 Build portable, modular &amp; lightweight Fullstack Agents</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>1044</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>https://www.github.com/lmarzen/esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>A low-power E-Paper weather display powered by an ESP32 microcontroller. Utilizes the OpenWeatherMap API.</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>4655</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>1693</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-20</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22043,7 +23508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H355"/>
+  <dimension ref="A1:H376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -35708,6 +37173,888 @@
         </is>
       </c>
     </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>4890</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>1395</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>8878</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>6906</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>65677</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>7988</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>5987</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>6777</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>2306</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>103561</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>13004</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>5342</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>webvm</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leaningtech/webvm</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Virtual Machine for the Web</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Svelte</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>10970</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>1701</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>5315</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>23347</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>9878</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>32621</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>6540</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>3662</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>30088</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>1864</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>3240</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>7749</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>17243</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>1288</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>9038</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>3458</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>23826</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>2356</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>2051</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>15183</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>5720</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>14038</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>1812</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>2972</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bitcoin/bitcoin</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Bitcoin Core integration/staging tree</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>80791</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>36587</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>1382</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>1814</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>39209</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>4459</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>4971</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>v2rayN</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>https://www.github.com/2dust/v2rayN</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>A GUI client for Windows and Linux, support Xray core and sing-box-core and others</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>71729</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>11755</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>24210</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>2495</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>2024-12-17 11-47-22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H317"/>
+  <dimension ref="A1:H334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12399,6 +12399,715 @@
         </is>
       </c>
     </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>8915</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>816</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>htmx</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bigskysoftware/htmx</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>&lt;/&gt; htmx - high power tools for HTML</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>39149</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>50948</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>9206</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>1221</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>stripe-ios</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>https://www.github.com/stripe/stripe-ios</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Stripe iOS SDK</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Swift</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2181</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>994</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>RIOT</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RIOT-OS/RIOT</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>RIOT - The friendly OS for IoT</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>5237</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>EasyVolcap</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>https://www.github.com/zju3dv/EasyVolcap</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>[SIGGRAPH Asia 2023 (Technical Communications)] EasyVolcap: Accelerating Neural Volumetric Video Research</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>3255</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>15215</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>9051</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>frp</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fatedier/frp</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>A fast reverse proxy to help you expose a local server behind a NAT or firewall to the internet.</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>87836</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>13502</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>https://www.github.com/facebookresearch/AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Code to accompany "A Method for Animating Children's Drawings of the Human Figure"</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>10776</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>955</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>websocket</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>https://www.github.com/gorilla/websocket</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Package gorilla/websocket is a fast, well-tested and widely used WebSocket implementation for Go.</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>22640</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>3495</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>chainlist</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DefiLlama/chainlist</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>2371</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>2476</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>https://www.github.com/open-telemetry/opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>OpenTelemetry Collector</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>4576</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>1497</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RocketChat/Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>The communications platform that puts data protection first.</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>41175</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>10878</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>dify</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langgenius/dify</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Dify is an open-source LLM app development platform. Dify's intuitive interface combines AI workflow, RAG pipeline, agent capabilities, model management, observability features and more, letting you quickly go from prototype to production.</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>54986</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>8086</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-29</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -12410,7 +13119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H291"/>
+  <dimension ref="A1:H309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23497,6 +24206,762 @@
         </is>
       </c>
     </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>8117</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>1669</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>https://www.github.com/nexus-xyz/nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>The Nexus zkVM: The zero-knowledge virtual machine</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>2028</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>maigret</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>https://www.github.com/soxoj/maigret</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>🕵️‍♂️ Collect a dossier on a person by username from thousands of sites</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>13440</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>7057</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>757</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>8915</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>23252</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>1433</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>3255</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>4895</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>1397</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>1260</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>13035</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>5350</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>18190</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>1277</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>2132</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>gitea</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>https://www.github.com/go-gitea/gitea</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Git with a cup of tea! Painless self-hosted all-in-one software development service, including Git hosting, code review, team collaboration, package registry and CI/CD</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>45889</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>5549</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>https://www.github.com/FoundationVision/VAR</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>[NeurIPS 2024 Oral][GPT beats diffusion🔥] [scaling laws in visual generation📈] Official impl. of "Visual Autoregressive Modeling: Scalable Image Generation via Next-Scale Prediction". An *ultra-simple, user-friendly yet state-of-the-art* codebase for autoregressive image generation!</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>6272</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>32622</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>2813</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>pcsx2</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PCSX2/pcsx2</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>PCSX2 - The Playstation 2 Emulator</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>12135</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>1640</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>6790</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>2282</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>rig</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>https://www.github.com/0xPlaygrounds/rig</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>⚙️🦀 Build portable, modular &amp; lightweight Fullstack Agents</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>1048</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>https://www.github.com/lmarzen/esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>A low-power E-Paper weather display powered by an ESP32 microcontroller. Utilizes the OpenWeatherMap API.</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>4658</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>1693</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-30</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23508,7 +24973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H376"/>
+  <dimension ref="A1:H397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -38055,6 +39520,888 @@
         </is>
       </c>
     </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>4895</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>1397</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>8915</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>6906</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>65680</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>7989</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>5987</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>6790</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>2306</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>103567</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>13004</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>5342</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>webvm</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leaningtech/webvm</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Virtual Machine for the Web</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>Svelte</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>10972</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>1701</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>5315</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>23349</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>3992</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>9878</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>32626</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>6541</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>3662</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>30092</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>1865</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>3255</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>7751</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>17246</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>1289</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>9051</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>3458</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>23827</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>2356</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>2051</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>15215</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>5720</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>14039</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>1813</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>2972</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bitcoin/bitcoin</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Bitcoin Core integration/staging tree</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>80795</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>36587</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>1382</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>1815</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>39225</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>4459</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>4971</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>v2rayN</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>https://www.github.com/2dust/v2rayN</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>A GUI client for Windows and Linux, support Xray core and sing-box-core and others</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>71734</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>11756</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>24211</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>2494</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-14-31</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H334"/>
+  <dimension ref="A1:H351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13108,6 +13108,715 @@
         </is>
       </c>
     </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>8927</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>816</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>htmx</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bigskysoftware/htmx</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>&lt;/&gt; htmx - high power tools for HTML</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>39150</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>50950</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>9206</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>8125</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>1221</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>stripe-ios</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>https://www.github.com/stripe/stripe-ios</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Stripe iOS SDK</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>Swift</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>2183</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>994</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>RIOT</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RIOT-OS/RIOT</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>RIOT - The friendly OS for IoT</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>5240</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>EasyVolcap</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>https://www.github.com/zju3dv/EasyVolcap</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>[SIGGRAPH Asia 2023 (Technical Communications)] EasyVolcap: Accelerating Neural Volumetric Video Research</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>807</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>3260</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>15224</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>9062</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>1941</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>frp</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fatedier/frp</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>A fast reverse proxy to help you expose a local server behind a NAT or firewall to the internet.</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>87845</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>13502</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>https://www.github.com/facebookresearch/AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Code to accompany "A Method for Animating Children's Drawings of the Human Figure"</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>10785</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>956</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>websocket</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>https://www.github.com/gorilla/websocket</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Package gorilla/websocket is a fast, well-tested and widely used WebSocket implementation for Go.</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>22642</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>3495</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>chainlist</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DefiLlama/chainlist</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>2372</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>2476</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>https://www.github.com/open-telemetry/opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>OpenTelemetry Collector</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>4578</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>1497</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RocketChat/Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>The communications platform that puts data protection first.</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>41177</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>10878</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>dify</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langgenius/dify</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Dify is an open-source LLM app development platform. Dify's intuitive interface combines AI workflow, RAG pipeline, agent capabilities, model management, observability features and more, letting you quickly go from prototype to production.</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>54989</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>8089</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-33</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -13119,7 +13828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H309"/>
+  <dimension ref="A1:H327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24962,6 +25671,762 @@
         </is>
       </c>
     </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>8125</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>1669</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>https://www.github.com/nexus-xyz/nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>The Nexus zkVM: The zero-knowledge virtual machine</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>maigret</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>https://www.github.com/soxoj/maigret</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>🕵️‍♂️ Collect a dossier on a person by username from thousands of sites</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>13447</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>7059</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>757</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>8927</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>23256</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>1433</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>3260</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>4899</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>1399</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>1260</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>13036</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>5350</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>18192</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>1277</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>14013</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>2132</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>gitea</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>https://www.github.com/go-gitea/gitea</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Git with a cup of tea! Painless self-hosted all-in-one software development service, including Git hosting, code review, team collaboration, package registry and CI/CD</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>45889</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>5549</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>https://www.github.com/FoundationVision/VAR</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>[NeurIPS 2024 Oral][GPT beats diffusion🔥] [scaling laws in visual generation📈] Official impl. of "Visual Autoregressive Modeling: Scalable Image Generation via Next-Scale Prediction". An *ultra-simple, user-friendly yet state-of-the-art* codebase for autoregressive image generation!</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>6273</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>32627</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>2813</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>pcsx2</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PCSX2/pcsx2</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>PCSX2 - The Playstation 2 Emulator</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>12138</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>1640</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>6797</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>2282</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>rig</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>https://www.github.com/0xPlaygrounds/rig</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>⚙️🦀 Build portable, modular &amp; lightweight Fullstack Agents</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>1049</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>https://www.github.com/lmarzen/esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>A low-power E-Paper weather display powered by an ESP32 microcontroller. Utilizes the OpenWeatherMap API.</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>4661</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>1693</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24973,7 +26438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H397"/>
+  <dimension ref="A1:H418"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -40402,6 +41867,888 @@
         </is>
       </c>
     </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>4899</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>1399</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>8927</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>6906</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>65681</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>7989</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>5987</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>6797</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>2306</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>103574</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>13006</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>5342</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>webvm</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leaningtech/webvm</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Virtual Machine for the Web</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>Svelte</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>10974</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>1701</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>5315</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>23353</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>3992</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>9878</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>32628</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>6541</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>3662</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>30092</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>1865</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>3260</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>7751</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>17247</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>1289</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>9062</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>1941</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>3458</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>23827</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>2356</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>2051</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>15224</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>5720</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>14039</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>1813</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>2972</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bitcoin/bitcoin</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Bitcoin Core integration/staging tree</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>80796</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>36587</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>1382</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>1815</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>39234</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>4460</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>4971</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>v2rayN</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>https://www.github.com/2dust/v2rayN</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>A GUI client for Windows and Linux, support Xray core and sing-box-core and others</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>71735</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>11756</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>24211</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>2494</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>2024-12-17 13-48-35</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H351"/>
+  <dimension ref="A1:H368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13817,6 +13817,715 @@
         </is>
       </c>
     </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>8954</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>816</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-47-57</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>htmx</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bigskysoftware/htmx</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>&lt;/&gt; htmx - high power tools for HTML</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>39157</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-47-57</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>50960</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>9206</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-47-57</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>8138</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>1014</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>1221</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-47-57</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>stripe-ios</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>https://www.github.com/stripe/stripe-ios</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Stripe iOS SDK</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Swift</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>2184</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>994</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-47-57</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>RIOT</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RIOT-OS/RIOT</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>RIOT - The friendly OS for IoT</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>5244</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-47-57</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>EasyVolcap</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>https://www.github.com/zju3dv/EasyVolcap</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>[SIGGRAPH Asia 2023 (Technical Communications)] EasyVolcap: Accelerating Neural Volumetric Video Research</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>812</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-47-57</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>3270</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-47-57</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>15239</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-47-57</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>9068</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-47-57</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>frp</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fatedier/frp</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>A fast reverse proxy to help you expose a local server behind a NAT or firewall to the internet.</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>87854</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>13503</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-47-57</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>https://www.github.com/facebookresearch/AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Code to accompany "A Method for Animating Children's Drawings of the Human Figure"</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>10798</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>956</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-47-57</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>websocket</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>https://www.github.com/gorilla/websocket</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Package gorilla/websocket is a fast, well-tested and widely used WebSocket implementation for Go.</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>22647</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>3495</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-47-57</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>chainlist</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DefiLlama/chainlist</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>2377</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>2476</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-47-57</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>https://www.github.com/open-telemetry/opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>OpenTelemetry Collector</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>4583</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>1497</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-47-57</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RocketChat/Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>The communications platform that puts data protection first.</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>41186</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>10879</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-47-57</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>dify</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langgenius/dify</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Dify is an open-source LLM app development platform. Dify's intuitive interface combines AI workflow, RAG pipeline, agent capabilities, model management, observability features and more, letting you quickly go from prototype to production.</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>54998</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>8088</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-47-57</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -13828,7 +14537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H327"/>
+  <dimension ref="A1:H345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26427,6 +27136,762 @@
         </is>
       </c>
     </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>8138</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>1014</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>1669</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>https://www.github.com/nexus-xyz/nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>The Nexus zkVM: The zero-knowledge virtual machine</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>maigret</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>https://www.github.com/soxoj/maigret</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>🕵️‍♂️ Collect a dossier on a person by username from thousands of sites</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>13452</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>7061</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>757</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>8954</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>23258</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>1433</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>3270</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>4903</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>1400</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>1260</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>13036</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>5350</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>18195</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>1278</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>14014</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>2132</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>gitea</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>https://www.github.com/go-gitea/gitea</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Git with a cup of tea! Painless self-hosted all-in-one software development service, including Git hosting, code review, team collaboration, package registry and CI/CD</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>45893</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>5549</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>https://www.github.com/FoundationVision/VAR</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>[NeurIPS 2024 Oral][GPT beats diffusion🔥] [scaling laws in visual generation📈] Official impl. of "Visual Autoregressive Modeling: Scalable Image Generation via Next-Scale Prediction". An *ultra-simple, user-friendly yet state-of-the-art* codebase for autoregressive image generation!</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>6275</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>32637</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>2813</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>pcsx2</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PCSX2/pcsx2</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>PCSX2 - The Playstation 2 Emulator</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>12145</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>1641</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>6799</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>2282</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>rig</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>https://www.github.com/0xPlaygrounds/rig</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>⚙️🦀 Build portable, modular &amp; lightweight Fullstack Agents</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>1050</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>https://www.github.com/lmarzen/esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>A low-power E-Paper weather display powered by an ESP32 microcontroller. Utilizes the OpenWeatherMap API.</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>1693</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-04</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26438,7 +27903,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H418"/>
+  <dimension ref="A1:H439"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -42749,6 +44214,888 @@
         </is>
       </c>
     </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>4903</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>1400</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>8954</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>6906</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>65685</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>7989</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>5987</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>6799</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>2306</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>103579</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>13006</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>5342</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>webvm</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leaningtech/webvm</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Virtual Machine for the Web</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>Svelte</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>10974</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>1701</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>5315</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>23355</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>3993</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>9878</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>32630</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>6541</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>3662</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>30098</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>1866</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>3270</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>7751</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>17247</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>1288</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>9068</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>3458</t>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>23830</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>2356</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>2051</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>15239</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>5720</t>
+        </is>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>14039</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>1812</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>2972</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bitcoin/bitcoin</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Bitcoin Core integration/staging tree</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>80798</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>36586</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>1382</t>
+        </is>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>1815</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>39248</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>4460</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>4971</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>v2rayN</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>https://www.github.com/2dust/v2rayN</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>A GUI client for Windows and Linux, support Xray core and sing-box-core and others</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>71739</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>11756</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>24212</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>2494</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>2024-12-17 14-48-10</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H368"/>
+  <dimension ref="A1:H385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14526,6 +14526,715 @@
         </is>
       </c>
     </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>8977</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>641</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>816</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>htmx</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bigskysoftware/htmx</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>&lt;/&gt; htmx - high power tools for HTML</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>39171</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>50964</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>9206</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>8155</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>1221</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>stripe-ios</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>https://www.github.com/stripe/stripe-ios</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Stripe iOS SDK</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>Swift</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>2187</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>RIOT</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RIOT-OS/RIOT</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>RIOT - The friendly OS for IoT</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>EasyVolcap</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>https://www.github.com/zju3dv/EasyVolcap</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>[SIGGRAPH Asia 2023 (Technical Communications)] EasyVolcap: Accelerating Neural Volumetric Video Research</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>817</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>3277</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>15255</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>9075</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>frp</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fatedier/frp</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>A fast reverse proxy to help you expose a local server behind a NAT or firewall to the internet.</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>87863</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>13503</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>https://www.github.com/facebookresearch/AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Code to accompany "A Method for Animating Children's Drawings of the Human Figure"</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>10803</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>956</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>websocket</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>https://www.github.com/gorilla/websocket</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Package gorilla/websocket is a fast, well-tested and widely used WebSocket implementation for Go.</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>22652</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>3495</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>chainlist</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DefiLlama/chainlist</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2378</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>2476</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>https://www.github.com/open-telemetry/opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>OpenTelemetry Collector</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4587</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>1497</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RocketChat/Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>The communications platform that puts data protection first.</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>41190</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>10880</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>dify</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langgenius/dify</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Dify is an open-source LLM app development platform. Dify's intuitive interface combines AI workflow, RAG pipeline, agent capabilities, model management, observability features and more, letting you quickly go from prototype to production.</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>55002</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>8089</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-50</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -14537,7 +15246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H345"/>
+  <dimension ref="A1:H363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27892,6 +28601,762 @@
         </is>
       </c>
     </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>8155</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>1669</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>https://www.github.com/nexus-xyz/nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>The Nexus zkVM: The zero-knowledge virtual machine</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>2032</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>maigret</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>https://www.github.com/soxoj/maigret</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>🕵️‍♂️ Collect a dossier on a person by username from thousands of sites</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>13455</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>7061</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>757</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>8977</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>641</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>23260</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>1433</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>3277</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>4912</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>1405</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>1260</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>13036</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>5350</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>18197</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>1279</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>14014</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>2132</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>gitea</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>https://www.github.com/go-gitea/gitea</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Git with a cup of tea! Painless self-hosted all-in-one software development service, including Git hosting, code review, team collaboration, package registry and CI/CD</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>45897</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>5549</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>https://www.github.com/FoundationVision/VAR</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>[NeurIPS 2024 Oral][GPT beats diffusion🔥] [scaling laws in visual generation📈] Official impl. of "Visual Autoregressive Modeling: Scalable Image Generation via Next-Scale Prediction". An *ultra-simple, user-friendly yet state-of-the-art* codebase for autoregressive image generation!</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>6276</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>32645</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>2813</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>pcsx2</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PCSX2/pcsx2</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>PCSX2 - The Playstation 2 Emulator</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>12148</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>1641</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>6804</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>2282</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>rig</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>https://www.github.com/0xPlaygrounds/rig</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>⚙️🦀 Build portable, modular &amp; lightweight Fullstack Agents</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>1054</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>https://www.github.com/lmarzen/esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>A low-power E-Paper weather display powered by an ESP32 microcontroller. Utilizes the OpenWeatherMap API.</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>1693</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-52</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27903,7 +29368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H439"/>
+  <dimension ref="A1:H460"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -45096,6 +46561,888 @@
         </is>
       </c>
     </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>4912</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>1405</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>8977</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>641</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>6906</t>
+        </is>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>65685</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>7989</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>5987</t>
+        </is>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>6804</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>2306</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>103583</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>13006</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>5342</t>
+        </is>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>webvm</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leaningtech/webvm</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Virtual Machine for the Web</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>Svelte</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>10975</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>1701</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>5315</t>
+        </is>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>23359</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>3994</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>9878</t>
+        </is>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>32633</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>6541</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>3662</t>
+        </is>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>30102</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>1866</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>3277</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>7751</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>17247</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>1288</t>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>9075</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>3458</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>23832</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>2356</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>2051</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>15255</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>5720</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>14040</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>1812</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>2972</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bitcoin/bitcoin</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Bitcoin Core integration/staging tree</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>80799</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>36586</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>1382</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>1815</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>39255</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>4461</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>4971</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>v2rayN</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>https://www.github.com/2dust/v2rayN</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>A GUI client for Windows and Linux, support Xray core and sing-box-core and others</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>71742</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>11757</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>24214</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>2493</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>2024-12-17 15-47-53</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H385"/>
+  <dimension ref="A1:H402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15235,6 +15235,715 @@
         </is>
       </c>
     </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>9004</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>816</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>htmx</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bigskysoftware/htmx</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>&lt;/&gt; htmx - high power tools for HTML</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>39184</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>50972</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>9207</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>8164</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>1221</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>stripe-ios</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>https://www.github.com/stripe/stripe-ios</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Stripe iOS SDK</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>Swift</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>2188</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>RIOT</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RIOT-OS/RIOT</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>RIOT - The friendly OS for IoT</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>5257</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>EasyVolcap</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>https://www.github.com/zju3dv/EasyVolcap</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>[SIGGRAPH Asia 2023 (Technical Communications)] EasyVolcap: Accelerating Neural Volumetric Video Research</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>828</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>3282</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>15274</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>779</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>9081</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>1944</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>frp</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fatedier/frp</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>A fast reverse proxy to help you expose a local server behind a NAT or firewall to the internet.</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>87872</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>13503</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>https://www.github.com/facebookresearch/AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Code to accompany "A Method for Animating Children's Drawings of the Human Figure"</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>10811</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>websocket</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>https://www.github.com/gorilla/websocket</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Package gorilla/websocket is a fast, well-tested and widely used WebSocket implementation for Go.</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>22654</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>3495</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>chainlist</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DefiLlama/chainlist</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>2381</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>2476</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>https://www.github.com/open-telemetry/opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>OpenTelemetry Collector</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>4594</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>1497</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RocketChat/Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>The communications platform that puts data protection first.</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>41196</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>10882</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>dify</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langgenius/dify</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Dify is an open-source LLM app development platform. Dify's intuitive interface combines AI workflow, RAG pipeline, agent capabilities, model management, observability features and more, letting you quickly go from prototype to production.</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>55018</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>8090</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-31</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15246,7 +15955,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H363"/>
+  <dimension ref="A1:H381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29357,6 +30066,762 @@
         </is>
       </c>
     </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>8164</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>1669</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>https://www.github.com/nexus-xyz/nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>The Nexus zkVM: The zero-knowledge virtual machine</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>2034</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>maigret</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>https://www.github.com/soxoj/maigret</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>🕵️‍♂️ Collect a dossier on a person by username from thousands of sites</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>13458</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>7061</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>757</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>9004</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>23266</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>1433</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>3282</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>4925</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>1409</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>1260</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>13036</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>5350</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>18198</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>1279</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>14015</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>2132</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>gitea</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>https://www.github.com/go-gitea/gitea</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Git with a cup of tea! Painless self-hosted all-in-one software development service, including Git hosting, code review, team collaboration, package registry and CI/CD</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>45900</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>5550</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>https://www.github.com/FoundationVision/VAR</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>[NeurIPS 2024 Oral][GPT beats diffusion🔥] [scaling laws in visual generation📈] Official impl. of "Visual Autoregressive Modeling: Scalable Image Generation via Next-Scale Prediction". An *ultra-simple, user-friendly yet state-of-the-art* codebase for autoregressive image generation!</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>6276</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>32655</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>2813</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>pcsx2</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PCSX2/pcsx2</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>PCSX2 - The Playstation 2 Emulator</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>12154</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>1642</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>6816</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>2282</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>rig</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>https://www.github.com/0xPlaygrounds/rig</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>⚙️🦀 Build portable, modular &amp; lightweight Fullstack Agents</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>1056</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>https://www.github.com/lmarzen/esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>A low-power E-Paper weather display powered by an ESP32 microcontroller. Utilizes the OpenWeatherMap API.</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>4664</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>1693</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-33</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -29368,7 +30833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H460"/>
+  <dimension ref="A1:H481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -47443,6 +48908,888 @@
         </is>
       </c>
     </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>4925</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>1409</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>9004</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>6906</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>65692</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>7989</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>5987</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>6816</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>2306</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>103585</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>13008</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>5342</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>webvm</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leaningtech/webvm</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Virtual Machine for the Web</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>Svelte</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>10981</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>1701</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>5315</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>23366</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>3995</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>9878</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>32636</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>6541</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>3662</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>30106</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>1867</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>3282</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>7751</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>17250</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>1288</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>9081</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>1944</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>3458</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>23834</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>2356</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>2051</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>15274</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>779</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>5720</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>14040</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>1812</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>2972</t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bitcoin/bitcoin</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Bitcoin Core integration/staging tree</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>80802</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>36589</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>1382</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>1815</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>39277</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>4462</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>4971</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>v2rayN</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>https://www.github.com/2dust/v2rayN</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>A GUI client for Windows and Linux, support Xray core and sing-box-core and others</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>71746</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>11757</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>24219</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>2494</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>2024-12-17 16-53-36</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H402"/>
+  <dimension ref="A1:H419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15944,6 +15944,715 @@
         </is>
       </c>
     </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>9014</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>816</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>htmx</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bigskysoftware/htmx</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>&lt;/&gt; htmx - high power tools for HTML</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>39187</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>50977</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>9207</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>8181</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>1017</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>1221</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>stripe-ios</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>https://www.github.com/stripe/stripe-ios</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Stripe iOS SDK</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>Swift</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>2192</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>RIOT</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RIOT-OS/RIOT</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>RIOT - The friendly OS for IoT</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>5263</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>EasyVolcap</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>https://www.github.com/zju3dv/EasyVolcap</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>[SIGGRAPH Asia 2023 (Technical Communications)] EasyVolcap: Accelerating Neural Volumetric Video Research</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>833</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>3283</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>15289</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>780</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>9084</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>frp</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fatedier/frp</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>A fast reverse proxy to help you expose a local server behind a NAT or firewall to the internet.</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>87877</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>13504</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>https://www.github.com/facebookresearch/AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Code to accompany "A Method for Animating Children's Drawings of the Human Figure"</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>10821</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>websocket</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>https://www.github.com/gorilla/websocket</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Package gorilla/websocket is a fast, well-tested and widely used WebSocket implementation for Go.</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>22659</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>3495</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>chainlist</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DefiLlama/chainlist</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>2384</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>2478</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>https://www.github.com/open-telemetry/opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>OpenTelemetry Collector</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>4598</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>1497</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RocketChat/Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>The communications platform that puts data protection first.</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>41200</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>10883</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>dify</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langgenius/dify</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Dify is an open-source LLM app development platform. Dify's intuitive interface combines AI workflow, RAG pipeline, agent capabilities, model management, observability features and more, letting you quickly go from prototype to production.</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>55031</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>8090</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-09</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15955,7 +16664,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H381"/>
+  <dimension ref="A1:H399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30822,6 +31531,762 @@
         </is>
       </c>
     </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>8181</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>1017</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>1669</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>https://www.github.com/nexus-xyz/nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>The Nexus zkVM: The zero-knowledge virtual machine</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>maigret</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>https://www.github.com/soxoj/maigret</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>🕵️‍♂️ Collect a dossier on a person by username from thousands of sites</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>13463</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>7064</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>757</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>9014</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>23266</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>1433</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>3283</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>4930</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>1412</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>1260</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>13036</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>5350</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>18201</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>1279</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>14019</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>2133</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>gitea</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>https://www.github.com/go-gitea/gitea</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Git with a cup of tea! Painless self-hosted all-in-one software development service, including Git hosting, code review, team collaboration, package registry and CI/CD</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>45901</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>5550</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>https://www.github.com/FoundationVision/VAR</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>[NeurIPS 2024 Oral][GPT beats diffusion🔥] [scaling laws in visual generation📈] Official impl. of "Visual Autoregressive Modeling: Scalable Image Generation via Next-Scale Prediction". An *ultra-simple, user-friendly yet state-of-the-art* codebase for autoregressive image generation!</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>6276</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>32657</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>2813</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>pcsx2</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PCSX2/pcsx2</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>PCSX2 - The Playstation 2 Emulator</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>12157</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>1642</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>6821</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>2282</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>rig</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>https://www.github.com/0xPlaygrounds/rig</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>⚙️🦀 Build portable, modular &amp; lightweight Fullstack Agents</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>1061</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>https://www.github.com/lmarzen/esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>A low-power E-Paper weather display powered by an ESP32 microcontroller. Utilizes the OpenWeatherMap API.</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>4665</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>1693</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-10</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30833,7 +32298,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H481"/>
+  <dimension ref="A1:H502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -49790,6 +51255,888 @@
         </is>
       </c>
     </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>4930</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>1412</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>9014</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>6906</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>65695</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>7990</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>5987</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>6821</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>2306</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>103588</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>13007</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>5342</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>webvm</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leaningtech/webvm</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Virtual Machine for the Web</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>Svelte</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>10982</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>1701</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>5315</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>23367</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>3996</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>9878</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>32639</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>6543</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>3662</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>30111</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>1867</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>3283</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>7751</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>17251</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>1288</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>9084</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>3458</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>23834</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>2356</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>2051</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>15289</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>780</t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>5720</t>
+        </is>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>14042</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>1812</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>2972</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bitcoin/bitcoin</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Bitcoin Core integration/staging tree</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>80803</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>36590</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>1382</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>1816</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>39291</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>4464</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>4971</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>v2rayN</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>https://www.github.com/2dust/v2rayN</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>A GUI client for Windows and Linux, support Xray core and sing-box-core and others</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>71748</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>11757</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>24220</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>2494</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>2024-12-17 17-47-11</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H419"/>
+  <dimension ref="A1:H436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16653,6 +16653,715 @@
         </is>
       </c>
     </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>9025</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>816</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>htmx</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bigskysoftware/htmx</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>&lt;/&gt; htmx - high power tools for HTML</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>39192</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>50982</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>9207</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>8190</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>1221</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>stripe-ios</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>https://www.github.com/stripe/stripe-ios</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Stripe iOS SDK</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>Swift</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>2194</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>RIOT</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RIOT-OS/RIOT</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>RIOT - The friendly OS for IoT</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>5266</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>EasyVolcap</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>https://www.github.com/zju3dv/EasyVolcap</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>[SIGGRAPH Asia 2023 (Technical Communications)] EasyVolcap: Accelerating Neural Volumetric Video Research</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>837</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>3286</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>15303</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>9090</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>frp</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fatedier/frp</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>A fast reverse proxy to help you expose a local server behind a NAT or firewall to the internet.</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>87890</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>13504</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>https://www.github.com/facebookresearch/AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Code to accompany "A Method for Animating Children's Drawings of the Human Figure"</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>10830</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>websocket</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>https://www.github.com/gorilla/websocket</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Package gorilla/websocket is a fast, well-tested and widely used WebSocket implementation for Go.</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>22665</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>3495</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>chainlist</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DefiLlama/chainlist</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>2388</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>2479</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>https://www.github.com/open-telemetry/opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>OpenTelemetry Collector</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>4602</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>1497</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RocketChat/Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>The communications platform that puts data protection first.</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>41207</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>10883</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>dify</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langgenius/dify</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Dify is an open-source LLM app development platform. Dify's intuitive interface combines AI workflow, RAG pipeline, agent capabilities, model management, observability features and more, letting you quickly go from prototype to production.</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>55044</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>8091</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16664,7 +17373,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H399"/>
+  <dimension ref="A1:H417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32287,6 +32996,762 @@
         </is>
       </c>
     </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>8190</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>1669</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>https://www.github.com/nexus-xyz/nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>The Nexus zkVM: The zero-knowledge virtual machine</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>2034</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>maigret</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>https://www.github.com/soxoj/maigret</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>🕵️‍♂️ Collect a dossier on a person by username from thousands of sites</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>13465</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>758</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>9025</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>23267</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>1433</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>3286</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>4941</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>1413</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>1260</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>13036</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>5350</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>18200</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>14022</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>2133</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>gitea</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>https://www.github.com/go-gitea/gitea</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Git with a cup of tea! Painless self-hosted all-in-one software development service, including Git hosting, code review, team collaboration, package registry and CI/CD</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>45903</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>5550</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>https://www.github.com/FoundationVision/VAR</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>[NeurIPS 2024 Oral][GPT beats diffusion🔥] [scaling laws in visual generation📈] Official impl. of "Visual Autoregressive Modeling: Scalable Image Generation via Next-Scale Prediction". An *ultra-simple, user-friendly yet state-of-the-art* codebase for autoregressive image generation!</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>6277</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>32663</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>2813</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>pcsx2</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PCSX2/pcsx2</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>PCSX2 - The Playstation 2 Emulator</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>12158</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>1643</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>6823</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>2282</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>rig</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>https://www.github.com/0xPlaygrounds/rig</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>⚙️🦀 Build portable, modular &amp; lightweight Fullstack Agents</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>1061</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>https://www.github.com/lmarzen/esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>A low-power E-Paper weather display powered by an ESP32 microcontroller. Utilizes the OpenWeatherMap API.</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>4665</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>1693</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-13</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -32298,7 +33763,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H502"/>
+  <dimension ref="A1:H523"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -52137,6 +53602,888 @@
         </is>
       </c>
     </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>4941</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>1413</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>9025</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>6906</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>65696</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>7990</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>5987</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>6823</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>2306</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>103588</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>13007</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>5342</t>
+        </is>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>webvm</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leaningtech/webvm</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>Virtual Machine for the Web</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>Svelte</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>10984</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>1701</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>5315</t>
+        </is>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>23371</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>3999</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>9878</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>32641</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>6543</t>
+        </is>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>3662</t>
+        </is>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>30111</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>1867</t>
+        </is>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>3286</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>7753</t>
+        </is>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>17251</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>1288</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>9090</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>3458</t>
+        </is>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>23837</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>2356</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>2051</t>
+        </is>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>15303</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>5720</t>
+        </is>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>14046</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>1812</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>2972</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bitcoin/bitcoin</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Bitcoin Core integration/staging tree</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>80803</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>36590</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>1382</t>
+        </is>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>1816</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>39306</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>4464</t>
+        </is>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>4971</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>v2rayN</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>https://www.github.com/2dust/v2rayN</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>A GUI client for Windows and Linux, support Xray core and sing-box-core and others</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>71750</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>11758</t>
+        </is>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>24222</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>2494</t>
+        </is>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>2024-12-17 18-52-15</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H436"/>
+  <dimension ref="A1:H453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17362,6 +17362,715 @@
         </is>
       </c>
     </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>9031</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>816</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>htmx</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bigskysoftware/htmx</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>&lt;/&gt; htmx - high power tools for HTML</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>39196</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>1325</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>50984</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>9208</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>8200</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>1019</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>1221</t>
+        </is>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>stripe-ios</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>https://www.github.com/stripe/stripe-ios</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Stripe iOS SDK</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>Swift</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>2194</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>RIOT</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RIOT-OS/RIOT</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>RIOT - The friendly OS for IoT</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>5267</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>EasyVolcap</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>https://www.github.com/zju3dv/EasyVolcap</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>[SIGGRAPH Asia 2023 (Technical Communications)] EasyVolcap: Accelerating Neural Volumetric Video Research</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>838</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>3287</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>15309</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>9091</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>frp</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fatedier/frp</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>A fast reverse proxy to help you expose a local server behind a NAT or firewall to the internet.</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>87895</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>13504</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>https://www.github.com/facebookresearch/AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Code to accompany "A Method for Animating Children's Drawings of the Human Figure"</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>10831</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>websocket</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>https://www.github.com/gorilla/websocket</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Package gorilla/websocket is a fast, well-tested and widely used WebSocket implementation for Go.</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>22667</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>3495</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>chainlist</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DefiLlama/chainlist</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>2388</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>2479</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>https://www.github.com/open-telemetry/opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>OpenTelemetry Collector</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>4602</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>1497</t>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RocketChat/Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>The communications platform that puts data protection first.</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>41209</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>10883</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>dify</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langgenius/dify</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Dify is an open-source LLM app development platform. Dify's intuitive interface combines AI workflow, RAG pipeline, agent capabilities, model management, observability features and more, letting you quickly go from prototype to production.</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>55051</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>8092</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-27</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17373,7 +18082,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H417"/>
+  <dimension ref="A1:H435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33752,6 +34461,762 @@
         </is>
       </c>
     </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>8200</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>1019</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>1669</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>https://www.github.com/nexus-xyz/nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>The Nexus zkVM: The zero-knowledge virtual machine</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>2034</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>maigret</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>https://www.github.com/soxoj/maigret</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>🕵️‍♂️ Collect a dossier on a person by username from thousands of sites</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>13466</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>7067</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>758</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>9031</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>23269</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>1433</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>3287</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>4946</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>1415</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>1260</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>13036</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>5350</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>18202</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>14022</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>2133</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>gitea</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>https://www.github.com/go-gitea/gitea</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Git with a cup of tea! Painless self-hosted all-in-one software development service, including Git hosting, code review, team collaboration, package registry and CI/CD</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>45904</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>5550</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>https://www.github.com/FoundationVision/VAR</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>[NeurIPS 2024 Oral][GPT beats diffusion🔥] [scaling laws in visual generation📈] Official impl. of "Visual Autoregressive Modeling: Scalable Image Generation via Next-Scale Prediction". An *ultra-simple, user-friendly yet state-of-the-art* codebase for autoregressive image generation!</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>6277</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>32671</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>2813</t>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>pcsx2</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PCSX2/pcsx2</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>PCSX2 - The Playstation 2 Emulator</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>12158</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>1643</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>6828</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>2282</t>
+        </is>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>rig</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>https://www.github.com/0xPlaygrounds/rig</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>⚙️🦀 Build portable, modular &amp; lightweight Fullstack Agents</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>1065</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>https://www.github.com/lmarzen/esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>A low-power E-Paper weather display powered by an ESP32 microcontroller. Utilizes the OpenWeatherMap API.</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>1693</t>
+        </is>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-28</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -33763,7 +35228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H523"/>
+  <dimension ref="A1:H544"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -54484,6 +55949,888 @@
         </is>
       </c>
     </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>4946</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>1415</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>9031</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>6906</t>
+        </is>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>65700</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>7990</t>
+        </is>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>5987</t>
+        </is>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>6828</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>2306</t>
+        </is>
+      </c>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>103590</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>13007</t>
+        </is>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>5342</t>
+        </is>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>webvm</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leaningtech/webvm</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>Virtual Machine for the Web</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>Svelte</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>10986</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>1701</t>
+        </is>
+      </c>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>5315</t>
+        </is>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>23373</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>9878</t>
+        </is>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>32645</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>6543</t>
+        </is>
+      </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>3662</t>
+        </is>
+      </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>30115</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>1868</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>3287</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>7753</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>17252</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>1288</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>9091</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>3458</t>
+        </is>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>23838</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>2356</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>2051</t>
+        </is>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>15309</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>5720</t>
+        </is>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>14048</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>1812</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>2972</t>
+        </is>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bitcoin/bitcoin</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>Bitcoin Core integration/staging tree</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>80804</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>36590</t>
+        </is>
+      </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>1382</t>
+        </is>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>1817</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>39315</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>4464</t>
+        </is>
+      </c>
+      <c r="G542" t="inlineStr">
+        <is>
+          <t>4971</t>
+        </is>
+      </c>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>v2rayN</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>https://www.github.com/2dust/v2rayN</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>A GUI client for Windows and Linux, support Xray core and sing-box-core and others</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>71750</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>11758</t>
+        </is>
+      </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>24224</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>2494</t>
+        </is>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>2024-12-17 19-47-30</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H453"/>
+  <dimension ref="A1:H470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18071,6 +18071,715 @@
         </is>
       </c>
     </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>9033</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>816</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>htmx</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bigskysoftware/htmx</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>&lt;/&gt; htmx - high power tools for HTML</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>39202</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>1326</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>50989</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>9209</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>8208</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>1021</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>1221</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>stripe-ios</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>https://www.github.com/stripe/stripe-ios</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Stripe iOS SDK</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>Swift</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>2196</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>RIOT</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RIOT-OS/RIOT</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>RIOT - The friendly OS for IoT</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>EasyVolcap</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>https://www.github.com/zju3dv/EasyVolcap</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>[SIGGRAPH Asia 2023 (Technical Communications)] EasyVolcap: Accelerating Neural Volumetric Video Research</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>3295</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>15316</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>782</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>9093</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>frp</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fatedier/frp</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>A fast reverse proxy to help you expose a local server behind a NAT or firewall to the internet.</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>87898</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>13504</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>https://www.github.com/facebookresearch/AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>Code to accompany "A Method for Animating Children's Drawings of the Human Figure"</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>10836</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>websocket</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>https://www.github.com/gorilla/websocket</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Package gorilla/websocket is a fast, well-tested and widely used WebSocket implementation for Go.</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>22669</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>3495</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>chainlist</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DefiLlama/chainlist</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>2391</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>2479</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>https://www.github.com/open-telemetry/opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>OpenTelemetry Collector</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>4603</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>1497</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RocketChat/Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>The communications platform that puts data protection first.</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>41215</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>10883</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>dify</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langgenius/dify</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Dify is an open-source LLM app development platform. Dify's intuitive interface combines AI workflow, RAG pipeline, agent capabilities, model management, observability features and more, letting you quickly go from prototype to production.</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>55062</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>8092</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18082,7 +18791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H435"/>
+  <dimension ref="A1:H453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35217,6 +35926,762 @@
         </is>
       </c>
     </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>8209</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>1021</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>1669</t>
+        </is>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>https://www.github.com/nexus-xyz/nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>The Nexus zkVM: The zero-knowledge virtual machine</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>2034</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>maigret</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>https://www.github.com/soxoj/maigret</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>🕵️‍♂️ Collect a dossier on a person by username from thousands of sites</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>13469</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>7071</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>758</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>9033</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>23271</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>1433</t>
+        </is>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>3295</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>4953</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>1418</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>1260</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>13036</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>5350</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>18204</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>14025</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>2133</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>gitea</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>https://www.github.com/go-gitea/gitea</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Git with a cup of tea! Painless self-hosted all-in-one software development service, including Git hosting, code review, team collaboration, package registry and CI/CD</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>45906</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>5550</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>https://www.github.com/FoundationVision/VAR</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>[NeurIPS 2024 Oral][GPT beats diffusion🔥] [scaling laws in visual generation📈] Official impl. of "Visual Autoregressive Modeling: Scalable Image Generation via Next-Scale Prediction". An *ultra-simple, user-friendly yet state-of-the-art* codebase for autoregressive image generation!</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>6279</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>32676</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>2813</t>
+        </is>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>pcsx2</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PCSX2/pcsx2</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>PCSX2 - The Playstation 2 Emulator</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>12161</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>1643</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>6834</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>2282</t>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>rig</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>https://www.github.com/0xPlaygrounds/rig</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>⚙️🦀 Build portable, modular &amp; lightweight Fullstack Agents</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>1067</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>https://www.github.com/lmarzen/esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>A low-power E-Paper weather display powered by an ESP32 microcontroller. Utilizes the OpenWeatherMap API.</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>1693</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-24</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -35228,7 +36693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H544"/>
+  <dimension ref="A1:H565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -56831,6 +58296,888 @@
         </is>
       </c>
     </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>4953</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>1418</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>9033</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>6906</t>
+        </is>
+      </c>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>65697</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>7991</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>5987</t>
+        </is>
+      </c>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>6834</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>2306</t>
+        </is>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>103590</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>13007</t>
+        </is>
+      </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>5342</t>
+        </is>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>webvm</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leaningtech/webvm</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>Virtual Machine for the Web</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>Svelte</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>10987</t>
+        </is>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>1701</t>
+        </is>
+      </c>
+      <c r="G550" t="inlineStr">
+        <is>
+          <t>5315</t>
+        </is>
+      </c>
+      <c r="H550" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>23373</t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t>9878</t>
+        </is>
+      </c>
+      <c r="H551" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>32650</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>6543</t>
+        </is>
+      </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>3662</t>
+        </is>
+      </c>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>30118</t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>1868</t>
+        </is>
+      </c>
+      <c r="G553" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>3295</t>
+        </is>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="H554" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>7752</t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>17252</t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>1287</t>
+        </is>
+      </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>9093</t>
+        </is>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t>3458</t>
+        </is>
+      </c>
+      <c r="H557" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>23838</t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>2356</t>
+        </is>
+      </c>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>2051</t>
+        </is>
+      </c>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>15316</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>782</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>5720</t>
+        </is>
+      </c>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>14049</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>1813</t>
+        </is>
+      </c>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>2972</t>
+        </is>
+      </c>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bitcoin/bitcoin</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>Bitcoin Core integration/staging tree</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>80803</t>
+        </is>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>36590</t>
+        </is>
+      </c>
+      <c r="G561" t="inlineStr">
+        <is>
+          <t>1382</t>
+        </is>
+      </c>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>1817</t>
+        </is>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>39319</t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>4465</t>
+        </is>
+      </c>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t>4971</t>
+        </is>
+      </c>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>v2rayN</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>https://www.github.com/2dust/v2rayN</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>A GUI client for Windows and Linux, support Xray core and sing-box-core and others</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>71749</t>
+        </is>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>11759</t>
+        </is>
+      </c>
+      <c r="G564" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>24225</t>
+        </is>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>2495</t>
+        </is>
+      </c>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>2024-12-17 20-47-25</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H470"/>
+  <dimension ref="A1:H487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18780,6 +18780,715 @@
         </is>
       </c>
     </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>9036</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>816</t>
+        </is>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>htmx</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bigskysoftware/htmx</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>&lt;/&gt; htmx - high power tools for HTML</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>39210</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>1326</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>50996</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>9209</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>8221</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>1022</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>1221</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>stripe-ios</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>https://www.github.com/stripe/stripe-ios</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Stripe iOS SDK</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>Swift</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>2199</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>RIOT</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RIOT-OS/RIOT</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>RIOT - The friendly OS for IoT</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>5273</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>EasyVolcap</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>https://www.github.com/zju3dv/EasyVolcap</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>[SIGGRAPH Asia 2023 (Technical Communications)] EasyVolcap: Accelerating Neural Volumetric Video Research</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>15326</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>782</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>9093</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>1944</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>frp</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fatedier/frp</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>A fast reverse proxy to help you expose a local server behind a NAT or firewall to the internet.</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>87902</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>13504</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>https://www.github.com/facebookresearch/AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Code to accompany "A Method for Animating Children's Drawings of the Human Figure"</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>10840</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>websocket</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>https://www.github.com/gorilla/websocket</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>Package gorilla/websocket is a fast, well-tested and widely used WebSocket implementation for Go.</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>22671</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>3495</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>chainlist</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DefiLlama/chainlist</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>2393</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>2479</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>https://www.github.com/open-telemetry/opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>OpenTelemetry Collector</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>4606</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>1497</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RocketChat/Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>The communications platform that puts data protection first.</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>41218</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>10884</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>dify</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langgenius/dify</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Dify is an open-source LLM app development platform. Dify's intuitive interface combines AI workflow, RAG pipeline, agent capabilities, model management, observability features and more, letting you quickly go from prototype to production.</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>55072</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>8092</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-03</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18791,7 +19500,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H453"/>
+  <dimension ref="A1:H471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36682,6 +37391,762 @@
         </is>
       </c>
     </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>8221</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>1022</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>1669</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>https://www.github.com/nexus-xyz/nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>The Nexus zkVM: The zero-knowledge virtual machine</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>maigret</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>https://www.github.com/soxoj/maigret</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>🕵️‍♂️ Collect a dossier on a person by username from thousands of sites</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>13474</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>7075</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>758</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>9036</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>23276</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>1433</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>4957</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>1420</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>1260</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>13036</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>5351</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>18205</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>14030</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>gitea</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>https://www.github.com/go-gitea/gitea</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>Git with a cup of tea! Painless self-hosted all-in-one software development service, including Git hosting, code review, team collaboration, package registry and CI/CD</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>45910</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>5550</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>https://www.github.com/FoundationVision/VAR</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>[NeurIPS 2024 Oral][GPT beats diffusion🔥] [scaling laws in visual generation📈] Official impl. of "Visual Autoregressive Modeling: Scalable Image Generation via Next-Scale Prediction". An *ultra-simple, user-friendly yet state-of-the-art* codebase for autoregressive image generation!</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>6279</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>32682</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>2813</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>pcsx2</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PCSX2/pcsx2</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>PCSX2 - The Playstation 2 Emulator</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>12164</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>1643</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>6840</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>2282</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>rig</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>https://www.github.com/0xPlaygrounds/rig</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>⚙️🦀 Build portable, modular &amp; lightweight Fullstack Agents</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>1069</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>https://www.github.com/lmarzen/esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>A low-power E-Paper weather display powered by an ESP32 microcontroller. Utilizes the OpenWeatherMap API.</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>4668</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>1693</t>
+        </is>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-04</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -36693,7 +38158,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H565"/>
+  <dimension ref="A1:H586"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -59178,6 +60643,888 @@
         </is>
       </c>
     </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>4957</t>
+        </is>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>1420</t>
+        </is>
+      </c>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>9036</t>
+        </is>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>6906</t>
+        </is>
+      </c>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>65699</t>
+        </is>
+      </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>7991</t>
+        </is>
+      </c>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>5987</t>
+        </is>
+      </c>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>6840</t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>2306</t>
+        </is>
+      </c>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>103590</t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>13007</t>
+        </is>
+      </c>
+      <c r="G570" t="inlineStr">
+        <is>
+          <t>5342</t>
+        </is>
+      </c>
+      <c r="H570" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>webvm</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leaningtech/webvm</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>Virtual Machine for the Web</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>Svelte</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>10989</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>1701</t>
+        </is>
+      </c>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>5315</t>
+        </is>
+      </c>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>23377</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>4001</t>
+        </is>
+      </c>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>9878</t>
+        </is>
+      </c>
+      <c r="H572" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>32652</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>6543</t>
+        </is>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>3662</t>
+        </is>
+      </c>
+      <c r="H573" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>30122</t>
+        </is>
+      </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>1869</t>
+        </is>
+      </c>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="H574" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>3301</t>
+        </is>
+      </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="H575" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>7753</t>
+        </is>
+      </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+      <c r="H576" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>17252</t>
+        </is>
+      </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>1287</t>
+        </is>
+      </c>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>9093</t>
+        </is>
+      </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>1944</t>
+        </is>
+      </c>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>3458</t>
+        </is>
+      </c>
+      <c r="H578" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>23839</t>
+        </is>
+      </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>2356</t>
+        </is>
+      </c>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>2051</t>
+        </is>
+      </c>
+      <c r="H579" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>15326</t>
+        </is>
+      </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>782</t>
+        </is>
+      </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>5720</t>
+        </is>
+      </c>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>14050</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>1814</t>
+        </is>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>2972</t>
+        </is>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bitcoin/bitcoin</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>Bitcoin Core integration/staging tree</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>80805</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>36590</t>
+        </is>
+      </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>1382</t>
+        </is>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>1817</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>39324</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>4466</t>
+        </is>
+      </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>4971</t>
+        </is>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>v2rayN</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>https://www.github.com/2dust/v2rayN</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>A GUI client for Windows and Linux, support Xray core and sing-box-core and others</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>71749</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>11759</t>
+        </is>
+      </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>24227</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>2495</t>
+        </is>
+      </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>2024-12-17 21-47-05</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H487"/>
+  <dimension ref="A1:H504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19489,6 +19489,715 @@
         </is>
       </c>
     </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>9044</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>816</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>htmx</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bigskysoftware/htmx</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>&lt;/&gt; htmx - high power tools for HTML</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>39223</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>1327</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>50997</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>9209</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>8232</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>1024</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>1221</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>stripe-ios</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>https://www.github.com/stripe/stripe-ios</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Stripe iOS SDK</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>Swift</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>RIOT</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RIOT-OS/RIOT</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>RIOT - The friendly OS for IoT</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>5280</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>EasyVolcap</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>https://www.github.com/zju3dv/EasyVolcap</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>[SIGGRAPH Asia 2023 (Technical Communications)] EasyVolcap: Accelerating Neural Volumetric Video Research</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>3307</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>15335</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>782</t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>9095</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>1944</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>frp</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fatedier/frp</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>A fast reverse proxy to help you expose a local server behind a NAT or firewall to the internet.</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>87905</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>13504</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>https://www.github.com/facebookresearch/AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Code to accompany "A Method for Animating Children's Drawings of the Human Figure"</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>10846</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>websocket</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>https://www.github.com/gorilla/websocket</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>Package gorilla/websocket is a fast, well-tested and widely used WebSocket implementation for Go.</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>22673</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>3495</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>chainlist</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DefiLlama/chainlist</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>2396</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>2479</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>https://www.github.com/open-telemetry/opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>OpenTelemetry Collector</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>1497</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RocketChat/Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>The communications platform that puts data protection first.</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>41222</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>10886</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>dify</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langgenius/dify</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>Dify is an open-source LLM app development platform. Dify's intuitive interface combines AI workflow, RAG pipeline, agent capabilities, model management, observability features and more, letting you quickly go from prototype to production.</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>55080</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>8093</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19500,7 +20209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H471"/>
+  <dimension ref="A1:H489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38147,6 +38856,762 @@
         </is>
       </c>
     </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>8232</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>1024</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>1669</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>https://www.github.com/nexus-xyz/nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>The Nexus zkVM: The zero-knowledge virtual machine</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>2037</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>maigret</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>https://www.github.com/soxoj/maigret</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>🕵️‍♂️ Collect a dossier on a person by username from thousands of sites</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>13479</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>7078</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>758</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>9044</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>23277</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>1433</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>3307</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>4963</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>1421</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>1260</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>13036</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>5352</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>18205</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>14032</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>gitea</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>https://www.github.com/go-gitea/gitea</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>Git with a cup of tea! Painless self-hosted all-in-one software development service, including Git hosting, code review, team collaboration, package registry and CI/CD</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>45910</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>5550</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>https://www.github.com/FoundationVision/VAR</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>[NeurIPS 2024 Oral][GPT beats diffusion🔥] [scaling laws in visual generation📈] Official impl. of "Visual Autoregressive Modeling: Scalable Image Generation via Next-Scale Prediction". An *ultra-simple, user-friendly yet state-of-the-art* codebase for autoregressive image generation!</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>6280</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>32692</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>2813</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>pcsx2</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PCSX2/pcsx2</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>PCSX2 - The Playstation 2 Emulator</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>12166</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>1643</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>6844</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>2282</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>rig</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>https://www.github.com/0xPlaygrounds/rig</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>⚙️🦀 Build portable, modular &amp; lightweight Fullstack Agents</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>1071</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>https://www.github.com/lmarzen/esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>A low-power E-Paper weather display powered by an ESP32 microcontroller. Utilizes the OpenWeatherMap API.</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>1693</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -38158,7 +39623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H586"/>
+  <dimension ref="A1:H607"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -61525,6 +62990,888 @@
         </is>
       </c>
     </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>4963</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>1421</t>
+        </is>
+      </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>9044</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>6906</t>
+        </is>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>65700</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>7991</t>
+        </is>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>5987</t>
+        </is>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>6844</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>2306</t>
+        </is>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>103590</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>13007</t>
+        </is>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>5342</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>webvm</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leaningtech/webvm</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>Virtual Machine for the Web</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>Svelte</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>10990</t>
+        </is>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>1701</t>
+        </is>
+      </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>5315</t>
+        </is>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>23380</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>4002</t>
+        </is>
+      </c>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>9878</t>
+        </is>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>32654</t>
+        </is>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>6543</t>
+        </is>
+      </c>
+      <c r="G594" t="inlineStr">
+        <is>
+          <t>3662</t>
+        </is>
+      </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>30124</t>
+        </is>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>1869</t>
+        </is>
+      </c>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>3307</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>7753</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>17253</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>1288</t>
+        </is>
+      </c>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>9095</t>
+        </is>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>1944</t>
+        </is>
+      </c>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>3458</t>
+        </is>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>23839</t>
+        </is>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>2356</t>
+        </is>
+      </c>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>2051</t>
+        </is>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>15335</t>
+        </is>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>782</t>
+        </is>
+      </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>5720</t>
+        </is>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>14051</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>1814</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>2972</t>
+        </is>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bitcoin/bitcoin</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>Bitcoin Core integration/staging tree</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>80807</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>36590</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>1382</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>1818</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>39333</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>4466</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>4971</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>v2rayN</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>https://www.github.com/2dust/v2rayN</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>A GUI client for Windows and Linux, support Xray core and sing-box-core and others</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>71749</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>11759</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>24229</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>2495</t>
+        </is>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>2024-12-17 22-47-19</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H504"/>
+  <dimension ref="A1:H521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20198,6 +20198,715 @@
         </is>
       </c>
     </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>9050</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>646</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>816</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>htmx</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bigskysoftware/htmx</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>&lt;/&gt; htmx - high power tools for HTML</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>39225</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>1330</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>50998</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>9211</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>8233</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>1024</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>1221</t>
+        </is>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>stripe-ios</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>https://www.github.com/stripe/stripe-ios</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>Stripe iOS SDK</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>Swift</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>2201</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>RIOT</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RIOT-OS/RIOT</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>RIOT - The friendly OS for IoT</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>5285</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>EasyVolcap</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>https://www.github.com/zju3dv/EasyVolcap</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>[SIGGRAPH Asia 2023 (Technical Communications)] EasyVolcap: Accelerating Neural Volumetric Video Research</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>3309</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>15347</t>
+        </is>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>782</t>
+        </is>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>9096</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>1944</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>frp</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fatedier/frp</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>A fast reverse proxy to help you expose a local server behind a NAT or firewall to the internet.</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>87908</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>13504</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>https://www.github.com/facebookresearch/AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Code to accompany "A Method for Animating Children's Drawings of the Human Figure"</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>10850</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>websocket</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>https://www.github.com/gorilla/websocket</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>Package gorilla/websocket is a fast, well-tested and widely used WebSocket implementation for Go.</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>22674</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>3495</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>chainlist</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DefiLlama/chainlist</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>2398</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>2479</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>https://www.github.com/open-telemetry/opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>OpenTelemetry Collector</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>4612</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>1497</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RocketChat/Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>The communications platform that puts data protection first.</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>41228</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>10886</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>dify</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langgenius/dify</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Dify is an open-source LLM app development platform. Dify's intuitive interface combines AI workflow, RAG pipeline, agent capabilities, model management, observability features and more, letting you quickly go from prototype to production.</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>55089</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>8093</t>
+        </is>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-16</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20209,7 +20918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H489"/>
+  <dimension ref="A1:H507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39612,6 +40321,762 @@
         </is>
       </c>
     </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>8233</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>1024</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>1669</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>https://www.github.com/nexus-xyz/nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>The Nexus zkVM: The zero-knowledge virtual machine</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>maigret</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>https://www.github.com/soxoj/maigret</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>🕵️‍♂️ Collect a dossier on a person by username from thousands of sites</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>13482</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>1932</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>7080</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>758</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>9050</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>646</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>23278</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>1433</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>3309</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>4967</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>1426</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>1260</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>13036</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>5352</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>18206</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>14033</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>gitea</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>https://www.github.com/go-gitea/gitea</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>Git with a cup of tea! Painless self-hosted all-in-one software development service, including Git hosting, code review, team collaboration, package registry and CI/CD</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>45912</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>5550</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>https://www.github.com/FoundationVision/VAR</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>[NeurIPS 2024 Oral][GPT beats diffusion🔥] [scaling laws in visual generation📈] Official impl. of "Visual Autoregressive Modeling: Scalable Image Generation via Next-Scale Prediction". An *ultra-simple, user-friendly yet state-of-the-art* codebase for autoregressive image generation!</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>6280</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>32696</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>2813</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>pcsx2</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PCSX2/pcsx2</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>PCSX2 - The Playstation 2 Emulator</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>12168</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>1643</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>6849</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>2282</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>rig</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>https://www.github.com/0xPlaygrounds/rig</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>⚙️🦀 Build portable, modular &amp; lightweight Fullstack Agents</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>1072</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>https://www.github.com/lmarzen/esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>A low-power E-Paper weather display powered by an ESP32 microcontroller. Utilizes the OpenWeatherMap API.</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>4670</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>1693</t>
+        </is>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -39623,7 +41088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H607"/>
+  <dimension ref="A1:H628"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -63872,6 +65337,888 @@
         </is>
       </c>
     </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>4967</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>1426</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>9050</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>646</t>
+        </is>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>6906</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>65705</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>7991</t>
+        </is>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>5987</t>
+        </is>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>6849</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>2306</t>
+        </is>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>103590</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>13007</t>
+        </is>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>5342</t>
+        </is>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>webvm</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leaningtech/webvm</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>Virtual Machine for the Web</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>Svelte</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>10990</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>1701</t>
+        </is>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>5315</t>
+        </is>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>23381</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>4003</t>
+        </is>
+      </c>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>9878</t>
+        </is>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>32657</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>6543</t>
+        </is>
+      </c>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>3662</t>
+        </is>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>30124</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>1869</t>
+        </is>
+      </c>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>4477</t>
+        </is>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>3309</t>
+        </is>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>7753</t>
+        </is>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>17254</t>
+        </is>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>1288</t>
+        </is>
+      </c>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>2769</t>
+        </is>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>9096</t>
+        </is>
+      </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>1944</t>
+        </is>
+      </c>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>3458</t>
+        </is>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>23840</t>
+        </is>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>2356</t>
+        </is>
+      </c>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>2051</t>
+        </is>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>15347</t>
+        </is>
+      </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>782</t>
+        </is>
+      </c>
+      <c r="G622" t="inlineStr">
+        <is>
+          <t>5720</t>
+        </is>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>14052</t>
+        </is>
+      </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>1814</t>
+        </is>
+      </c>
+      <c r="G623" t="inlineStr">
+        <is>
+          <t>2972</t>
+        </is>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bitcoin/bitcoin</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>Bitcoin Core integration/staging tree</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>80808</t>
+        </is>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>36590</t>
+        </is>
+      </c>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>1382</t>
+        </is>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>1817</t>
+        </is>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>39341</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>4467</t>
+        </is>
+      </c>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>4971</t>
+        </is>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>v2rayN</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>https://www.github.com/2dust/v2rayN</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>A GUI client for Windows and Linux, support Xray core and sing-box-core and others</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>71750</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>11759</t>
+        </is>
+      </c>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>2294</t>
+        </is>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>24230</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>2495</t>
+        </is>
+      </c>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>2024-12-17 23-47-19</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H521"/>
+  <dimension ref="A1:H538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20907,6 +20907,715 @@
         </is>
       </c>
     </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>9146</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>htmx</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bigskysoftware/htmx</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>&lt;/&gt; htmx - high power tools for HTML</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>39262</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>1332</t>
+        </is>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>51011</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>9213</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>8270</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>1024</t>
+        </is>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>1218</t>
+        </is>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>stripe-ios</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>https://www.github.com/stripe/stripe-ios</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>Stripe iOS SDK</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>Swift</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>2214</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>997</t>
+        </is>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>RIOT</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RIOT-OS/RIOT</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>RIOT - The friendly OS for IoT</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>5296</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>EasyVolcap</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>https://www.github.com/zju3dv/EasyVolcap</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>[SIGGRAPH Asia 2023 (Technical Communications)] EasyVolcap: Accelerating Neural Volumetric Video Research</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>864</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>3330</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>15403</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>9135</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>1955</t>
+        </is>
+      </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>frp</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fatedier/frp</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>A fast reverse proxy to help you expose a local server behind a NAT or firewall to the internet.</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>87935</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>13504</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>https://www.github.com/facebookresearch/AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>Code to accompany "A Method for Animating Children's Drawings of the Human Figure"</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>10873</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>958</t>
+        </is>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>websocket</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>https://www.github.com/gorilla/websocket</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>Package gorilla/websocket is a fast, well-tested and widely used WebSocket implementation for Go.</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>22690</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>3495</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>chainlist</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DefiLlama/chainlist</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>2406</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>2481</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>https://www.github.com/open-telemetry/opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>OpenTelemetry Collector</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>1497</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RocketChat/Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>The communications platform that puts data protection first.</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>41240</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>10887</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>dify</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langgenius/dify</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>Dify is an open-source LLM app development platform. Dify's intuitive interface combines AI workflow, RAG pipeline, agent capabilities, model management, observability features and more, letting you quickly go from prototype to production.</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>55122</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>8098</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-09</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20918,7 +21627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H507"/>
+  <dimension ref="A1:H525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41077,6 +41786,762 @@
         </is>
       </c>
     </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>8270</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>1024</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>2645</t>
+        </is>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>https://www.github.com/nexus-xyz/nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>The Nexus zkVM: The zero-knowledge virtual machine</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>maigret</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>https://www.github.com/soxoj/maigret</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>🕵️‍♂️ Collect a dossier on a person by username from thousands of sites</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>13487</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>1257</t>
+        </is>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>9146</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>4904</t>
+        </is>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>23287</t>
+        </is>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>1470</t>
+        </is>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>3330</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>1209</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>4983</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>1431</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>1310</t>
+        </is>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>13039</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>5353</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>18211</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>1279</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>14040</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>gitea</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>https://www.github.com/go-gitea/gitea</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Git with a cup of tea! Painless self-hosted all-in-one software development service, including Git hosting, code review, team collaboration, package registry and CI/CD</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>45921</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>5550</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>https://www.github.com/FoundationVision/VAR</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>[NeurIPS 2024 Oral][GPT beats diffusion🔥] [scaling laws in visual generation📈] Official impl. of "Visual Autoregressive Modeling: Scalable Image Generation via Next-Scale Prediction". An *ultra-simple, user-friendly yet state-of-the-art* codebase for autoregressive image generation!</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>6284</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>32710</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>891</t>
+        </is>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>1509</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>pcsx2</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PCSX2/pcsx2</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>PCSX2 - The Playstation 2 Emulator</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>12177</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>1643</t>
+        </is>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>6865</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>2281</t>
+        </is>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>rig</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>https://www.github.com/0xPlaygrounds/rig</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>⚙️🦀 Build portable, modular &amp; lightweight Fullstack Agents</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>https://www.github.com/lmarzen/esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>A low-power E-Paper weather display powered by an ESP32 microcontroller. Utilizes the OpenWeatherMap API.</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>4672</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>1510</t>
+        </is>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-10</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -41088,7 +42553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H628"/>
+  <dimension ref="A1:H649"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -66219,6 +67684,888 @@
         </is>
       </c>
     </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>4983</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>1431</t>
+        </is>
+      </c>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>3807</t>
+        </is>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>9146</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>7611</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>65712</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>7991</t>
+        </is>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>6010</t>
+        </is>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>6865</t>
+        </is>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>2678</t>
+        </is>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>103591</t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>13008</t>
+        </is>
+      </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>5308</t>
+        </is>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>webvm</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leaningtech/webvm</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>Virtual Machine for the Web</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>Svelte</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>10999</t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>1701</t>
+        </is>
+      </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>4980</t>
+        </is>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>23391</t>
+        </is>
+      </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>4004</t>
+        </is>
+      </c>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>8769</t>
+        </is>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>32661</t>
+        </is>
+      </c>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>6544</t>
+        </is>
+      </c>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t>3775</t>
+        </is>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>30133</t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>1869</t>
+        </is>
+      </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>4556</t>
+        </is>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>3330</t>
+        </is>
+      </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>7756</t>
+        </is>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>1085</t>
+        </is>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>17262</t>
+        </is>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>1288</t>
+        </is>
+      </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>2818</t>
+        </is>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>9135</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>1955</t>
+        </is>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>3524</t>
+        </is>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>23841</t>
+        </is>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>2357</t>
+        </is>
+      </c>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>15403</t>
+        </is>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>5824</t>
+        </is>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>14062</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>1815</t>
+        </is>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>2886</t>
+        </is>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bitcoin/bitcoin</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>Bitcoin Core integration/staging tree</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>80812</t>
+        </is>
+      </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>36589</t>
+        </is>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>1397</t>
+        </is>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>1819</t>
+        </is>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>804</t>
+        </is>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>39347</t>
+        </is>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>4468</t>
+        </is>
+      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>5083</t>
+        </is>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>v2rayN</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>https://www.github.com/2dust/v2rayN</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>A GUI client for Windows and Linux, support Xray core and sing-box-core and others</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>71751</t>
+        </is>
+      </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>11760</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>2290</t>
+        </is>
+      </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>24234</t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>2495</t>
+        </is>
+      </c>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>4005</t>
+        </is>
+      </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>2024-12-18 02-12-11</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H538"/>
+  <dimension ref="A1:H555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21616,6 +21616,715 @@
         </is>
       </c>
     </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>9213</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>htmx</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bigskysoftware/htmx</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>&lt;/&gt; htmx - high power tools for HTML</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>39272</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>1332</t>
+        </is>
+      </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>51018</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>9212</t>
+        </is>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>8292</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>1026</t>
+        </is>
+      </c>
+      <c r="G542" t="inlineStr">
+        <is>
+          <t>1218</t>
+        </is>
+      </c>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>stripe-ios</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>https://www.github.com/stripe/stripe-ios</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>Stripe iOS SDK</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>Swift</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>2218</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
+      </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>RIOT</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RIOT-OS/RIOT</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>RIOT - The friendly OS for IoT</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>5307</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>EasyVolcap</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>https://www.github.com/zju3dv/EasyVolcap</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>[SIGGRAPH Asia 2023 (Technical Communications)] EasyVolcap: Accelerating Neural Volumetric Video Research</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>3343</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>15426</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>9158</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>1959</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>frp</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fatedier/frp</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>A fast reverse proxy to help you expose a local server behind a NAT or firewall to the internet.</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>87950</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>13504</t>
+        </is>
+      </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>https://www.github.com/facebookresearch/AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>Code to accompany "A Method for Animating Children's Drawings of the Human Figure"</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>10894</t>
+        </is>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="G550" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="H550" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>websocket</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>https://www.github.com/gorilla/websocket</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>Package gorilla/websocket is a fast, well-tested and widely used WebSocket implementation for Go.</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>22700</t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>3495</t>
+        </is>
+      </c>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H551" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>chainlist</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DefiLlama/chainlist</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>2407</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>2482</t>
+        </is>
+      </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>https://www.github.com/open-telemetry/opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>OpenTelemetry Collector</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>4620</t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>1497</t>
+        </is>
+      </c>
+      <c r="G553" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RocketChat/Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>The communications platform that puts data protection first.</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>41244</t>
+        </is>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>10887</t>
+        </is>
+      </c>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H554" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>dify</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langgenius/dify</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>Dify is an open-source LLM app development platform. Dify's intuitive interface combines AI workflow, RAG pipeline, agent capabilities, model management, observability features and more, letting you quickly go from prototype to production.</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>55146</t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>8100</t>
+        </is>
+      </c>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-09</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21627,7 +22336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H525"/>
+  <dimension ref="A1:H543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42542,6 +43251,762 @@
         </is>
       </c>
     </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>8292</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>1026</t>
+        </is>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>2645</t>
+        </is>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>https://www.github.com/nexus-xyz/nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>The Nexus zkVM: The zero-knowledge virtual machine</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>2041</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
+      </c>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>maigret</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>https://www.github.com/soxoj/maigret</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>🕵️‍♂️ Collect a dossier on a person by username from thousands of sites</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>13493</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>7087</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>1257</t>
+        </is>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>9213</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>4904</t>
+        </is>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>23290</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>1470</t>
+        </is>
+      </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>3343</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>1209</t>
+        </is>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>4988</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>1432</t>
+        </is>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>1310</t>
+        </is>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>13039</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>5353</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>18212</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>1279</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>14041</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>gitea</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>https://www.github.com/go-gitea/gitea</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>Git with a cup of tea! Painless self-hosted all-in-one software development service, including Git hosting, code review, team collaboration, package registry and CI/CD</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>45926</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>5552</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>https://www.github.com/FoundationVision/VAR</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>[NeurIPS 2024 Oral][GPT beats diffusion🔥] [scaling laws in visual generation📈] Official impl. of "Visual Autoregressive Modeling: Scalable Image Generation via Next-Scale Prediction". An *ultra-simple, user-friendly yet state-of-the-art* codebase for autoregressive image generation!</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>32714</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>891</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>1509</t>
+        </is>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>pcsx2</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PCSX2/pcsx2</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>PCSX2 - The Playstation 2 Emulator</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>12177</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>1644</t>
+        </is>
+      </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>6869</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>2281</t>
+        </is>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>rig</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>https://www.github.com/0xPlaygrounds/rig</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>⚙️🦀 Build portable, modular &amp; lightweight Fullstack Agents</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>1081</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="G542" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>https://www.github.com/lmarzen/esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>A low-power E-Paper weather display powered by an ESP32 microcontroller. Utilizes the OpenWeatherMap API.</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>4672</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>1510</t>
+        </is>
+      </c>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-10</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -42553,7 +44018,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H649"/>
+  <dimension ref="A1:H670"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -68566,6 +70031,888 @@
         </is>
       </c>
     </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>4988</t>
+        </is>
+      </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>1432</t>
+        </is>
+      </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>3807</t>
+        </is>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>9213</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>7611</t>
+        </is>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>65714</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>7991</t>
+        </is>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>6010</t>
+        </is>
+      </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>6869</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>2678</t>
+        </is>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>103597</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>13008</t>
+        </is>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>5308</t>
+        </is>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>webvm</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leaningtech/webvm</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>Virtual Machine for the Web</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>Svelte</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>11003</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>1701</t>
+        </is>
+      </c>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>4980</t>
+        </is>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>23395</t>
+        </is>
+      </c>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>4004</t>
+        </is>
+      </c>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>8769</t>
+        </is>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>32663</t>
+        </is>
+      </c>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>6544</t>
+        </is>
+      </c>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>3775</t>
+        </is>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>30135</t>
+        </is>
+      </c>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>1869</t>
+        </is>
+      </c>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>4556</t>
+        </is>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>3343</t>
+        </is>
+      </c>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>7759</t>
+        </is>
+      </c>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t>1085</t>
+        </is>
+      </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>17266</t>
+        </is>
+      </c>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>1288</t>
+        </is>
+      </c>
+      <c r="G661" t="inlineStr">
+        <is>
+          <t>2818</t>
+        </is>
+      </c>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>9158</t>
+        </is>
+      </c>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>1959</t>
+        </is>
+      </c>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>3524</t>
+        </is>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>23846</t>
+        </is>
+      </c>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>2357</t>
+        </is>
+      </c>
+      <c r="G663" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>15426</t>
+        </is>
+      </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t>5824</t>
+        </is>
+      </c>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>14065</t>
+        </is>
+      </c>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>1815</t>
+        </is>
+      </c>
+      <c r="G665" t="inlineStr">
+        <is>
+          <t>2886</t>
+        </is>
+      </c>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bitcoin/bitcoin</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>Bitcoin Core integration/staging tree</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>80813</t>
+        </is>
+      </c>
+      <c r="F666" t="inlineStr">
+        <is>
+          <t>36591</t>
+        </is>
+      </c>
+      <c r="G666" t="inlineStr">
+        <is>
+          <t>1397</t>
+        </is>
+      </c>
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>1820</t>
+        </is>
+      </c>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t>804</t>
+        </is>
+      </c>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>39351</t>
+        </is>
+      </c>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>4469</t>
+        </is>
+      </c>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>5083</t>
+        </is>
+      </c>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>v2rayN</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>https://www.github.com/2dust/v2rayN</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>A GUI client for Windows and Linux, support Xray core and sing-box-core and others</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>71756</t>
+        </is>
+      </c>
+      <c r="F669" t="inlineStr">
+        <is>
+          <t>11760</t>
+        </is>
+      </c>
+      <c r="G669" t="inlineStr">
+        <is>
+          <t>2290</t>
+        </is>
+      </c>
+      <c r="H669" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>24236</t>
+        </is>
+      </c>
+      <c r="F670" t="inlineStr">
+        <is>
+          <t>2495</t>
+        </is>
+      </c>
+      <c r="G670" t="inlineStr">
+        <is>
+          <t>4005</t>
+        </is>
+      </c>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-17-12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H555"/>
+  <dimension ref="A1:H572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22325,6 +22325,715 @@
         </is>
       </c>
     </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>9246</t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>htmx</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bigskysoftware/htmx</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>&lt;/&gt; htmx - high power tools for HTML</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>39275</t>
+        </is>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>1332</t>
+        </is>
+      </c>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H557" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>51027</t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>9212</t>
+        </is>
+      </c>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>8303</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>1027</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>1218</t>
+        </is>
+      </c>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>stripe-ios</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>https://www.github.com/stripe/stripe-ios</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>Stripe iOS SDK</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>Swift</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>2219</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
+      </c>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>RIOT</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RIOT-OS/RIOT</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>RIOT - The friendly OS for IoT</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>5311</t>
+        </is>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="G561" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>EasyVolcap</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>https://www.github.com/zju3dv/EasyVolcap</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>[SIGGRAPH Asia 2023 (Technical Communications)] EasyVolcap: Accelerating Neural Volumetric Video Research</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>3349</t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>15437</t>
+        </is>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="G564" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>9171</t>
+        </is>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>frp</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fatedier/frp</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>A fast reverse proxy to help you expose a local server behind a NAT or firewall to the internet.</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>87956</t>
+        </is>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>13504</t>
+        </is>
+      </c>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>https://www.github.com/facebookresearch/AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>Code to accompany "A Method for Animating Children's Drawings of the Human Figure"</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>10902</t>
+        </is>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>websocket</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>https://www.github.com/gorilla/websocket</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>Package gorilla/websocket is a fast, well-tested and widely used WebSocket implementation for Go.</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>22704</t>
+        </is>
+      </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>3495</t>
+        </is>
+      </c>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>chainlist</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DefiLlama/chainlist</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>2412</t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>2482</t>
+        </is>
+      </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>https://www.github.com/open-telemetry/opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>OpenTelemetry Collector</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>4621</t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>1497</t>
+        </is>
+      </c>
+      <c r="G570" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H570" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RocketChat/Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>The communications platform that puts data protection first.</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>41248</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>10887</t>
+        </is>
+      </c>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>dify</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langgenius/dify</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>Dify is an open-source LLM app development platform. Dify's intuitive interface combines AI workflow, RAG pipeline, agent capabilities, model management, observability features and more, letting you quickly go from prototype to production.</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>55151</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>8101</t>
+        </is>
+      </c>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H572" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-52</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22336,7 +23045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H543"/>
+  <dimension ref="A1:H561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44007,6 +44716,762 @@
         </is>
       </c>
     </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>8303</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>1027</t>
+        </is>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>2645</t>
+        </is>
+      </c>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>https://www.github.com/nexus-xyz/nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>The Nexus zkVM: The zero-knowledge virtual machine</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>2041</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>maigret</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>https://www.github.com/soxoj/maigret</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>🕵️‍♂️ Collect a dossier on a person by username from thousands of sites</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>13496</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>1257</t>
+        </is>
+      </c>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>9246</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>4904</t>
+        </is>
+      </c>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>23291</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>1470</t>
+        </is>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>3349</t>
+        </is>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="G550" t="inlineStr">
+        <is>
+          <t>1209</t>
+        </is>
+      </c>
+      <c r="H550" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>4991</t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>1436</t>
+        </is>
+      </c>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t>1310</t>
+        </is>
+      </c>
+      <c r="H551" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>13039</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>5353</t>
+        </is>
+      </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>18213</t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>1279</t>
+        </is>
+      </c>
+      <c r="G553" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>14041</t>
+        </is>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="H554" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>gitea</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>https://www.github.com/go-gitea/gitea</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>Git with a cup of tea! Painless self-hosted all-in-one software development service, including Git hosting, code review, team collaboration, package registry and CI/CD</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>45927</t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>5552</t>
+        </is>
+      </c>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>https://www.github.com/FoundationVision/VAR</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>[NeurIPS 2024 Oral][GPT beats diffusion🔥] [scaling laws in visual generation📈] Official impl. of "Visual Autoregressive Modeling: Scalable Image Generation via Next-Scale Prediction". An *ultra-simple, user-friendly yet state-of-the-art* codebase for autoregressive image generation!</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>32716</t>
+        </is>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>891</t>
+        </is>
+      </c>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t>1509</t>
+        </is>
+      </c>
+      <c r="H557" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>pcsx2</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PCSX2/pcsx2</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>PCSX2 - The Playstation 2 Emulator</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>12181</t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>1644</t>
+        </is>
+      </c>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="H558" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>6873</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>2281</t>
+        </is>
+      </c>
+      <c r="H559" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>rig</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>https://www.github.com/0xPlaygrounds/rig</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>⚙️🦀 Build portable, modular &amp; lightweight Fullstack Agents</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>1082</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>https://www.github.com/lmarzen/esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>A low-power E-Paper weather display powered by an ESP32 microcontroller. Utilizes the OpenWeatherMap API.</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>4674</t>
+        </is>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="G561" t="inlineStr">
+        <is>
+          <t>1510</t>
+        </is>
+      </c>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-53</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -44018,7 +45483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H670"/>
+  <dimension ref="A1:H691"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -70913,6 +72378,888 @@
         </is>
       </c>
     </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>4991</t>
+        </is>
+      </c>
+      <c r="F671" t="inlineStr">
+        <is>
+          <t>1436</t>
+        </is>
+      </c>
+      <c r="G671" t="inlineStr">
+        <is>
+          <t>3807</t>
+        </is>
+      </c>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>9246</t>
+        </is>
+      </c>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="G672" t="inlineStr">
+        <is>
+          <t>7611</t>
+        </is>
+      </c>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>65718</t>
+        </is>
+      </c>
+      <c r="F673" t="inlineStr">
+        <is>
+          <t>7991</t>
+        </is>
+      </c>
+      <c r="G673" t="inlineStr">
+        <is>
+          <t>6010</t>
+        </is>
+      </c>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>6873</t>
+        </is>
+      </c>
+      <c r="F674" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="G674" t="inlineStr">
+        <is>
+          <t>2678</t>
+        </is>
+      </c>
+      <c r="H674" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>103599</t>
+        </is>
+      </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>13008</t>
+        </is>
+      </c>
+      <c r="G675" t="inlineStr">
+        <is>
+          <t>5308</t>
+        </is>
+      </c>
+      <c r="H675" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>webvm</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leaningtech/webvm</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>Virtual Machine for the Web</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>Svelte</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>11004</t>
+        </is>
+      </c>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>1702</t>
+        </is>
+      </c>
+      <c r="G676" t="inlineStr">
+        <is>
+          <t>4980</t>
+        </is>
+      </c>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>23396</t>
+        </is>
+      </c>
+      <c r="F677" t="inlineStr">
+        <is>
+          <t>4004</t>
+        </is>
+      </c>
+      <c r="G677" t="inlineStr">
+        <is>
+          <t>8769</t>
+        </is>
+      </c>
+      <c r="H677" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>32664</t>
+        </is>
+      </c>
+      <c r="F678" t="inlineStr">
+        <is>
+          <t>6544</t>
+        </is>
+      </c>
+      <c r="G678" t="inlineStr">
+        <is>
+          <t>3775</t>
+        </is>
+      </c>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>30135</t>
+        </is>
+      </c>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>1869</t>
+        </is>
+      </c>
+      <c r="G679" t="inlineStr">
+        <is>
+          <t>4556</t>
+        </is>
+      </c>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>3349</t>
+        </is>
+      </c>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="G680" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>7760</t>
+        </is>
+      </c>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="G681" t="inlineStr">
+        <is>
+          <t>1085</t>
+        </is>
+      </c>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>17267</t>
+        </is>
+      </c>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>1288</t>
+        </is>
+      </c>
+      <c r="G682" t="inlineStr">
+        <is>
+          <t>2818</t>
+        </is>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>9171</t>
+        </is>
+      </c>
+      <c r="F683" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="G683" t="inlineStr">
+        <is>
+          <t>3524</t>
+        </is>
+      </c>
+      <c r="H683" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>23848</t>
+        </is>
+      </c>
+      <c r="F684" t="inlineStr">
+        <is>
+          <t>2357</t>
+        </is>
+      </c>
+      <c r="G684" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="H684" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>15437</t>
+        </is>
+      </c>
+      <c r="F685" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="G685" t="inlineStr">
+        <is>
+          <t>5824</t>
+        </is>
+      </c>
+      <c r="H685" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>14066</t>
+        </is>
+      </c>
+      <c r="F686" t="inlineStr">
+        <is>
+          <t>1815</t>
+        </is>
+      </c>
+      <c r="G686" t="inlineStr">
+        <is>
+          <t>2886</t>
+        </is>
+      </c>
+      <c r="H686" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bitcoin/bitcoin</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>Bitcoin Core integration/staging tree</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>80814</t>
+        </is>
+      </c>
+      <c r="F687" t="inlineStr">
+        <is>
+          <t>36591</t>
+        </is>
+      </c>
+      <c r="G687" t="inlineStr">
+        <is>
+          <t>1397</t>
+        </is>
+      </c>
+      <c r="H687" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>1820</t>
+        </is>
+      </c>
+      <c r="F688" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="G688" t="inlineStr">
+        <is>
+          <t>804</t>
+        </is>
+      </c>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>39355</t>
+        </is>
+      </c>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>4469</t>
+        </is>
+      </c>
+      <c r="G689" t="inlineStr">
+        <is>
+          <t>5083</t>
+        </is>
+      </c>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>v2rayN</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>https://www.github.com/2dust/v2rayN</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>A GUI client for Windows and Linux, support Xray core and sing-box-core and others</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>71760</t>
+        </is>
+      </c>
+      <c r="F690" t="inlineStr">
+        <is>
+          <t>11760</t>
+        </is>
+      </c>
+      <c r="G690" t="inlineStr">
+        <is>
+          <t>2290</t>
+        </is>
+      </c>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-54</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>24238</t>
+        </is>
+      </c>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>2495</t>
+        </is>
+      </c>
+      <c r="G691" t="inlineStr">
+        <is>
+          <t>4005</t>
+        </is>
+      </c>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>2024-12-18 03-51-54</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H572"/>
+  <dimension ref="A1:H589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23034,6 +23034,715 @@
         </is>
       </c>
     </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>9267</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="H573" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-38</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>htmx</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bigskysoftware/htmx</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>&lt;/&gt; htmx - high power tools for HTML</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>39283</t>
+        </is>
+      </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>1333</t>
+        </is>
+      </c>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H574" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-38</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>51034</t>
+        </is>
+      </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>9213</t>
+        </is>
+      </c>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="H575" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-38</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>8314</t>
+        </is>
+      </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>1027</t>
+        </is>
+      </c>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>1218</t>
+        </is>
+      </c>
+      <c r="H576" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-38</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>stripe-ios</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>https://www.github.com/stripe/stripe-ios</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>Stripe iOS SDK</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>Swift</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>2223</t>
+        </is>
+      </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-38</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>RIOT</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RIOT-OS/RIOT</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>RIOT - The friendly OS for IoT</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>5315</t>
+        </is>
+      </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H578" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-38</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>EasyVolcap</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>https://www.github.com/zju3dv/EasyVolcap</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>[SIGGRAPH Asia 2023 (Technical Communications)] EasyVolcap: Accelerating Neural Volumetric Video Research</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H579" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-38</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>3359</t>
+        </is>
+      </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-38</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>15449</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-38</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>9181</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-38</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>frp</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fatedier/frp</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>A fast reverse proxy to help you expose a local server behind a NAT or firewall to the internet.</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>87965</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>13505</t>
+        </is>
+      </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-38</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>https://www.github.com/facebookresearch/AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>Code to accompany "A Method for Animating Children's Drawings of the Human Figure"</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>10909</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-38</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>websocket</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>https://www.github.com/gorilla/websocket</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>Package gorilla/websocket is a fast, well-tested and widely used WebSocket implementation for Go.</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>22712</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>3495</t>
+        </is>
+      </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-38</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>chainlist</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DefiLlama/chainlist</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>2414</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>2482</t>
+        </is>
+      </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-38</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>https://www.github.com/open-telemetry/opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>OpenTelemetry Collector</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>4624</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>1497</t>
+        </is>
+      </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-38</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RocketChat/Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>The communications platform that puts data protection first.</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>41252</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>10887</t>
+        </is>
+      </c>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-38</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>dify</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langgenius/dify</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>Dify is an open-source LLM app development platform. Dify's intuitive interface combines AI workflow, RAG pipeline, agent capabilities, model management, observability features and more, letting you quickly go from prototype to production.</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>55160</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>8102</t>
+        </is>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-38</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23045,7 +23754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H561"/>
+  <dimension ref="A1:H579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45472,6 +46181,762 @@
         </is>
       </c>
     </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>8314</t>
+        </is>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>1027</t>
+        </is>
+      </c>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t>2645</t>
+        </is>
+      </c>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-39</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>https://www.github.com/nexus-xyz/nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>The Nexus zkVM: The zero-knowledge virtual machine</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>2041</t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
+      </c>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-39</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>maigret</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>https://www.github.com/soxoj/maigret</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>🕵️‍♂️ Collect a dossier on a person by username from thousands of sites</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>13501</t>
+        </is>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="G564" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+      <c r="H564" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-39</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>7092</t>
+        </is>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t>1257</t>
+        </is>
+      </c>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-39</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>9267</t>
+        </is>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t>4904</t>
+        </is>
+      </c>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-39</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>23291</t>
+        </is>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>1470</t>
+        </is>
+      </c>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-39</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>3359</t>
+        </is>
+      </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>1209</t>
+        </is>
+      </c>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-39</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>4997</t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>1437</t>
+        </is>
+      </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>1310</t>
+        </is>
+      </c>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-39</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>13039</t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>5353</t>
+        </is>
+      </c>
+      <c r="G570" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="H570" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-39</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>18213</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>1279</t>
+        </is>
+      </c>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-39</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>14044</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="H572" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-39</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>gitea</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>https://www.github.com/go-gitea/gitea</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>Git with a cup of tea! Painless self-hosted all-in-one software development service, including Git hosting, code review, team collaboration, package registry and CI/CD</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>45927</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>5552</t>
+        </is>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="H573" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-39</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>https://www.github.com/FoundationVision/VAR</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>[NeurIPS 2024 Oral][GPT beats diffusion🔥] [scaling laws in visual generation📈] Official impl. of "Visual Autoregressive Modeling: Scalable Image Generation via Next-Scale Prediction". An *ultra-simple, user-friendly yet state-of-the-art* codebase for autoregressive image generation!</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>6289</t>
+        </is>
+      </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="H574" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-39</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>32728</t>
+        </is>
+      </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>891</t>
+        </is>
+      </c>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>1509</t>
+        </is>
+      </c>
+      <c r="H575" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-39</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>pcsx2</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PCSX2/pcsx2</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>PCSX2 - The Playstation 2 Emulator</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>12184</t>
+        </is>
+      </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>1644</t>
+        </is>
+      </c>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="H576" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-39</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>6883</t>
+        </is>
+      </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>731</t>
+        </is>
+      </c>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>2281</t>
+        </is>
+      </c>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-39</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>rig</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>https://www.github.com/0xPlaygrounds/rig</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>⚙️🦀 Build portable, modular &amp; lightweight Fullstack Agents</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>1087</t>
+        </is>
+      </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="H578" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-39</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>https://www.github.com/lmarzen/esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>A low-power E-Paper weather display powered by an ESP32 microcontroller. Utilizes the OpenWeatherMap API.</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>4676</t>
+        </is>
+      </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>1510</t>
+        </is>
+      </c>
+      <c r="H579" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-39</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -45483,7 +46948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H691"/>
+  <dimension ref="A1:H712"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -73260,6 +74725,888 @@
         </is>
       </c>
     </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>4997</t>
+        </is>
+      </c>
+      <c r="F692" t="inlineStr">
+        <is>
+          <t>1437</t>
+        </is>
+      </c>
+      <c r="G692" t="inlineStr">
+        <is>
+          <t>3807</t>
+        </is>
+      </c>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>9267</t>
+        </is>
+      </c>
+      <c r="F693" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>7611</t>
+        </is>
+      </c>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>65719</t>
+        </is>
+      </c>
+      <c r="F694" t="inlineStr">
+        <is>
+          <t>7991</t>
+        </is>
+      </c>
+      <c r="G694" t="inlineStr">
+        <is>
+          <t>6010</t>
+        </is>
+      </c>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>6883</t>
+        </is>
+      </c>
+      <c r="F695" t="inlineStr">
+        <is>
+          <t>731</t>
+        </is>
+      </c>
+      <c r="G695" t="inlineStr">
+        <is>
+          <t>2678</t>
+        </is>
+      </c>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>103603</t>
+        </is>
+      </c>
+      <c r="F696" t="inlineStr">
+        <is>
+          <t>13009</t>
+        </is>
+      </c>
+      <c r="G696" t="inlineStr">
+        <is>
+          <t>5308</t>
+        </is>
+      </c>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>webvm</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leaningtech/webvm</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>Virtual Machine for the Web</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>Svelte</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>11005</t>
+        </is>
+      </c>
+      <c r="F697" t="inlineStr">
+        <is>
+          <t>1702</t>
+        </is>
+      </c>
+      <c r="G697" t="inlineStr">
+        <is>
+          <t>4980</t>
+        </is>
+      </c>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>23399</t>
+        </is>
+      </c>
+      <c r="F698" t="inlineStr">
+        <is>
+          <t>4006</t>
+        </is>
+      </c>
+      <c r="G698" t="inlineStr">
+        <is>
+          <t>8769</t>
+        </is>
+      </c>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>32671</t>
+        </is>
+      </c>
+      <c r="F699" t="inlineStr">
+        <is>
+          <t>6544</t>
+        </is>
+      </c>
+      <c r="G699" t="inlineStr">
+        <is>
+          <t>3775</t>
+        </is>
+      </c>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>30138</t>
+        </is>
+      </c>
+      <c r="F700" t="inlineStr">
+        <is>
+          <t>1869</t>
+        </is>
+      </c>
+      <c r="G700" t="inlineStr">
+        <is>
+          <t>4556</t>
+        </is>
+      </c>
+      <c r="H700" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>3359</t>
+        </is>
+      </c>
+      <c r="F701" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="G701" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="H701" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>7762</t>
+        </is>
+      </c>
+      <c r="F702" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="G702" t="inlineStr">
+        <is>
+          <t>1085</t>
+        </is>
+      </c>
+      <c r="H702" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>17267</t>
+        </is>
+      </c>
+      <c r="F703" t="inlineStr">
+        <is>
+          <t>1288</t>
+        </is>
+      </c>
+      <c r="G703" t="inlineStr">
+        <is>
+          <t>2818</t>
+        </is>
+      </c>
+      <c r="H703" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>9181</t>
+        </is>
+      </c>
+      <c r="F704" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="G704" t="inlineStr">
+        <is>
+          <t>3524</t>
+        </is>
+      </c>
+      <c r="H704" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>23849</t>
+        </is>
+      </c>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>2357</t>
+        </is>
+      </c>
+      <c r="G705" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="H705" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>15449</t>
+        </is>
+      </c>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="G706" t="inlineStr">
+        <is>
+          <t>5824</t>
+        </is>
+      </c>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>14066</t>
+        </is>
+      </c>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>1815</t>
+        </is>
+      </c>
+      <c r="G707" t="inlineStr">
+        <is>
+          <t>2886</t>
+        </is>
+      </c>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bitcoin/bitcoin</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>Bitcoin Core integration/staging tree</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>80817</t>
+        </is>
+      </c>
+      <c r="F708" t="inlineStr">
+        <is>
+          <t>36592</t>
+        </is>
+      </c>
+      <c r="G708" t="inlineStr">
+        <is>
+          <t>1397</t>
+        </is>
+      </c>
+      <c r="H708" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>1820</t>
+        </is>
+      </c>
+      <c r="F709" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="G709" t="inlineStr">
+        <is>
+          <t>804</t>
+        </is>
+      </c>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>39365</t>
+        </is>
+      </c>
+      <c r="F710" t="inlineStr">
+        <is>
+          <t>4470</t>
+        </is>
+      </c>
+      <c r="G710" t="inlineStr">
+        <is>
+          <t>5083</t>
+        </is>
+      </c>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>v2rayN</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>https://www.github.com/2dust/v2rayN</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>A GUI client for Windows and Linux, support Xray core and sing-box-core and others</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>71763</t>
+        </is>
+      </c>
+      <c r="F711" t="inlineStr">
+        <is>
+          <t>11760</t>
+        </is>
+      </c>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>2290</t>
+        </is>
+      </c>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>24238</t>
+        </is>
+      </c>
+      <c r="F712" t="inlineStr">
+        <is>
+          <t>2495</t>
+        </is>
+      </c>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>4005</t>
+        </is>
+      </c>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>2024-12-18 04-48-40</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H589"/>
+  <dimension ref="A1:H606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23743,6 +23743,715 @@
         </is>
       </c>
     </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>9303</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>htmx</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bigskysoftware/htmx</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>&lt;/&gt; htmx - high power tools for HTML</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>39289</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>1333</t>
+        </is>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>51037</t>
+        </is>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>9213</t>
+        </is>
+      </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>8318</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>1028</t>
+        </is>
+      </c>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>1218</t>
+        </is>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>stripe-ios</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>https://www.github.com/stripe/stripe-ios</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>Stripe iOS SDK</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>Swift</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>2224</t>
+        </is>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="G594" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>RIOT</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RIOT-OS/RIOT</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>RIOT - The friendly OS for IoT</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>5316</t>
+        </is>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>EasyVolcap</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>https://www.github.com/zju3dv/EasyVolcap</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>[SIGGRAPH Asia 2023 (Technical Communications)] EasyVolcap: Accelerating Neural Volumetric Video Research</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>882</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>3366</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>15462</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>9197</t>
+        </is>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>frp</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fatedier/frp</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>A fast reverse proxy to help you expose a local server behind a NAT or firewall to the internet.</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>87976</t>
+        </is>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>13505</t>
+        </is>
+      </c>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>https://www.github.com/facebookresearch/AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>Code to accompany "A Method for Animating Children's Drawings of the Human Figure"</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>10919</t>
+        </is>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>websocket</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>https://www.github.com/gorilla/websocket</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>Package gorilla/websocket is a fast, well-tested and widely used WebSocket implementation for Go.</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>22713</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>3495</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>chainlist</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DefiLlama/chainlist</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>2414</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>2482</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>https://www.github.com/open-telemetry/opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>OpenTelemetry Collector</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>4627</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>1496</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RocketChat/Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>The communications platform that puts data protection first.</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>41253</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>10888</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>dify</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langgenius/dify</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>Dify is an open-source LLM app development platform. Dify's intuitive interface combines AI workflow, RAG pipeline, agent capabilities, model management, observability features and more, letting you quickly go from prototype to production.</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>55166</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>8103</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-16</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23754,7 +24463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H579"/>
+  <dimension ref="A1:H597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46937,6 +47646,762 @@
         </is>
       </c>
     </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>8318</t>
+        </is>
+      </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>1028</t>
+        </is>
+      </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>2645</t>
+        </is>
+      </c>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>https://www.github.com/nexus-xyz/nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>The Nexus zkVM: The zero-knowledge virtual machine</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>2042</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>maigret</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>https://www.github.com/soxoj/maigret</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>🕵️‍♂️ Collect a dossier on a person by username from thousands of sites</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>13505</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>7093</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>1257</t>
+        </is>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>9303</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>4904</t>
+        </is>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>23293</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>1470</t>
+        </is>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>3366</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>1209</t>
+        </is>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>5001</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>1441</t>
+        </is>
+      </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>1310</t>
+        </is>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>13039</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>5353</t>
+        </is>
+      </c>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>18214</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>1279</t>
+        </is>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>14046</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>gitea</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>https://www.github.com/go-gitea/gitea</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>Git with a cup of tea! Painless self-hosted all-in-one software development service, including Git hosting, code review, team collaboration, package registry and CI/CD</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>45928</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>5552</t>
+        </is>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>https://www.github.com/FoundationVision/VAR</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>[NeurIPS 2024 Oral][GPT beats diffusion🔥] [scaling laws in visual generation📈] Official impl. of "Visual Autoregressive Modeling: Scalable Image Generation via Next-Scale Prediction". An *ultra-simple, user-friendly yet state-of-the-art* codebase for autoregressive image generation!</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>6290</t>
+        </is>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>32735</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>891</t>
+        </is>
+      </c>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>1509</t>
+        </is>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>pcsx2</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PCSX2/pcsx2</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>PCSX2 - The Playstation 2 Emulator</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>12187</t>
+        </is>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>1644</t>
+        </is>
+      </c>
+      <c r="G594" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>6890</t>
+        </is>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>731</t>
+        </is>
+      </c>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>2281</t>
+        </is>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>rig</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>https://www.github.com/0xPlaygrounds/rig</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>⚙️🦀 Build portable, modular &amp; lightweight Fullstack Agents</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>https://www.github.com/lmarzen/esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>A low-power E-Paper weather display powered by an ESP32 microcontroller. Utilizes the OpenWeatherMap API.</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>4676</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>1510</t>
+        </is>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -46948,7 +48413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H712"/>
+  <dimension ref="A1:H733"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -75607,6 +77072,888 @@
         </is>
       </c>
     </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>5001</t>
+        </is>
+      </c>
+      <c r="F713" t="inlineStr">
+        <is>
+          <t>1441</t>
+        </is>
+      </c>
+      <c r="G713" t="inlineStr">
+        <is>
+          <t>3807</t>
+        </is>
+      </c>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>9303</t>
+        </is>
+      </c>
+      <c r="F714" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="G714" t="inlineStr">
+        <is>
+          <t>7611</t>
+        </is>
+      </c>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>65722</t>
+        </is>
+      </c>
+      <c r="F715" t="inlineStr">
+        <is>
+          <t>7991</t>
+        </is>
+      </c>
+      <c r="G715" t="inlineStr">
+        <is>
+          <t>6010</t>
+        </is>
+      </c>
+      <c r="H715" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>6890</t>
+        </is>
+      </c>
+      <c r="F716" t="inlineStr">
+        <is>
+          <t>731</t>
+        </is>
+      </c>
+      <c r="G716" t="inlineStr">
+        <is>
+          <t>2678</t>
+        </is>
+      </c>
+      <c r="H716" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>103609</t>
+        </is>
+      </c>
+      <c r="F717" t="inlineStr">
+        <is>
+          <t>13009</t>
+        </is>
+      </c>
+      <c r="G717" t="inlineStr">
+        <is>
+          <t>5308</t>
+        </is>
+      </c>
+      <c r="H717" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>webvm</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leaningtech/webvm</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>Virtual Machine for the Web</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>Svelte</t>
+        </is>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>11007</t>
+        </is>
+      </c>
+      <c r="F718" t="inlineStr">
+        <is>
+          <t>1702</t>
+        </is>
+      </c>
+      <c r="G718" t="inlineStr">
+        <is>
+          <t>4980</t>
+        </is>
+      </c>
+      <c r="H718" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>23400</t>
+        </is>
+      </c>
+      <c r="F719" t="inlineStr">
+        <is>
+          <t>4006</t>
+        </is>
+      </c>
+      <c r="G719" t="inlineStr">
+        <is>
+          <t>8769</t>
+        </is>
+      </c>
+      <c r="H719" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>32674</t>
+        </is>
+      </c>
+      <c r="F720" t="inlineStr">
+        <is>
+          <t>6544</t>
+        </is>
+      </c>
+      <c r="G720" t="inlineStr">
+        <is>
+          <t>3775</t>
+        </is>
+      </c>
+      <c r="H720" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>30144</t>
+        </is>
+      </c>
+      <c r="F721" t="inlineStr">
+        <is>
+          <t>1869</t>
+        </is>
+      </c>
+      <c r="G721" t="inlineStr">
+        <is>
+          <t>4556</t>
+        </is>
+      </c>
+      <c r="H721" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>3366</t>
+        </is>
+      </c>
+      <c r="F722" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="G722" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="H722" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>7762</t>
+        </is>
+      </c>
+      <c r="F723" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+      <c r="G723" t="inlineStr">
+        <is>
+          <t>1085</t>
+        </is>
+      </c>
+      <c r="H723" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>17270</t>
+        </is>
+      </c>
+      <c r="F724" t="inlineStr">
+        <is>
+          <t>1288</t>
+        </is>
+      </c>
+      <c r="G724" t="inlineStr">
+        <is>
+          <t>2818</t>
+        </is>
+      </c>
+      <c r="H724" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>9197</t>
+        </is>
+      </c>
+      <c r="F725" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="G725" t="inlineStr">
+        <is>
+          <t>3524</t>
+        </is>
+      </c>
+      <c r="H725" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>23854</t>
+        </is>
+      </c>
+      <c r="F726" t="inlineStr">
+        <is>
+          <t>2357</t>
+        </is>
+      </c>
+      <c r="G726" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="H726" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>15462</t>
+        </is>
+      </c>
+      <c r="F727" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="G727" t="inlineStr">
+        <is>
+          <t>5824</t>
+        </is>
+      </c>
+      <c r="H727" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E728" t="inlineStr">
+        <is>
+          <t>14067</t>
+        </is>
+      </c>
+      <c r="F728" t="inlineStr">
+        <is>
+          <t>1815</t>
+        </is>
+      </c>
+      <c r="G728" t="inlineStr">
+        <is>
+          <t>2886</t>
+        </is>
+      </c>
+      <c r="H728" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bitcoin/bitcoin</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>Bitcoin Core integration/staging tree</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E729" t="inlineStr">
+        <is>
+          <t>80818</t>
+        </is>
+      </c>
+      <c r="F729" t="inlineStr">
+        <is>
+          <t>36592</t>
+        </is>
+      </c>
+      <c r="G729" t="inlineStr">
+        <is>
+          <t>1397</t>
+        </is>
+      </c>
+      <c r="H729" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E730" t="inlineStr">
+        <is>
+          <t>1820</t>
+        </is>
+      </c>
+      <c r="F730" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="G730" t="inlineStr">
+        <is>
+          <t>804</t>
+        </is>
+      </c>
+      <c r="H730" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E731" t="inlineStr">
+        <is>
+          <t>39380</t>
+        </is>
+      </c>
+      <c r="F731" t="inlineStr">
+        <is>
+          <t>4472</t>
+        </is>
+      </c>
+      <c r="G731" t="inlineStr">
+        <is>
+          <t>5083</t>
+        </is>
+      </c>
+      <c r="H731" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>v2rayN</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>https://www.github.com/2dust/v2rayN</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>A GUI client for Windows and Linux, support Xray core and sing-box-core and others</t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E732" t="inlineStr">
+        <is>
+          <t>71768</t>
+        </is>
+      </c>
+      <c r="F732" t="inlineStr">
+        <is>
+          <t>11761</t>
+        </is>
+      </c>
+      <c r="G732" t="inlineStr">
+        <is>
+          <t>2290</t>
+        </is>
+      </c>
+      <c r="H732" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E733" t="inlineStr">
+        <is>
+          <t>24240</t>
+        </is>
+      </c>
+      <c r="F733" t="inlineStr">
+        <is>
+          <t>2495</t>
+        </is>
+      </c>
+      <c r="G733" t="inlineStr">
+        <is>
+          <t>4005</t>
+        </is>
+      </c>
+      <c r="H733" t="inlineStr">
+        <is>
+          <t>2024-12-18 05-47-18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H606"/>
+  <dimension ref="A1:H623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24452,6 +24452,715 @@
         </is>
       </c>
     </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>9349</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>htmx</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bigskysoftware/htmx</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>&lt;/&gt; htmx - high power tools for HTML</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>39296</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>1333</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>51042</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>9214</t>
+        </is>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>8328</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>1028</t>
+        </is>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>1218</t>
+        </is>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>stripe-ios</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>https://www.github.com/stripe/stripe-ios</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>Stripe iOS SDK</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>Swift</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>2227</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>RIOT</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RIOT-OS/RIOT</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>RIOT - The friendly OS for IoT</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>5322</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>EasyVolcap</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>https://www.github.com/zju3dv/EasyVolcap</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>[SIGGRAPH Asia 2023 (Technical Communications)] EasyVolcap: Accelerating Neural Volumetric Video Research</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>3373</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>15475</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>9221</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>frp</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fatedier/frp</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>A fast reverse proxy to help you expose a local server behind a NAT or firewall to the internet.</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>87997</t>
+        </is>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>13506</t>
+        </is>
+      </c>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>https://www.github.com/facebookresearch/AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>Code to accompany "A Method for Animating Children's Drawings of the Human Figure"</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>10942</t>
+        </is>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>961</t>
+        </is>
+      </c>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>websocket</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>https://www.github.com/gorilla/websocket</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>Package gorilla/websocket is a fast, well-tested and widely used WebSocket implementation for Go.</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>22721</t>
+        </is>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>3495</t>
+        </is>
+      </c>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>chainlist</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DefiLlama/chainlist</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>2418</t>
+        </is>
+      </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>2483</t>
+        </is>
+      </c>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>https://www.github.com/open-telemetry/opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>OpenTelemetry Collector</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>4633</t>
+        </is>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>1496</t>
+        </is>
+      </c>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RocketChat/Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>The communications platform that puts data protection first.</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>41258</t>
+        </is>
+      </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>10888</t>
+        </is>
+      </c>
+      <c r="G622" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>dify</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langgenius/dify</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>Dify is an open-source LLM app development platform. Dify's intuitive interface combines AI workflow, RAG pipeline, agent capabilities, model management, observability features and more, letting you quickly go from prototype to production.</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>55183</t>
+        </is>
+      </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>8106</t>
+        </is>
+      </c>
+      <c r="G623" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24463,7 +25172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H597"/>
+  <dimension ref="A1:H615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48402,6 +49111,762 @@
         </is>
       </c>
     </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>8328</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>1028</t>
+        </is>
+      </c>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>2645</t>
+        </is>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>https://www.github.com/nexus-xyz/nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>The Nexus zkVM: The zero-knowledge virtual machine</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>2045</t>
+        </is>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>maigret</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>https://www.github.com/soxoj/maigret</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>🕵️‍♂️ Collect a dossier on a person by username from thousands of sites</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>13506</t>
+        </is>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>7094</t>
+        </is>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>1257</t>
+        </is>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>9349</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>4904</t>
+        </is>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>23297</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>891</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>1470</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>3373</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>1209</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>1442</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>1310</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>13040</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>5353</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>18215</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>1280</t>
+        </is>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>14047</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>2135</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>gitea</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>https://www.github.com/go-gitea/gitea</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>Git with a cup of tea! Painless self-hosted all-in-one software development service, including Git hosting, code review, team collaboration, package registry and CI/CD</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>45929</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>5551</t>
+        </is>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>https://www.github.com/FoundationVision/VAR</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>[NeurIPS 2024 Oral][GPT beats diffusion🔥] [scaling laws in visual generation📈] Official impl. of "Visual Autoregressive Modeling: Scalable Image Generation via Next-Scale Prediction". An *ultra-simple, user-friendly yet state-of-the-art* codebase for autoregressive image generation!</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>6291</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>32742</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>891</t>
+        </is>
+      </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>1509</t>
+        </is>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>pcsx2</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PCSX2/pcsx2</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>PCSX2 - The Playstation 2 Emulator</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>12188</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>1644</t>
+        </is>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>6899</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>731</t>
+        </is>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>2281</t>
+        </is>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>rig</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>https://www.github.com/0xPlaygrounds/rig</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>⚙️🦀 Build portable, modular &amp; lightweight Fullstack Agents</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>1093</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>https://www.github.com/lmarzen/esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>A low-power E-Paper weather display powered by an ESP32 microcontroller. Utilizes the OpenWeatherMap API.</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>4678</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>1510</t>
+        </is>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-14</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -48413,7 +49878,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H733"/>
+  <dimension ref="A1:H754"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -77954,6 +79419,888 @@
         </is>
       </c>
     </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>5010</t>
+        </is>
+      </c>
+      <c r="F734" t="inlineStr">
+        <is>
+          <t>1442</t>
+        </is>
+      </c>
+      <c r="G734" t="inlineStr">
+        <is>
+          <t>3807</t>
+        </is>
+      </c>
+      <c r="H734" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>9349</t>
+        </is>
+      </c>
+      <c r="F735" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="G735" t="inlineStr">
+        <is>
+          <t>7611</t>
+        </is>
+      </c>
+      <c r="H735" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E736" t="inlineStr">
+        <is>
+          <t>65729</t>
+        </is>
+      </c>
+      <c r="F736" t="inlineStr">
+        <is>
+          <t>7992</t>
+        </is>
+      </c>
+      <c r="G736" t="inlineStr">
+        <is>
+          <t>6010</t>
+        </is>
+      </c>
+      <c r="H736" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E737" t="inlineStr">
+        <is>
+          <t>6899</t>
+        </is>
+      </c>
+      <c r="F737" t="inlineStr">
+        <is>
+          <t>731</t>
+        </is>
+      </c>
+      <c r="G737" t="inlineStr">
+        <is>
+          <t>2678</t>
+        </is>
+      </c>
+      <c r="H737" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>103619</t>
+        </is>
+      </c>
+      <c r="F738" t="inlineStr">
+        <is>
+          <t>13009</t>
+        </is>
+      </c>
+      <c r="G738" t="inlineStr">
+        <is>
+          <t>5308</t>
+        </is>
+      </c>
+      <c r="H738" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>webvm</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leaningtech/webvm</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>Virtual Machine for the Web</t>
+        </is>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>Svelte</t>
+        </is>
+      </c>
+      <c r="E739" t="inlineStr">
+        <is>
+          <t>11011</t>
+        </is>
+      </c>
+      <c r="F739" t="inlineStr">
+        <is>
+          <t>1702</t>
+        </is>
+      </c>
+      <c r="G739" t="inlineStr">
+        <is>
+          <t>4980</t>
+        </is>
+      </c>
+      <c r="H739" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>23406</t>
+        </is>
+      </c>
+      <c r="F740" t="inlineStr">
+        <is>
+          <t>4006</t>
+        </is>
+      </c>
+      <c r="G740" t="inlineStr">
+        <is>
+          <t>8769</t>
+        </is>
+      </c>
+      <c r="H740" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E741" t="inlineStr">
+        <is>
+          <t>32676</t>
+        </is>
+      </c>
+      <c r="F741" t="inlineStr">
+        <is>
+          <t>6545</t>
+        </is>
+      </c>
+      <c r="G741" t="inlineStr">
+        <is>
+          <t>3775</t>
+        </is>
+      </c>
+      <c r="H741" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E742" t="inlineStr">
+        <is>
+          <t>30148</t>
+        </is>
+      </c>
+      <c r="F742" t="inlineStr">
+        <is>
+          <t>1869</t>
+        </is>
+      </c>
+      <c r="G742" t="inlineStr">
+        <is>
+          <t>4556</t>
+        </is>
+      </c>
+      <c r="H742" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E743" t="inlineStr">
+        <is>
+          <t>3373</t>
+        </is>
+      </c>
+      <c r="F743" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="G743" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="H743" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E744" t="inlineStr">
+        <is>
+          <t>7764</t>
+        </is>
+      </c>
+      <c r="F744" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
+      <c r="G744" t="inlineStr">
+        <is>
+          <t>1085</t>
+        </is>
+      </c>
+      <c r="H744" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E745" t="inlineStr">
+        <is>
+          <t>17275</t>
+        </is>
+      </c>
+      <c r="F745" t="inlineStr">
+        <is>
+          <t>1288</t>
+        </is>
+      </c>
+      <c r="G745" t="inlineStr">
+        <is>
+          <t>2818</t>
+        </is>
+      </c>
+      <c r="H745" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E746" t="inlineStr">
+        <is>
+          <t>9221</t>
+        </is>
+      </c>
+      <c r="F746" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="G746" t="inlineStr">
+        <is>
+          <t>3524</t>
+        </is>
+      </c>
+      <c r="H746" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E747" t="inlineStr">
+        <is>
+          <t>23855</t>
+        </is>
+      </c>
+      <c r="F747" t="inlineStr">
+        <is>
+          <t>2356</t>
+        </is>
+      </c>
+      <c r="G747" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="H747" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E748" t="inlineStr">
+        <is>
+          <t>15475</t>
+        </is>
+      </c>
+      <c r="F748" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="G748" t="inlineStr">
+        <is>
+          <t>5824</t>
+        </is>
+      </c>
+      <c r="H748" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E749" t="inlineStr">
+        <is>
+          <t>14071</t>
+        </is>
+      </c>
+      <c r="F749" t="inlineStr">
+        <is>
+          <t>1816</t>
+        </is>
+      </c>
+      <c r="G749" t="inlineStr">
+        <is>
+          <t>2886</t>
+        </is>
+      </c>
+      <c r="H749" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bitcoin/bitcoin</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>Bitcoin Core integration/staging tree</t>
+        </is>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E750" t="inlineStr">
+        <is>
+          <t>80822</t>
+        </is>
+      </c>
+      <c r="F750" t="inlineStr">
+        <is>
+          <t>36593</t>
+        </is>
+      </c>
+      <c r="G750" t="inlineStr">
+        <is>
+          <t>1397</t>
+        </is>
+      </c>
+      <c r="H750" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E751" t="inlineStr">
+        <is>
+          <t>1824</t>
+        </is>
+      </c>
+      <c r="F751" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="G751" t="inlineStr">
+        <is>
+          <t>804</t>
+        </is>
+      </c>
+      <c r="H751" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E752" t="inlineStr">
+        <is>
+          <t>39390</t>
+        </is>
+      </c>
+      <c r="F752" t="inlineStr">
+        <is>
+          <t>4472</t>
+        </is>
+      </c>
+      <c r="G752" t="inlineStr">
+        <is>
+          <t>5083</t>
+        </is>
+      </c>
+      <c r="H752" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>v2rayN</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>https://www.github.com/2dust/v2rayN</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>A GUI client for Windows and Linux, support Xray core and sing-box-core and others</t>
+        </is>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E753" t="inlineStr">
+        <is>
+          <t>71778</t>
+        </is>
+      </c>
+      <c r="F753" t="inlineStr">
+        <is>
+          <t>11762</t>
+        </is>
+      </c>
+      <c r="G753" t="inlineStr">
+        <is>
+          <t>2290</t>
+        </is>
+      </c>
+      <c r="H753" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E754" t="inlineStr">
+        <is>
+          <t>24241</t>
+        </is>
+      </c>
+      <c r="F754" t="inlineStr">
+        <is>
+          <t>2495</t>
+        </is>
+      </c>
+      <c r="G754" t="inlineStr">
+        <is>
+          <t>4005</t>
+        </is>
+      </c>
+      <c r="H754" t="inlineStr">
+        <is>
+          <t>2024-12-18 06-51-15</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/github.xlsx
+++ b/github.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H623"/>
+  <dimension ref="A1:H640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25161,6 +25161,715 @@
         </is>
       </c>
     </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>9382</t>
+        </is>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>htmx</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bigskysoftware/htmx</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>&lt;/&gt; htmx - high power tools for HTML</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>39300</t>
+        </is>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>1333</t>
+        </is>
+      </c>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>openpilot</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>https://www.github.com/commaai/openpilot</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>openpilot is an operating system for robotics. Currently, it upgrades the driver assistance system on 275+ supported cars.</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>51048</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>9215</t>
+        </is>
+      </c>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>8341</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>1028</t>
+        </is>
+      </c>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>1218</t>
+        </is>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>stripe-ios</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>https://www.github.com/stripe/stripe-ios</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>Stripe iOS SDK</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>Swift</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>2227</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>RIOT</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RIOT-OS/RIOT</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>RIOT - The friendly OS for IoT</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>5330</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>EasyVolcap</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>https://www.github.com/zju3dv/EasyVolcap</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>[SIGGRAPH Asia 2023 (Technical Communications)] EasyVolcap: Accelerating Neural Volumetric Video Research</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>3379</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>15488</t>
+        </is>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>9238</t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>frp</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fatedier/frp</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>A fast reverse proxy to help you expose a local server behind a NAT or firewall to the internet.</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>88002</t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>13504</t>
+        </is>
+      </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>https://www.github.com/facebookresearch/AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>Code to accompany "A Method for Animating Children's Drawings of the Human Figure"</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>10965</t>
+        </is>
+      </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>963</t>
+        </is>
+      </c>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>websocket</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>https://www.github.com/gorilla/websocket</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>Package gorilla/websocket is a fast, well-tested and widely used WebSocket implementation for Go.</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>22727</t>
+        </is>
+      </c>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>3495</t>
+        </is>
+      </c>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>chainlist</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DefiLlama/chainlist</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>2420</t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>2483</t>
+        </is>
+      </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>https://www.github.com/open-telemetry/opentelemetry-collector</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>OpenTelemetry Collector</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>4635</t>
+        </is>
+      </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>1496</t>
+        </is>
+      </c>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>https://www.github.com/RocketChat/Rocket.Chat</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>The communications platform that puts data protection first.</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>41264</t>
+        </is>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>10889</t>
+        </is>
+      </c>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>dify</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langgenius/dify</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>Dify is an open-source LLM app development platform. Dify's intuitive interface combines AI workflow, RAG pipeline, agent capabilities, model management, observability features and more, letting you quickly go from prototype to production.</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>55196</t>
+        </is>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>8108</t>
+        </is>
+      </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-04</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25172,7 +25881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H615"/>
+  <dimension ref="A1:H633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49867,6 +50576,762 @@
         </is>
       </c>
     </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>8341</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>1028</t>
+        </is>
+      </c>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>2645</t>
+        </is>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>https://www.github.com/nexus-xyz/nexus-zkvm</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>The Nexus zkVM: The zero-knowledge virtual machine</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>2046</t>
+        </is>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>maigret</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>https://www.github.com/soxoj/maigret</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>🕵️‍♂️ Collect a dossier on a person by username from thousands of sites</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>13513</t>
+        </is>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>1928</t>
+        </is>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>7096</t>
+        </is>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>1257</t>
+        </is>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>9382</t>
+        </is>
+      </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>4904</t>
+        </is>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>23304</t>
+        </is>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>891</t>
+        </is>
+      </c>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>1470</t>
+        </is>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>3379</t>
+        </is>
+      </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="G622" t="inlineStr">
+        <is>
+          <t>1209</t>
+        </is>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>5017</t>
+        </is>
+      </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>1444</t>
+        </is>
+      </c>
+      <c r="G623" t="inlineStr">
+        <is>
+          <t>1310</t>
+        </is>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>13042</t>
+        </is>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>5354</t>
+        </is>
+      </c>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>18217</t>
+        </is>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>1282</t>
+        </is>
+      </c>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>14048</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>2135</t>
+        </is>
+      </c>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>gitea</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>https://www.github.com/go-gitea/gitea</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>Git with a cup of tea! Painless self-hosted all-in-one software development service, including Git hosting, code review, team collaboration, package registry and CI/CD</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>45931</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>5550</t>
+        </is>
+      </c>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>VAR</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>https://www.github.com/FoundationVision/VAR</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>[NeurIPS 2024 Oral][GPT beats diffusion🔥] [scaling laws in visual generation📈] Official impl. of "Visual Autoregressive Modeling: Scalable Image Generation via Next-Scale Prediction". An *ultra-simple, user-friendly yet state-of-the-art* codebase for autoregressive image generation!</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>6294</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>uv</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>https://www.github.com/astral-sh/uv</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>An extremely fast Python package and project manager, written in Rust.</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>32749</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>891</t>
+        </is>
+      </c>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>1509</t>
+        </is>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>pcsx2</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PCSX2/pcsx2</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>PCSX2 - The Playstation 2 Emulator</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>12191</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>1644</t>
+        </is>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>6903</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>731</t>
+        </is>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>2281</t>
+        </is>
+      </c>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>rig</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>https://www.github.com/0xPlaygrounds/rig</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>⚙️🦀 Build portable, modular &amp; lightweight Fullstack Agents</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>1093</t>
+        </is>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>https://www.github.com/lmarzen/esp32-weather-epd</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>A low-power E-Paper weather display powered by an ESP32 microcontroller. Utilizes the OpenWeatherMap API.</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>4680</t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>1510</t>
+        </is>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-05</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -49878,7 +51343,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H754"/>
+  <dimension ref="A1:H775"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -80301,6 +81766,888 @@
         </is>
       </c>
     </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E755" t="inlineStr">
+        <is>
+          <t>5017</t>
+        </is>
+      </c>
+      <c r="F755" t="inlineStr">
+        <is>
+          <t>1444</t>
+        </is>
+      </c>
+      <c r="G755" t="inlineStr">
+        <is>
+          <t>3807</t>
+        </is>
+      </c>
+      <c r="H755" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E756" t="inlineStr">
+        <is>
+          <t>9382</t>
+        </is>
+      </c>
+      <c r="F756" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="G756" t="inlineStr">
+        <is>
+          <t>7611</t>
+        </is>
+      </c>
+      <c r="H756" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E757" t="inlineStr">
+        <is>
+          <t>65734</t>
+        </is>
+      </c>
+      <c r="F757" t="inlineStr">
+        <is>
+          <t>7992</t>
+        </is>
+      </c>
+      <c r="G757" t="inlineStr">
+        <is>
+          <t>6010</t>
+        </is>
+      </c>
+      <c r="H757" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E758" t="inlineStr">
+        <is>
+          <t>6903</t>
+        </is>
+      </c>
+      <c r="F758" t="inlineStr">
+        <is>
+          <t>731</t>
+        </is>
+      </c>
+      <c r="G758" t="inlineStr">
+        <is>
+          <t>2678</t>
+        </is>
+      </c>
+      <c r="H758" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E759" t="inlineStr">
+        <is>
+          <t>103625</t>
+        </is>
+      </c>
+      <c r="F759" t="inlineStr">
+        <is>
+          <t>13010</t>
+        </is>
+      </c>
+      <c r="G759" t="inlineStr">
+        <is>
+          <t>5308</t>
+        </is>
+      </c>
+      <c r="H759" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>webvm</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leaningtech/webvm</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>Virtual Machine for the Web</t>
+        </is>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>Svelte</t>
+        </is>
+      </c>
+      <c r="E760" t="inlineStr">
+        <is>
+          <t>11011</t>
+        </is>
+      </c>
+      <c r="F760" t="inlineStr">
+        <is>
+          <t>1702</t>
+        </is>
+      </c>
+      <c r="G760" t="inlineStr">
+        <is>
+          <t>4980</t>
+        </is>
+      </c>
+      <c r="H760" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DataExpert-io/data-engineer-handbook</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>This is a repo with links to everything you'd ever want to learn about data engineering</t>
+        </is>
+      </c>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E761" t="inlineStr">
+        <is>
+          <t>23408</t>
+        </is>
+      </c>
+      <c r="F761" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="G761" t="inlineStr">
+        <is>
+          <t>8769</t>
+        </is>
+      </c>
+      <c r="H761" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E762" t="inlineStr">
+        <is>
+          <t>32680</t>
+        </is>
+      </c>
+      <c r="F762" t="inlineStr">
+        <is>
+          <t>6546</t>
+        </is>
+      </c>
+      <c r="G762" t="inlineStr">
+        <is>
+          <t>3775</t>
+        </is>
+      </c>
+      <c r="H762" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E763" t="inlineStr">
+        <is>
+          <t>30149</t>
+        </is>
+      </c>
+      <c r="F763" t="inlineStr">
+        <is>
+          <t>1869</t>
+        </is>
+      </c>
+      <c r="G763" t="inlineStr">
+        <is>
+          <t>4556</t>
+        </is>
+      </c>
+      <c r="H763" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E764" t="inlineStr">
+        <is>
+          <t>3379</t>
+        </is>
+      </c>
+      <c r="F764" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="G764" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="H764" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E765" t="inlineStr">
+        <is>
+          <t>7765</t>
+        </is>
+      </c>
+      <c r="F765" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
+      <c r="G765" t="inlineStr">
+        <is>
+          <t>1085</t>
+        </is>
+      </c>
+      <c r="H765" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E766" t="inlineStr">
+        <is>
+          <t>17280</t>
+        </is>
+      </c>
+      <c r="F766" t="inlineStr">
+        <is>
+          <t>1288</t>
+        </is>
+      </c>
+      <c r="G766" t="inlineStr">
+        <is>
+          <t>2818</t>
+        </is>
+      </c>
+      <c r="H766" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E767" t="inlineStr">
+        <is>
+          <t>9239</t>
+        </is>
+      </c>
+      <c r="F767" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="G767" t="inlineStr">
+        <is>
+          <t>3524</t>
+        </is>
+      </c>
+      <c r="H767" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E768" t="inlineStr">
+        <is>
+          <t>23857</t>
+        </is>
+      </c>
+      <c r="F768" t="inlineStr">
+        <is>
+          <t>2356</t>
+        </is>
+      </c>
+      <c r="G768" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="H768" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E769" t="inlineStr">
+        <is>
+          <t>15488</t>
+        </is>
+      </c>
+      <c r="F769" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="G769" t="inlineStr">
+        <is>
+          <t>5824</t>
+        </is>
+      </c>
+      <c r="H769" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E770" t="inlineStr">
+        <is>
+          <t>14072</t>
+        </is>
+      </c>
+      <c r="F770" t="inlineStr">
+        <is>
+          <t>1816</t>
+        </is>
+      </c>
+      <c r="G770" t="inlineStr">
+        <is>
+          <t>2886</t>
+        </is>
+      </c>
+      <c r="H770" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bitcoin/bitcoin</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>Bitcoin Core integration/staging tree</t>
+        </is>
+      </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E771" t="inlineStr">
+        <is>
+          <t>80825</t>
+        </is>
+      </c>
+      <c r="F771" t="inlineStr">
+        <is>
+          <t>36593</t>
+        </is>
+      </c>
+      <c r="G771" t="inlineStr">
+        <is>
+          <t>1397</t>
+        </is>
+      </c>
+      <c r="H771" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E772" t="inlineStr">
+        <is>
+          <t>1829</t>
+        </is>
+      </c>
+      <c r="F772" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="G772" t="inlineStr">
+        <is>
+          <t>804</t>
+        </is>
+      </c>
+      <c r="H772" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E773" t="inlineStr">
+        <is>
+          <t>39400</t>
+        </is>
+      </c>
+      <c r="F773" t="inlineStr">
+        <is>
+          <t>4473</t>
+        </is>
+      </c>
+      <c r="G773" t="inlineStr">
+        <is>
+          <t>5083</t>
+        </is>
+      </c>
+      <c r="H773" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>v2rayN</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>https://www.github.com/2dust/v2rayN</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>A GUI client for Windows and Linux, support Xray core and sing-box-core and others</t>
+        </is>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E774" t="inlineStr">
+        <is>
+          <t>71779</t>
+        </is>
+      </c>
+      <c r="F774" t="inlineStr">
+        <is>
+          <t>11762</t>
+        </is>
+      </c>
+      <c r="G774" t="inlineStr">
+        <is>
+          <t>2290</t>
+        </is>
+      </c>
+      <c r="H774" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>twenty</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>https://www.github.com/twentyhq/twenty</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>Building a modern alternative to Salesforce, powered by the community.</t>
+        </is>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E775" t="inlineStr">
+        <is>
+          <t>24242</t>
+        </is>
+      </c>
+      <c r="F775" t="inlineStr">
+        <is>
+          <t>2495</t>
+        </is>
+      </c>
+      <c r="G775" t="inlineStr">
+        <is>
+          <t>4005</t>
+        </is>
+      </c>
+      <c r="H775" t="inlineStr">
+        <is>
+          <t>2024-12-18 07-47-07</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/github.xlsx
+++ b/github.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="C31:D31"/>
@@ -1829,6 +1829,673 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ha_xiaomi_home</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.github.com/XiaoMi/ha_xiaomi_home</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Xiaomi Home Integration for Home Assistant</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>11816</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2959</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>opik</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.github.com/comet-ml/opik</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Open-source end-to-end LLM Development Platform</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2849</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>free-programming-books</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.github.com/EbookFoundation/free-programming-books</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>📚 Freely available programming books</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>342030</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>62045</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>konfig</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.github.com/konfig-dev/konfig</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>SDK &amp; API Docs Generator. Sunset as of December 2024</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>anoma</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.github.com/anoma/anoma</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Reference implementation of Anoma</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Elixir</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>10347</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>4053</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>stripe-ios</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.github.com/stripe/stripe-ios</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Stripe iOS SDK</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Swift</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2304</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>9450</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.github.com/facebookresearch/AnimatedDrawings</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Code to accompany "A Method for Animating Children's Drawings of the Human Figure"</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>11549</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>airflow</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.github.com/apache/airflow</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Apache Airflow - A platform to programmatically author, schedule, and monitor workflows</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>37758</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>14411</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>SeleniumBase</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.github.com/seleniumbase/SeleniumBase</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Python APIs for web automation, testing, and bypassing bot-detection.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>6809</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1034</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>624</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>unitree_rl_gym</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.github.com/unitreerobotics/unitree_rl_gym</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>834</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>PowerToys</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.github.com/microsoft/PowerToys</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Windows system utilities to maximize productivity</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>112593</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>frpc-desktop</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.github.com/luckjiawei/frpc-desktop</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>frp跨平台桌面客户端，可视化配置，轻松实现内网穿透！ 支持所有frp版本</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Vue</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>3633</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>base-ui</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.github.com/mui/base-ui</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Base UI is an open-source library of accessible, unstyled UI components for React.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1208</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>bun</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.github.com/oven-sh/bun</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Incredibly fast JavaScript runtime, bundler, test runner, and package manager – all in one</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Zig</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>74892</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2799</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>frp</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fatedier/frp</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A fast reverse proxy to help you expose a local server behind a NAT or firewall to the internet.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88207</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>13523</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-28</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1840,7 +2507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26:B27"/>
@@ -3410,6 +4077,762 @@
         </is>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>8712</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1048</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>3155</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>9811</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>5318</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>limbo</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.github.com/tursodatabase/limbo</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Limbo is a work-in-progress, in-process OLTP database management system, compatible with SQLite.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>3607</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>3516</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1390</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>rig</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.github.com/0xPlaygrounds/rig</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>⚙️🦀 Build portable, modular &amp; lightweight Fullstack Agents</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>maigret</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.github.com/soxoj/maigret</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>🕵️‍♂️ Collect a dossier on a person by username from thousands of sites</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>13642</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1024</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>PowerToys</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.github.com/microsoft/PowerToys</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Windows system utilities to maximize productivity</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>112593</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>14139</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2141</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>next-saas-starter</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.github.com/leerob/next-saas-starter</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Get started quickly with Next.js, Postgres, Stripe, and shadcn/ui.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>7189</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>gitea</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.github.com/go-gitea/gitea</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Git with a cup of tea! Painless self-hosted all-in-one software development service, including Git hosting, code review, team collaboration, package registry and CI/CD</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>46019</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5556</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>EIPs</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum/EIPs</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>The Ethereum Improvement Proposal repository</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>13051</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5359</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>chains</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum-lists/chains</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>provides metadata for chains</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Kotlin</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>9026</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6765</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>dioxus</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DioxusLabs/dioxus</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Fullstack app framework for web, desktop, mobile, and more.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>23451</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>901</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>1022</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>18289</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1286</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1537</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>runner-images</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.github.com/actions/runner-images</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>GitHub Actions runner images</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>PowerShell</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>10410</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3123</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>shardeum</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.github.com/shardeum/shardeum</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Shardeum is an EVM based autoscaling blockchain</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>24031</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2042</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>fzf</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.github.com/junegunn/fzf</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>🌸 A command-line fuzzy finder</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>66409</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2417</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-29</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3421,7 +4844,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
@@ -5285,6 +6708,930 @@
         </is>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>9811</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>7996</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1537</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>3725</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>65846</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8001</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>6022</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>7194</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2993</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>multi-agent-orchestrator</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.github.com/awslabs/multi-agent-orchestrator</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Flexible and powerful framework for managing multiple AI agents and handling complex conversations</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2989</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2246</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>103751</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>13020</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>5085</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>17377</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2873</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by TEN, integrating Gemini 2.0 Multimodal Live API, OpenAI Realtime API, RTC, and more. It offers real-time capabilities to see, hear, and speak, along with advanced tools like weather checks, web search, and RAG.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>3516</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2125</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>9450</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>3732</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>7783</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>1038</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>30278</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1888</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>4583</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>freqtrade</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.github.com/freqtrade/freqtrade</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Free, open source crypto trading bot</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>32766</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6557</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2612</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>23929</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2367</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>1925</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bitcoin/bitcoin</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Bitcoin Core integration/staging tree</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>80883</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>36608</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>1425</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>v2rayN</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.github.com/2dust/v2rayN</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A GUI client for Windows and Linux, support Xray core and sing-box-core and others</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>71902</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>11782</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2264</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>15744</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>804</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>5792</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>14127</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1830</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2741</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>feed-generator</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/feed-generator</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>ATProto Feed Generator Starter Kit</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1576</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>FreeCAD</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://www.github.com/FreeCAD/FreeCAD</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>This is the official source code of FreeCAD, a free and opensource multiplatform 3D parametric modeler.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>21998</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4200</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2144</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>39747</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4502</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>5287</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>free-programming-books</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://www.github.com/EbookFoundation/free-programming-books</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>📚 Freely available programming books</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>342030</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>62045</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>4012</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KellerJordan/modded-nanogpt</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>NanoGPT (124M) in 5 minutes</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>882</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2024-12-20 02-30-30</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H22">
     <sortState ref="A2:H22">

--- a/github.xlsx
+++ b/github.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="C31:D31"/>
@@ -2496,6 +2496,799 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Genesis</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Genesis-Embodied-AI/Genesis</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A generative world for general-purpose robotics &amp; embodied AI learning.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>15043</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>7179</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-20-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>opik</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.github.com/comet-ml/opik</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>From RAG chatbots to code assistants to complex agentic pipelines and beyond, build LLM systems that run better, faster, and cheaper with tracing, evaluations, and dashboards.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>3346</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-20-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CopilotForXcode</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.github.com/github/CopilotForXcode</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Xcode extension for GitHub Copilot</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Swift</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2230</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-20-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>helicone</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Helicone/helicone</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>🧊 Open source LLM-Observability Platform for Developers. One-line integration for monitoring, metrics, evals, agent tracing, prompt management, playground, etc. Supports OpenAI SDK, Vercel AI SDK, Anthropic SDK, LiteLLM, LLamaIndex, LangChain, and more. 🍓 YC W23</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2442</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-20-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ha_xiaomi_home</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.github.com/XiaoMi/ha_xiaomi_home</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Xiaomi Home Integration for Home Assistant</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>13297</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2352</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-20-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SeleniumBase</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.github.com/seleniumbase/SeleniumBase</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Python APIs for web automation, testing, and bypassing bot-detection.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-20-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>cline</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.github.com/cline/cline</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Autonomous coding agent right in your IDE, capable of creating/editing files, executing commands, using the browser, and more with your permission every step of the way.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>15514</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1261</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-20-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>anoma</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.github.com/anoma/anoma</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Reference implementation of Anoma</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Elixir</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>11535</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-20-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>awesome-cursorrules</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PatrickJS/awesome-cursorrules</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>📄 A curated list of awesome .cursorrules files</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>4010</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-20-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>scylladb</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.github.com/scylladb/scylladb</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>NoSQL data store using the seastar framework, compatible with Apache Cassandra</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>13815</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1313</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-20-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>meilisearch</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.github.com/meilisearch/meilisearch</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A lightning-fast search API that fits effortlessly into your apps, websites, and workflow</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>48219</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1883</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-20-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>shardeum</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.github.com/shardeum/shardeum</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Shardeum is an EVM based autoscaling blockchain</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>24499</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>706</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-20-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>vitest</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.github.com/vitest-dev/vitest</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Next generation testing framework powered by Vite.</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>13358</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1212</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-20-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>nuxt</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://www.github.com/nuxt/nuxt</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>The Intuitive Vue Framework.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>55421</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5066</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-20-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>llama-stack</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://www.github.com/meta-llama/llama-stack</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Composable building blocks to build Llama Apps</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>5543</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-20-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>taichi</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://www.github.com/taichi-dev/taichi</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Productive, portable, and performant GPU programming in Python.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>26002</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2296</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-20-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>stripe-ios</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://www.github.com/stripe/stripe-ios</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Stripe iOS SDK</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Swift</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2342</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-20-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>flutter</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://www.github.com/flutter/flutter</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Flutter makes it easy and fast to build beautiful apps for mobile and beyond</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Dart</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>167222</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>27733</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-20-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>concurrentqueue</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://www.github.com/cameron314/concurrentqueue</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>A fast multi-producer, multi-consumer lock-free concurrent queue for C++11</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>10361</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1710</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-20-59</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2507,7 +3300,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26:B27"/>
@@ -4833,6 +5626,762 @@
         </is>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>cookbook</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.github.com/google-gemini/cookbook</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Examples and guides for using the Gemini API</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Jupyter Notebook</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>8976</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1066</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>3254</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>limbo</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.github.com/tursodatabase/limbo</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Limbo is a work-in-progress, in-process OLTP database management system, compatible with SQLite.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>7395</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2764</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>9982</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>4772</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>PowerToys</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.github.com/microsoft/PowerToys</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Windows system utilities to maximize productivity</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>112698</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6640</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>helium</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.github.com/mherrmann/helium</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Lighter web automation with Python</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>6870</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>CopilotKit</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.github.com/CopilotKit/CopilotKit</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>React UI + elegant infrastructure for AI Copilots, in-app AI agents, AI chatbots, and AI-powered Textareas 🪁</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>14182</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2142</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>logicanalyzer</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.github.com/gusmanb/logicanalyzer</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>24 channel, 100Msps logic analyzer hardware and software</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>3080</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>rig</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://www.github.com/0xPlaygrounds/rig</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>⚙️🦀 Build portable, modular &amp; lightweight Fullstack Agents</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Rust</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1216</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>fzf</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://www.github.com/junegunn/fzf</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>🌸 A command-line fuzzy finder</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>66454</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2417</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>LazyVim</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://www.github.com/LazyVim/LazyVim</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Neovim config for the lazy</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Lua</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>18307</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1286</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>497</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>5428</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1581</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>1238</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>chains</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ethereum-lists/chains</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>provides metadata for chains</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Kotlin</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>9036</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6766</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>pcsx2</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://www.github.com/PCSX2/pcsx2</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>PCSX2 - The Playstation 2 Emulator</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>12248</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1646</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>gitea</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://www.github.com/go-gitea/gitea</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Git with a cup of tea! Painless self-hosted all-in-one software development service, including Git hosting, code review, team collaboration, package registry and CI/CD</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>46055</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5557</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>spotube</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://www.github.com/KRTirtho/spotube</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>🎧 Open source Spotify client that doesn't require Premium nor uses Electron! Available for both desktop &amp; mobile!</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Dart</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>32724</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1366</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>runner-images</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://www.github.com/actions/runner-images</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>GitHub Actions runner images</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>PowerShell</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>10419</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3129</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>opik</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://www.github.com/comet-ml/opik</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>From RAG chatbots to code assistants to complex agentic pipelines and beyond, build LLM systems that run better, faster, and cheaper with tracing, evaluations, and dashboards.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>3346</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>firefly-iii</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://www.github.com/firefly-iii/firefly-iii</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Firefly III: a personal finances manager</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>16745</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1515</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4844,7 +6393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
@@ -7632,6 +9181,842 @@
         </is>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>eliza</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ai16z/eliza</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Autonomous agents for everyone</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>5428</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1581</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>3653</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Byaidu/PDFMathTranslate</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>PDF scientific paper translation with preserved formats - 基于 AI 完整保留排版的 PDF 文档全文双语翻译，支持 Google/DeepL/Ollama/OpenAI 等服务，提供 CLI/GUI/Docker</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>9982</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>7822</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://www.github.com/abi/screenshot-to-code</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Drop in a screenshot and convert it to clean code (HTML/Tailwind/React/Vue)</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>65907</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>8009</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>5987</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Shubhamsaboo/awesome-llm-apps</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Collection of awesome LLM apps with RAG using OpenAI, Anthropic, Gemini and opensource models.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>7298</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>3105</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>fish-speech</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://www.github.com/fishaudio/fish-speech</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>SOTA Open Source TTS</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>17429</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1303</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2900</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>multi-agent-orchestrator</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://www.github.com/awslabs/multi-agent-orchestrator</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Flexible and powerful framework for managing multiple AI agents and handling complex conversations</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>3001</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>1898</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>hello-algo</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://www.github.com/krahets/hello-algo</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>《Hello 算法》：动画图解、一键运行的数据结构与算法教程。支持 Python, Java, C++, C, C#, JS, Go, Swift, Rust, Ruby, Kotlin, TS, Dart 代码。简体版和繁体版同步更新，English version ongoing</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>103818</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>13023</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>5051</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>TEN-Agent</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://www.github.com/TEN-framework/TEN-Agent</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>TEN Agent is a conversational AI powered by the TEN, integrating Gemini 2.0 Live, OpenAI Realtime, RTC, and more. It delivers real-time capabilities to see, hear, and speak, while being fully compatible with popular workflow platforms like Dify and Coze.</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>3562</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2125</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>iptv-api</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Guovin/iptv-api</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>📺IPTV电视直播源更新工具🚀：✨央视、📡卫视、☘️广东及各省份地方台、🌊港·澳·台、🎬电影、🎥咪咕、🏀体育、🪁动画、🎮游戏、🎵音乐、🏛经典剧场；支持IPv4/IPv6；支持自定义增加频道；支持组播源、酒店源、订阅源、关键字搜索；每天自动更新两次，结果可用于TVBox等播放软件；支持工作流、Docker(amd64/arm64/arm v7)、命令行、GUI运行方式 | IPTV live TV source update tool</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>9578</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2044</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>3817</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>atproto</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/atproto</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Social networking technology created by Bluesky</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>7798</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>v2rayN</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://www.github.com/2dust/v2rayN</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>A GUI client for Windows and Linux, support Xray core and sing-box-core and others</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>71939</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>11792</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2266</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bitcoin/bitcoin</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Bitcoin Core integration/staging tree</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>80913</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>36612</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>1436</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>langflow</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://www.github.com/langflow-ai/langflow</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Langflow is a low-code app builder for RAG and multi-agent AI applications. It’s Python-based and agnostic to any model, API, or database.</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>39885</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4515</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>5346</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>free-programming-books</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://www.github.com/EbookFoundation/free-programming-books</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>📚 Freely available programming books</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>342199</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>62060</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>4235</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://www.github.com/payloadcms/payload</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Payload is the open-source, fullstack Next.js framework, giving you instant backend superpowers. Get a full TypeScript backend and admin panel instantly. Use Payload as a headless CMS or for building powerful applications.</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>30346</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1894</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>4057</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>chatbox</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Bin-Huang/chatbox</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>User-friendly Desktop Client App for AI Models/LLMs (GPT, Claude, Gemini, Ollama...)</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>23958</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2374</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>1707</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>weekly</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://www.github.com/ruanyf/weekly</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>科技爱好者周刊，每周五发布</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>49800</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2959</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>docling</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://www.github.com/DS4SD/docling</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Get your documents ready for gen AI</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>15877</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>809</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>5740</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>social-app</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://www.github.com/bluesky-social/social-app</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>The Bluesky Social application for Web, iOS, and Android</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>TypeScript</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>14152</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1834</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2629</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>SeleniumBase</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://www.github.com/seleniumbase/SeleniumBase</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Python APIs for web automation, testing, and bypassing bot-detection.</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>7163</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>1592</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2024-12-21 02-21-01</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H22">
     <sortState ref="A2:H22">

--- a/github.xlsx
+++ b/github.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="C31:D31"/>
@@ -3289,6 +3289,804 @@
         </is>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>clay</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://www.github.com/nicbarker/clay</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>High performance UI layout library in C.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>4225</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>812</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2024-12-22 02-34-55</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Genesis</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://www.github.com/Genesis-Embodied-AI/Genesis</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>A generative world for general-purpose robotics &amp; embodied AI learning.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>16589</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1143</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2430</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2024-12-22 02-34-55</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>nullboard</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://www.github.com/apankrat/nullboard</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Nullboard is a minimalist kanban board, focused on compactness and readability.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>HTML</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>3613</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2024-12-22 02-34-55</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>airflow</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://www.github.com/apache/airflow</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Apache Airflow - A platform to programmatically author, schedule, and monitor workflows</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>37912</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>14433</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2024-12-22 02-34-55</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>SeleniumBase</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://www.github.com/seleniumbase/SeleniumBase</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Python APIs for web automation, testing, and bypassing bot-detection.</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>7430</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2024-12-22 02-34-55</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+      